--- a/Data quality revision R overview v01.xlsx
+++ b/Data quality revision R overview v01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="265">
   <si>
     <t>Acronym (falls vorhanden)</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Supported R version</t>
   </si>
   <si>
-    <t>&gt;=3.6.0</t>
-  </si>
-  <si>
     <t>≥ 3.5.0</t>
   </si>
   <si>
@@ -209,285 +206,667 @@
     <t>https://cran.r-project.org/web/packages/summarytools/vignettes/introduction.html</t>
   </si>
   <si>
+    <t>VIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kowarik A, Templ M (2016). “Imputation with the R Package VIM.” Journal of Statistical Software, 74(7), 1–16. doi: 10.18637/jss.v074.i07 </t>
+  </si>
+  <si>
+    <t>Tool3</t>
+  </si>
+  <si>
+    <t>Tool4</t>
+  </si>
+  <si>
+    <t>Tool5</t>
+  </si>
+  <si>
+    <t>Tool6</t>
+  </si>
+  <si>
+    <t>Tool7</t>
+  </si>
+  <si>
+    <t>Tool8</t>
+  </si>
+  <si>
+    <t>http://statistikat.github.io/VIM/index.html</t>
+  </si>
+  <si>
+    <t>VIM introduces new tools for the visualization of missing and/or imputed values, which can be used for exploring the data and the structure of the missing and/or imputed values. Depending on this structure of the missing values, the corresponding methods may help to identify the mechanism generating the missings and allows to explore the data including missing values. In addition, the quality of imputation can be visually explored using various univariate, bivariate, multiple and multivariate plot methods</t>
+  </si>
+  <si>
+    <t>6.1.1</t>
+  </si>
+  <si>
+    <t>as VIMGUI (but it was removed from CRAN)</t>
+  </si>
+  <si>
+    <t>dlookr</t>
+  </si>
+  <si>
+    <t>https://github.com/choonghyunryu/dlookr</t>
+  </si>
+  <si>
+    <t>0.5.1</t>
+  </si>
+  <si>
+    <t>GPL-2 | file LICENSE</t>
+  </si>
+  <si>
+    <t>html, pdf</t>
+  </si>
+  <si>
+    <t>A collection of tools that support data diagnosis, exploration, and transformation. Data diagnostics provides information and visualization of missing values and outliers and unique and negative values to help you understand the distribution and quality of your data. Data exploration provides information and visualization of the descriptive statistics of univariate variables, normality tests and outliers, correlation of two variables, and relationship between target variable and predictor. Data transformation supports binning for categorizing continuous variables, imputates missing values and outliers, resolving skewness. And it creates automated reports that support these three tasks.</t>
+  </si>
+  <si>
+    <t>Control via programming</t>
+  </si>
+  <si>
+    <t>First published (on CRAN)</t>
+  </si>
+  <si>
+    <t>Unexpected data elements</t>
+  </si>
+  <si>
+    <t>Unexpected data records</t>
+  </si>
+  <si>
+    <t>Duplicates</t>
+  </si>
+  <si>
+    <t>Data record mismatch</t>
+  </si>
+  <si>
+    <t>Data element mismatch</t>
+  </si>
+  <si>
+    <t>Data type mismatch</t>
+  </si>
+  <si>
+    <t>Inhomogeneous value formats</t>
+  </si>
+  <si>
+    <t>Uncertain missingness status</t>
+  </si>
+  <si>
+    <t>Integrity</t>
+  </si>
+  <si>
+    <t>Completeness</t>
+  </si>
+  <si>
+    <t>Missing values</t>
+  </si>
+  <si>
+    <t>Non-response rate</t>
+  </si>
+  <si>
+    <t>Refusal rate</t>
+  </si>
+  <si>
+    <t>Drop-out rate</t>
+  </si>
+  <si>
+    <t>Missing due to specified reason</t>
+  </si>
+  <si>
+    <t>Consistency</t>
+  </si>
+  <si>
+    <t>Inadmissible numerical values</t>
+  </si>
+  <si>
+    <t>Inadmissible time-date values</t>
+  </si>
+  <si>
+    <t>Inadmissible categorical values</t>
+  </si>
+  <si>
+    <t>Inadmissible standardized vocabulary</t>
+  </si>
+  <si>
+    <t>Inadmissible precision</t>
+  </si>
+  <si>
+    <t>Uncertain numerical values</t>
+  </si>
+  <si>
+    <t>Uncertain time-date values</t>
+  </si>
+  <si>
+    <t>Logical contradictions</t>
+  </si>
+  <si>
+    <t>Empirical contradictions</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Univariate outliers</t>
+  </si>
+  <si>
+    <t>Multivariate outliers</t>
+  </si>
+  <si>
+    <t>Unexpected locations</t>
+  </si>
+  <si>
+    <t>Unexpected shape</t>
+  </si>
+  <si>
+    <t>Unexpected scale</t>
+  </si>
+  <si>
+    <t>Unexpected proportions</t>
+  </si>
+  <si>
+    <t>Unexpected association strength</t>
+  </si>
+  <si>
+    <t>Unexpected association direction</t>
+  </si>
+  <si>
+    <t>Unexpected association form</t>
+  </si>
+  <si>
+    <t>Inter-Class reliability</t>
+  </si>
+  <si>
+    <t>Intra-Class reliability</t>
+  </si>
+  <si>
+    <t>Disagreement with gold standard</t>
+  </si>
+  <si>
+    <t>Latest version</t>
+  </si>
+  <si>
+    <t>Latest update (on CRAN)</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>dataReporter (first published as dataMaid)</t>
+  </si>
+  <si>
+    <t>1.0.9</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>Richter et al. (2021). dataquieR: assessment of data quality in epidemiological research. Journal of Open Source Software, 6(61), 3093, https://doi.org/10.21105/joss.03093</t>
+  </si>
+  <si>
+    <t>Identify case issues</t>
+  </si>
+  <si>
+    <t>Count missing (NAs)</t>
+  </si>
+  <si>
+    <t>Identify missing (codes)</t>
+  </si>
+  <si>
+    <t>Unique values</t>
+  </si>
+  <si>
+    <t>Identify loners</t>
+  </si>
+  <si>
+    <t>Identify missclassified numerical variables</t>
+  </si>
+  <si>
+    <t>Identify outliers</t>
+  </si>
+  <si>
+    <t>Identify whitespace</t>
+  </si>
+  <si>
+    <t>dataMaid implements an extensive and customizable suite of quality assessment aids that can be applied to a dataset in order to identifypotential problems in its variables. The results are presented in an auto-generated, non-technical, stand-alone overview document intended to be perused by an investigator withan understanding of the variables in the data, but not necessarily knowledge ofR. Thereby,dataMaidaids the dialogue between data analysts and field experts, while also providingeasy documentation of reproducible data quality screening. Moreover, thedataMaidsolu-tion changes the data screening process from the usual ad hoc approach to a systematic,well-documented endeavor.dataMaidalso provides a suite of more typicalRtools for in-teractive data quality assessment and screening, where the data inspections are executeddirectly in theRconsole.</t>
+  </si>
+  <si>
+    <t>Duplicate records</t>
+  </si>
+  <si>
+    <t>R markdown, html, txt</t>
+  </si>
+  <si>
+    <t>descriptive and grouped statistics, sampling weights, pipe operators, tibbles, frequency tables, cross-tabulations, detects barcode numbers and email addresses, apply functions to data frames, custom CSS file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/statistikat/VIM </t>
+  </si>
+  <si>
+    <t>imputation methods (hot-deck, k-nearest neighbor, regression, and iterative robust model-based)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://CRAN.R-project.org/package=VIM </t>
+  </si>
+  <si>
+    <t>Documentation URL</t>
+  </si>
+  <si>
+    <t>https://CRAN.R-project.org/package=summarytools</t>
+  </si>
+  <si>
+    <t>https://CRAN.R-project.org/package=dataReporter</t>
+  </si>
+  <si>
+    <t>https://CRAN.R-project.org/package=dataquieR</t>
+  </si>
+  <si>
+    <t>R figures</t>
+  </si>
+  <si>
+    <t>GPL-2 | GPL-3 [expanded from: GPL (≥ 2)]</t>
+  </si>
+  <si>
+    <t>https://CRAN.R-project.org/package=dlookr</t>
+  </si>
+  <si>
+    <t>≥ 3.2.0</t>
+  </si>
+  <si>
+    <t>missing_count (NAs)</t>
+  </si>
+  <si>
+    <t>outlier</t>
+  </si>
+  <si>
+    <t>descriptive statistics, data transformation, imputation, integration with dplyr</t>
+  </si>
+  <si>
+    <t>≥ 3.6.0</t>
+  </si>
+  <si>
+    <t>validate</t>
+  </si>
+  <si>
+    <t>https://CRAN.R-project.org/package=validate</t>
+  </si>
+  <si>
+    <t>GPL-3</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>van der Loo MPJ, de Jonge E (2021). “Data Validation Infrastructure for R.” Journal of Statistical Software, 97(10), 1–31. doi: 10.18637/jss.v097.i10</t>
+  </si>
+  <si>
+    <t>https://data-cleaning.github.io/validate</t>
+  </si>
+  <si>
+    <t>https://github.com/data-cleaning/validate</t>
+  </si>
+  <si>
+    <t>Checking data quality against domain knowledge is a common activity that pervades statistical analysis from raw data to output. The R package validate facilitates this task by capturing and applying expert knowledge in the form of validation rules: logical restrictions on variables, records, or data sets that should be satisfied before they are considered valid input for further analysis. In the validate package, validation rules are objects of computation that can be manipulated, investigated, and confronted with data or versions of a data set. The results of a confrontation are then available for further investigation, summarization or visualization. Validation rules can also be endowed with metadata and documentation and they may be stored or retrieved from external sources such as text files or tabular formats. This data validation infrastructure thus allows for systematic, user-defined definition of data quality requirements that can be reused for various versions of a data set or by data correction algorithms that are parameterized by validation rules.</t>
+  </si>
+  <si>
+    <t>Variable type (is.numeric or is.character)</t>
+  </si>
+  <si>
+    <t>https://github.com/data-cleaning/validatereport</t>
+  </si>
+  <si>
+    <t>R objects (JSON for validatereport)</t>
+  </si>
+  <si>
+    <t>yes, as "validation rules" (text and yaml files)</t>
+  </si>
+  <si>
+    <t>yes, as "validation rules"</t>
+  </si>
+  <si>
+    <t>Field length (number of characters in text fields)</t>
+  </si>
+  <si>
+    <t>Format of numeric fields, general field format</t>
+  </si>
+  <si>
+    <t>Numeric ranges</t>
+  </si>
+  <si>
+    <t>Ranges for times and periods</t>
+  </si>
+  <si>
+    <t>Code lists (set of values that a variable is allowed to assume)</t>
+  </si>
+  <si>
+    <t>Uniqueness</t>
+  </si>
+  <si>
+    <t>Availability of records</t>
+  </si>
+  <si>
+    <t>Gaps in (time) series (linear sequences)</t>
+  </si>
+  <si>
+    <t>Missingness (NAs),  Completeness of records (multivariate)</t>
+  </si>
+  <si>
+    <t>Balance equalities and inequalities, Conditional restrictions</t>
+  </si>
+  <si>
+    <t>Forbidden value combinations</t>
+  </si>
+  <si>
+    <t>handling long format data, comparing data sets (with lumberjack package), statistical checks, continuous data indicators</t>
+  </si>
+  <si>
+    <t>yes, iff using validatereport package (in beta version only - does not work)</t>
+  </si>
+  <si>
+    <t>unique_count</t>
+  </si>
+  <si>
+    <t>Tool9</t>
+  </si>
+  <si>
+    <t>Tool10</t>
+  </si>
+  <si>
+    <t>Tool11</t>
+  </si>
+  <si>
+    <t>Tool12</t>
+  </si>
+  <si>
+    <t>Tool13</t>
+  </si>
+  <si>
+    <t>Tool14</t>
+  </si>
+  <si>
+    <t>Tool15</t>
+  </si>
+  <si>
+    <t>Tool16</t>
+  </si>
+  <si>
+    <t>Tool17</t>
+  </si>
+  <si>
+    <t>Tool18</t>
+  </si>
+  <si>
+    <t>Tool19</t>
+  </si>
+  <si>
+    <t>Tool20</t>
+  </si>
+  <si>
+    <t>https://CRAN.R-project.org/package=MOQA</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>AGPL-3</t>
+  </si>
+  <si>
+    <t>Bialke, M., Rau, H., Schwaneberg, T., Walk, R., Bahls, T., &amp; Hoffmann, W. (2017). mosaicQA-A General Approach to Facilitate Basic Data Quality Assurance for Epidemiological Research. Methods of information in medicine, 56(S 01), e67-e73. doi:10.3414/ME16-01-0123</t>
+  </si>
+  <si>
+    <t>MOQA (first published as mosaicQA)</t>
+  </si>
+  <si>
+    <t>The aim of the MOQA R-Package is to provide a basic assessment of data quality and to generate a set of informative graphs. Especially, there should be no demand for the potential researcher to master R. This R-package enables researchers to generate reports for various kinds of metric and categorical data. Additionally, general reports for multivariate input data and, if needed, detailed results for single-variable data can be produced. CSV-files as well as dataframes can be used as input format to create a report. The results are instantly saved in an automatically generated PDF-file. For each study variable within the data input file a separate PDF-file with standard or, if applicable, customized plots and tables is produced. These standard reports enable the user to monitor and report the data integrity and completeness. However, for more specific reports the knowledge of metadata is necessary, including definition of units, variables, descriptions, code lists and categories of qualified missings.</t>
+  </si>
+  <si>
+    <t>Nonnemacher, M., Nasseh, D., &amp; Stausberg, J. (2014). Datenqualität in der medizinischen Forschung: Leitlinie zum Adaptiven Datenmanagement in Kohortenstudien und Registern. Berlin: Medizinisch Wissenschaftliche Verlagsgeselschaft.</t>
+  </si>
+  <si>
+    <t>TMF guideline</t>
+  </si>
+  <si>
+    <t>not given (implemented on 3.3.2)</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thieme-connect.de/products/ejournals/abstract/10.3414/ME16-01-0123 </t>
+  </si>
+  <si>
+    <t>descriptive statistics, set global thresholds for missings, unit labels, description of variable data, categorical data</t>
+  </si>
+  <si>
+    <t>Unique values in data column</t>
+  </si>
+  <si>
+    <t>Quantify missing values</t>
+  </si>
+  <si>
+    <t>outliers</t>
+  </si>
+  <si>
+    <t>dataClean</t>
+  </si>
+  <si>
+    <t>≥ 3.1.0</t>
+  </si>
+  <si>
+    <t>Includes functions that researchers or practitioners may use to clean raw data, transferring html, xlsx, txt data file into other formats. And it also can be used to manipulate text variables, extract numeric variables from text variables and other variable cleaning processes</t>
+  </si>
+  <si>
+    <t>data collection, extracting and merging from "html", "xls" or "xlsx" files, automatically pull data on specified website</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=DataClean</t>
+  </si>
+  <si>
+    <t>https://github.com/XiaoruiZhu/DataClean</t>
+  </si>
+  <si>
+    <t>R objects and xlsx files</t>
+  </si>
+  <si>
+    <t>dataQualityR</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=dataQualityR</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>Archived on 2021-06-09 as check issues were not corrected in time</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>https://github.com/cran/dataQualityR/blob/master/R/checkDataQuality.R</t>
+  </si>
+  <si>
+    <t>Missing values (NAs)</t>
+  </si>
+  <si>
+    <t>Performs variable level data quality checks including missing values, unique values, frequency tables, and generates summary statistics</t>
+  </si>
+  <si>
+    <t>accrued</t>
+  </si>
+  <si>
+    <t>https://CRAN.R-project.org/package=accrued</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Eaton, J., Painter, I., Olson, D., &amp; Lober, W. B. (2015). Visualizing the quality of partially accruing data for use in decision making. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Online journal of public health informatics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(3), e226. https://doi.org/10.5210/ojphi.v7i3.6096</t>
+    </r>
+  </si>
+  <si>
+    <t>datacheck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archived on 2020-10-28 as check issues were not corrected in time. </t>
+  </si>
+  <si>
+    <t>fastqcr</t>
+  </si>
+  <si>
+    <t>≥ 3.1.2</t>
+  </si>
+  <si>
+    <t>0.1.2</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=fastqcr</t>
+  </si>
+  <si>
+    <t>FASTQC is the most widely used tool for evaluating the quality of high throughput sequencing data. It produces, for each sample, an html report and a compressed file containing the raw data. If you have hundreds of samples, you are not going to open up each 'HTML' page. You need some way of looking at these data in aggregate. 'fastqcr' Provides helper functions to easily parse, aggregate and analyze 'FastQC' reports for large numbers of samples. It provides a convenient solution for building a 'Multi-QC' report, as well as, a 'one-sample' report with result interpretations.</t>
+  </si>
+  <si>
+    <t>http://www.sthda.com/english/rpkgs/fastqcr/</t>
+  </si>
+  <si>
+    <t>html, FASTQ</t>
+  </si>
+  <si>
+    <t>https://github.com/kassambara/fastqcr</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>https://github.com/CIP-RIU/datacheck</t>
+  </si>
+  <si>
+    <t>Functions to check variables against a set of data quality rules. A rule file can be accompanied by look-up tables. In addition, there are some convenience functions that may serve as an example for defining clearer 'data rules'. An HTML based user interface facilitates initial exploration of the functionality.</t>
+  </si>
+  <si>
+    <t>MIT + file LICENSE</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=datacheck</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Excluded: data manipulation only, no assesment of data quality</t>
+  </si>
+  <si>
+    <t>Excluded: restricted to sequencing data quality assesment</t>
+  </si>
+  <si>
+    <t>R objects</t>
+  </si>
+  <si>
+    <t>yes, as "rules"</t>
+  </si>
+  <si>
+    <t>yes, as "rules" (R files)</t>
+  </si>
+  <si>
+    <t>yes, according to number of rules passed</t>
+  </si>
+  <si>
+    <t>R objects, html</t>
+  </si>
+  <si>
+    <t>yes (shiny app)</t>
+  </si>
+  <si>
+    <t>≥ 2.14.1</t>
+  </si>
+  <si>
+    <t>The accrued package contains methods for visualizing data quality for partially accruing data. A time series is partially accruing if data for each time point are accrued piecemeal and become more complete over time. The primary feature of partially accruing data we note is the effect of accrual lag —the difference between the event time (emergency department visit date) versus record time (also referred to as upload date), which is the time when the data become available to the system. Our summary and visualization methods primarily revolve around visualizing aspects of the data quality affected by accrual lag (referred to here as lag, though this is fundamentally different from the traditional definition of lag in time series analysis).</t>
+  </si>
+  <si>
+    <t>Restricted to data quality affected by accrual lag. Archived on 2020-12-01 as check problems were not corrected in time.</t>
+  </si>
+  <si>
+    <t>Distribute data quality analysis</t>
+  </si>
+  <si>
+    <t>descriptive statistics, visualizations for accruing data</t>
+  </si>
+  <si>
+    <t>Wang R, Strong D. 1996. Beyond accuracy: What data quality means to data consumers. J Manage Inf Syst. 12(4), 5-33. 
+Painter I, Eaton J, Olson D, Revere D, Lober W. 2011. How good is your data? Emerging Health Threats Journal. 4, 142.</t>
+  </si>
+  <si>
+    <t>deducorrect</t>
+  </si>
+  <si>
+    <t>1.3.7</t>
+  </si>
+  <si>
+    <t>≥ 2.9.0</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=deducorrect</t>
+  </si>
+  <si>
+    <t>Active development has moved to the deductive package for deductive correction methodology and to dcmodify for rule-based data cleaning.</t>
+  </si>
+  <si>
+    <t>https://github.com/data-cleaning/deducorrect</t>
+  </si>
+  <si>
+    <t>An R package for rule-based record correction and imputation</t>
+  </si>
+  <si>
+    <t>Deductive correction methods for sign, rounding and typing errors It also contains functionality to check if a matrix of linear restrictions is totally unimodular.</t>
+  </si>
+  <si>
+    <t>yes, through editrules package</t>
+  </si>
+  <si>
     <t>summarytools provides a coherent set of functions centered on data exploration and simple reporting. The package was developed with the following objectives in mind:
- - Provide a coherent set of easy-to-use descriptive functions that are
-   akin to those included in commercial statistical software suites such as SAS, SPSS, and Stata 
+ - Provide a coherent set of easy-to-use descriptive functions that are akin to those included in commercial statistical software suites such as SAS, SPSS, and Stata 
  - Offer flexibility in terms of output format &amp; content  
- - Integrate well with commonly used software &amp; tools for reporting
-   (the [RStudio](https://www.rstudio.com/products/rstudio/) IDE,
-   [Rmarkdown](https://rmarkdown.rstudio.com/), and 
-   [knitr](https://yihui.org/knitr/)) while also allowing for standalone,
-   simple report generation using any R interface</t>
-  </si>
-  <si>
-    <t>VIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kowarik A, Templ M (2016). “Imputation with the R Package VIM.” Journal of Statistical Software, 74(7), 1–16. doi: 10.18637/jss.v074.i07 </t>
-  </si>
-  <si>
-    <t>Tool3</t>
-  </si>
-  <si>
-    <t>Tool4</t>
-  </si>
-  <si>
-    <t>Tool5</t>
-  </si>
-  <si>
-    <t>Tool6</t>
-  </si>
-  <si>
-    <t>Tool7</t>
-  </si>
-  <si>
-    <t>Tool8</t>
-  </si>
-  <si>
-    <t>http://statistikat.github.io/VIM/index.html</t>
-  </si>
-  <si>
-    <t>VIM introduces new tools for the visualization of missing and/or imputed values, which can be used for exploring the data and the structure of the missing and/or imputed values. Depending on this structure of the missing values, the corresponding methods may help to identify the mechanism generating the missings and allows to explore the data including missing values. In addition, the quality of imputation can be visually explored using various univariate, bivariate, multiple and multivariate plot methods</t>
-  </si>
-  <si>
-    <t>Reason for exclusion</t>
-  </si>
-  <si>
-    <t>6.1.1</t>
-  </si>
-  <si>
-    <t>as VIMGUI (but it was removed from CRAN)</t>
-  </si>
-  <si>
-    <t>dlookr</t>
-  </si>
-  <si>
-    <t>https://github.com/choonghyunryu/dlookr</t>
-  </si>
-  <si>
-    <t>(≥ 3.2.0</t>
-  </si>
-  <si>
-    <t>0.5.1</t>
-  </si>
-  <si>
-    <t>GPL-2 | file LICENSE</t>
-  </si>
-  <si>
-    <t>html, pdf</t>
-  </si>
-  <si>
-    <t>no (at least not for report)</t>
-  </si>
-  <si>
-    <t>A collection of tools that support data diagnosis, exploration, and transformation. Data diagnostics provides information and visualization of missing values and outliers and unique and negative values to help you understand the distribution and quality of your data. Data exploration provides information and visualization of the descriptive statistics of univariate variables, normality tests and outliers, correlation of two variables, and relationship between target variable and predictor. Data transformation supports binning for categorizing continuous variables, imputates missing values and outliers, resolving skewness. And it creates automated reports that support these three tasks.</t>
-  </si>
-  <si>
-    <t>https://cran.r-project.org/web/packages/dlookr/index.html</t>
-  </si>
-  <si>
-    <t>Control via programming</t>
-  </si>
-  <si>
-    <t>First published (on CRAN)</t>
-  </si>
-  <si>
-    <t>Unexpected data elements</t>
-  </si>
-  <si>
-    <t>Unexpected data records</t>
-  </si>
-  <si>
-    <t>Duplicates</t>
-  </si>
-  <si>
-    <t>Data record mismatch</t>
-  </si>
-  <si>
-    <t>Data element mismatch</t>
-  </si>
-  <si>
-    <t>Data type mismatch</t>
-  </si>
-  <si>
-    <t>Inhomogeneous value formats</t>
-  </si>
-  <si>
-    <t>Uncertain missingness status</t>
-  </si>
-  <si>
-    <t>Integrity</t>
-  </si>
-  <si>
-    <t>Completeness</t>
-  </si>
-  <si>
-    <t>Missing values</t>
-  </si>
-  <si>
-    <t>Non-response rate</t>
-  </si>
-  <si>
-    <t>Refusal rate</t>
-  </si>
-  <si>
-    <t>Drop-out rate</t>
-  </si>
-  <si>
-    <t>Missing due to specified reason</t>
-  </si>
-  <si>
-    <t>Consistency</t>
-  </si>
-  <si>
-    <t>Inadmissible numerical values</t>
-  </si>
-  <si>
-    <t>Inadmissible time-date values</t>
-  </si>
-  <si>
-    <t>Inadmissible categorical values</t>
-  </si>
-  <si>
-    <t>Inadmissible standardized vocabulary</t>
-  </si>
-  <si>
-    <t>Inadmissible precision</t>
-  </si>
-  <si>
-    <t>Uncertain numerical values</t>
-  </si>
-  <si>
-    <t>Uncertain time-date values</t>
-  </si>
-  <si>
-    <t>Logical contradictions</t>
-  </si>
-  <si>
-    <t>Empirical contradictions</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Univariate outliers</t>
-  </si>
-  <si>
-    <t>Multivariate outliers</t>
-  </si>
-  <si>
-    <t>Unexpected locations</t>
-  </si>
-  <si>
-    <t>Unexpected shape</t>
-  </si>
-  <si>
-    <t>Unexpected scale</t>
-  </si>
-  <si>
-    <t>Unexpected proportions</t>
-  </si>
-  <si>
-    <t>Unexpected association strength</t>
-  </si>
-  <si>
-    <t>Unexpected association direction</t>
-  </si>
-  <si>
-    <t>Unexpected association form</t>
-  </si>
-  <si>
-    <t>Inter-Class reliability</t>
-  </si>
-  <si>
-    <t>Intra-Class reliability</t>
-  </si>
-  <si>
-    <t>Disagreement with gold standard</t>
-  </si>
-  <si>
-    <t>Latest version</t>
-  </si>
-  <si>
-    <t>Latest update (on CRAN)</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>dataReporter (first published as dataMaid)</t>
-  </si>
-  <si>
-    <t>1.0.9</t>
-  </si>
-  <si>
-    <t>1.0.1</t>
-  </si>
-  <si>
-    <t>Richter et al. (2021). dataquieR: assessment of data quality in epidemiological research. Journal of Open Source Software, 6(61), 3093, https://doi.org/10.21105/joss.03093</t>
-  </si>
-  <si>
-    <t>Identify case issues</t>
-  </si>
-  <si>
-    <t>Count missing (NAs)</t>
-  </si>
-  <si>
-    <t>Identify missing (codes)</t>
-  </si>
-  <si>
-    <t>Unique values</t>
-  </si>
-  <si>
-    <t>Identify loners</t>
-  </si>
-  <si>
-    <t>Identify missclassified numerical variables</t>
-  </si>
-  <si>
-    <t>Identify outliers</t>
-  </si>
-  <si>
-    <t>Identify whitespace</t>
-  </si>
-  <si>
-    <t>dataMaid implements an extensive and customizable suite of quality assessment aids that can be applied to a dataset in order to identifypotential problems in its variables. The results are presented in an auto-generated, non-technical, stand-alone overview document intended to be perused by an investigator withan understanding of the variables in the data, but not necessarily knowledge ofR. Thereby,dataMaidaids the dialogue between data analysts and field experts, while also providingeasy documentation of reproducible data quality screening. Moreover, thedataMaidsolu-tion changes the data screening process from the usual ad hoc approach to a systematic,well-documented endeavor.dataMaidalso provides a suite of more typicalRtools for in-teractive data quality assessment and screening, where the data inspections are executeddirectly in theRconsole.</t>
-  </si>
-  <si>
-    <t>Duplicate records</t>
-  </si>
-  <si>
-    <t>R markdown, html, txt</t>
-  </si>
-  <si>
-    <t>descriptive and grouped statistics, sampling weights, pipe operators, tibbles, frequency tables, cross-tabulations, detects barcode numbers and email addresses, apply functions to data frames, custom CSS file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/statistikat/VIM </t>
-  </si>
-  <si>
-    <t>imputation methods (hot-deck, k-nearest neighbor, regression, and iterative robust model-based)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://CRAN.R-project.org/package=VIM </t>
-  </si>
-  <si>
-    <t>Documentation URL</t>
-  </si>
-  <si>
-    <t>https://CRAN.R-project.org/package=summarytools</t>
-  </si>
-  <si>
-    <t>https://CRAN.R-project.org/package=dataReporter</t>
-  </si>
-  <si>
-    <t>https://CRAN.R-project.org/package=dataquieR</t>
-  </si>
-  <si>
-    <t>R figures</t>
-  </si>
-  <si>
-    <t>GPL-2 | GPL-3 [expanded from: GPL (≥ 2)]</t>
+ - Integrate well with commonly used software &amp; tools for reporting (the [RStudio](https://www.rstudio.com/products/rstudio/) IDE, [Rmarkdown](https://rmarkdown.rstudio.com/), and [knitr](https://yihui.org/knitr/)) while also allowing for standalone, simple report generation using any R interface</t>
   </si>
 </sst>
 </file>
@@ -497,7 +876,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,6 +916,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -565,7 +952,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -604,6 +991,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -885,28 +1274,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="50" style="2" customWidth="1"/>
     <col min="4" max="4" width="43.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="46.77734375" style="2" customWidth="1"/>
     <col min="6" max="6" width="39.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.21875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="11" style="2"/>
+    <col min="7" max="8" width="38.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="42" style="2" customWidth="1"/>
+    <col min="10" max="10" width="40.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="32.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="34.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="38.77734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="32.5546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="29.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="32.77734375" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -920,25 +1318,61 @@
         <v>10</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -949,19 +1383,43 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -978,13 +1436,37 @@
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
@@ -992,24 +1474,48 @@
         <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="H4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" t="s">
+        <v>249</v>
+      </c>
+      <c r="N4" t="s">
+        <v>207</v>
+      </c>
+      <c r="O4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -1029,8 +1535,32 @@
       <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1041,19 +1571,43 @@
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1075,8 +1629,32 @@
       <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -1098,8 +1676,32 @@
       <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="264" x14ac:dyDescent="0.3">
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="246" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1110,19 +1712,43 @@
         <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>61</v>
+        <v>264</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1144,8 +1770,29 @@
       <c r="G10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1156,7 +1803,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -1167,8 +1814,29 @@
       <c r="G11" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.3">
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1179,7 +1847,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
@@ -1190,8 +1858,29 @@
       <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1211,10 +1900,22 @@
         <v>13</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -1234,10 +1935,22 @@
         <v>19</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1256,8 +1969,23 @@
       <c r="F15" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1276,8 +2004,23 @@
       <c r="F16" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -1291,13 +2034,34 @@
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1319,8 +2083,29 @@
       <c r="G18" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I18" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -1342,8 +2127,29 @@
       <c r="G19" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I19" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -1365,8 +2171,29 @@
       <c r="G20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -1377,19 +2204,43 @@
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -1409,10 +2260,31 @@
         <v>19</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -1434,8 +2306,29 @@
       <c r="G23" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
@@ -1457,8 +2350,29 @@
       <c r="G24" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -1466,24 +2380,48 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>2</v>
@@ -1492,19 +2430,32 @@
         <v>5</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -1518,16 +2469,28 @@
         <v>46</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -1541,31 +2504,52 @@
         <v>47</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C29" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C29" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -1582,15 +2566,39 @@
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N31" t="s">
+        <v>238</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>85</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>17</v>
@@ -1607,10 +2615,37 @@
       <c r="F32" s="9">
         <v>41193</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G32" s="9">
+        <v>43217</v>
+      </c>
+      <c r="H32" s="9">
+        <v>42836</v>
+      </c>
+      <c r="I32" s="9">
+        <v>42248</v>
+      </c>
+      <c r="J32" s="9">
+        <v>42908</v>
+      </c>
+      <c r="K32" s="9">
+        <v>42454</v>
+      </c>
+      <c r="L32" s="9">
+        <v>41538</v>
+      </c>
+      <c r="M32" s="9">
+        <v>41518</v>
+      </c>
+      <c r="N32" s="9">
+        <v>41380</v>
+      </c>
+      <c r="O32" s="9">
+        <v>40604</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>17</v>
@@ -1630,377 +2665,520 @@
       <c r="G33" s="9">
         <v>44441</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="9">
+        <v>43468</v>
+      </c>
+      <c r="I33" s="9">
+        <v>44476</v>
+      </c>
+      <c r="J33" s="9">
+        <v>42908</v>
+      </c>
+      <c r="K33" s="9">
+        <v>42454</v>
+      </c>
+      <c r="L33" s="9">
+        <v>41538</v>
+      </c>
+      <c r="M33" s="9">
+        <v>42606</v>
+      </c>
+      <c r="N33" s="9">
+        <v>42112</v>
+      </c>
+      <c r="O33" s="9">
+        <v>42200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="6"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C37" s="11"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K38" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D48" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="C57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I69" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+      <c r="G72" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="13" t="s">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+      <c r="C77" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D81" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D82" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D83" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2016,15 +3194,34 @@
     <hyperlink ref="E27" r:id="rId9"/>
     <hyperlink ref="E25" r:id="rId10"/>
     <hyperlink ref="G25" r:id="rId11"/>
-    <hyperlink ref="G26" r:id="rId12"/>
-    <hyperlink ref="F27" r:id="rId13"/>
-    <hyperlink ref="F28" r:id="rId14"/>
-    <hyperlink ref="F29" r:id="rId15"/>
-    <hyperlink ref="F26" r:id="rId16"/>
-    <hyperlink ref="D26" r:id="rId17"/>
-    <hyperlink ref="E26" r:id="rId18"/>
+    <hyperlink ref="F27" r:id="rId12"/>
+    <hyperlink ref="F28" r:id="rId13"/>
+    <hyperlink ref="F29" r:id="rId14"/>
+    <hyperlink ref="F26" r:id="rId15"/>
+    <hyperlink ref="D26" r:id="rId16"/>
+    <hyperlink ref="E26" r:id="rId17"/>
+    <hyperlink ref="G26" r:id="rId18"/>
+    <hyperlink ref="I26" r:id="rId19"/>
+    <hyperlink ref="I27" r:id="rId20"/>
+    <hyperlink ref="I28" r:id="rId21"/>
+    <hyperlink ref="I29" r:id="rId22"/>
+    <hyperlink ref="J26" r:id="rId23"/>
+    <hyperlink ref="J27" r:id="rId24"/>
+    <hyperlink ref="J28" r:id="rId25"/>
+    <hyperlink ref="K25" r:id="rId26"/>
+    <hyperlink ref="K27" r:id="rId27"/>
+    <hyperlink ref="K26" r:id="rId28"/>
+    <hyperlink ref="L25" r:id="rId29"/>
+    <hyperlink ref="L28" r:id="rId30"/>
+    <hyperlink ref="M26" r:id="rId31"/>
+    <hyperlink ref="H25" r:id="rId32"/>
+    <hyperlink ref="H27" r:id="rId33"/>
+    <hyperlink ref="H28" r:id="rId34"/>
+    <hyperlink ref="N28" r:id="rId35"/>
+    <hyperlink ref="N25" r:id="rId36"/>
+    <hyperlink ref="O28" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId38"/>
 </worksheet>
 </file>
--- a/Data quality revision R overview v01.xlsx
+++ b/Data quality revision R overview v01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="309">
   <si>
     <t>Acronym (falls vorhanden)</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>≥ 2.10</t>
-  </si>
-  <si>
-    <t>https://cran.r-project.org/web/packages/summarytools/index.html</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/dcomtois/summarytools </t>
@@ -848,9 +845,6 @@
     <t>https://cran.r-project.org/package=deducorrect</t>
   </si>
   <si>
-    <t>Active development has moved to the deductive package for deductive correction methodology and to dcmodify for rule-based data cleaning.</t>
-  </si>
-  <si>
     <t>https://github.com/data-cleaning/deducorrect</t>
   </si>
   <si>
@@ -867,6 +861,150 @@
  - Provide a coherent set of easy-to-use descriptive functions that are akin to those included in commercial statistical software suites such as SAS, SPSS, and Stata 
  - Offer flexibility in terms of output format &amp; content  
  - Integrate well with commonly used software &amp; tools for reporting (the [RStudio](https://www.rstudio.com/products/rstudio/) IDE, [Rmarkdown](https://rmarkdown.rstudio.com/), and [knitr](https://yihui.org/knitr/)) while also allowing for standalone, simple report generation using any R interface</t>
+  </si>
+  <si>
+    <t>deductive</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=deductive</t>
+  </si>
+  <si>
+    <t>Attempt to repair inconsistencies and missing values in data records by using information from valid values and validation rules restricting the data (i.e. deductive imputation).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. van der Loo and E. de Jonge, "Deductive imputation with the deducorrect package," Statistics Netherlands, The Hague. Heerlen, 201126, 2011. https://www.cbs.nl/-/media/imported/documents/2011/48/2011-x10-47.pdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/data-cleaning/deductive </t>
+  </si>
+  <si>
+    <t>Excluded: restricted to deductive imputation methods.</t>
+  </si>
+  <si>
+    <t>https://github.com/data-cleaning/dcmodify</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=dcmodify</t>
+  </si>
+  <si>
+    <t>0.1.9</t>
+  </si>
+  <si>
+    <t>≥ 0.1.5</t>
+  </si>
+  <si>
+    <t>dcmodify</t>
+  </si>
+  <si>
+    <t>Correct data according to (in)equality violations or restrictions. Integration with validate and editrules packages.</t>
+  </si>
+  <si>
+    <t>Data cleaning work flows or scripts typically contain a lot of ‘if this do that’ type of statements. Such statements are typically condensed expert knowledge. With this package, such ‘data modifying rules’ are taken out of the code and become instead parameters to the work flow. This allows you to maintain, document and reason about data modification rules separately from the flow of your programme. The workflow of dcmodify is designed to take two concerns of your hands. The first concern is how to implement the many ideas and rules that define how and when to modify data. The second concern is related to how to apply such rules to your data. We therefore introduce two nouns and one verb that govern the basic workflow.
+    data: This is your data, currently this must be stored in a data.frame.
+    modifier: This is an object that stores (conditional) data modification rules.
+    modify: This is a function that applies the rules in a modifier to your data.</t>
+  </si>
+  <si>
+    <t>Excluded: restricted to the implementation and application of rules to modify data.</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/dcmodify/vignettes/introduction.html</t>
+  </si>
+  <si>
+    <t>Integration with validate and lumberjack packages. Pipe operator (from magrittr). Implementation of "modifying rules" (from R or YAML files) to modify data in workflow</t>
+  </si>
+  <si>
+    <t>Descriptive statistics</t>
+  </si>
+  <si>
+    <t>outliers, mean, mode, etc</t>
+  </si>
+  <si>
+    <t>editrules</t>
+  </si>
+  <si>
+    <t>≥ 2.12.0</t>
+  </si>
+  <si>
+    <t>Facilitates reading and manipulating (multivariate) data restrictions (edit rules) on numerical and categorical data. Rules can be defined with common R syntax and parsed to an internal (matrix-like format). Rules can be manipulated with variable elimination and value substitution methods, allowing for feasibility checks and more. Data can be tested against the rules and erroneous fields can be found based on Fellegi and Holt's generalized principle. Rules dependencies can be visualized with using the 'igraph' package.</t>
+  </si>
+  <si>
+    <t>2.9.3</t>
+  </si>
+  <si>
+    <t>Excluded: active development has moved to the deductive package for deductive correction methodology and to dcmodify for rule-based data cleaning.</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=editrules</t>
+  </si>
+  <si>
+    <t>https://github.com/data-cleaning/editrules</t>
+  </si>
+  <si>
+    <t>M. van der Loo and E. de Jonge, "Manipulation of conditional restrictions and error localization with the editrules package," Statistics Netherlands, The Hague Heerlen, 2012015, 2012. https://www.cbs.nl/-/media/imported/documents/2012/32/2012-15-x10-pub.pdf</t>
+  </si>
+  <si>
+    <t>Excluded: focus data checking, error localization and data editing based on logical restrictions (edit rules). editrules has been succeeded by R packages: validate and errorlocate.</t>
+  </si>
+  <si>
+    <t>errorlocate</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=errorlocate</t>
+  </si>
+  <si>
+    <t>0.9.9</t>
+  </si>
+  <si>
+    <t>≥ 2.1.0</t>
+  </si>
+  <si>
+    <t>https://github.com/data-cleaning/errorlocate</t>
+  </si>
+  <si>
+    <t>yes, as "validation rules" (text and yaml files) through validate package</t>
+  </si>
+  <si>
+    <t>yes, as "validation rules" through validate package</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/errorlocate/vignettes/inspect_mip.html</t>
+  </si>
+  <si>
+    <t>Integration with validate package. Assign weights to variables.</t>
+  </si>
+  <si>
+    <t>To be considered jointly with validate because it depends on the validation rules.</t>
+  </si>
+  <si>
+    <t>errorlocate provides a small framework for record based error detection and implements the Felligi Holt algorithm. This algorithm assumes there is no other information available then the values of a record and a set of validation rules. The algorithm minimizes the (weighted) number of values that need to be adjusted to remove the invalidation. Errorlocate uses the linear, categorical and conditional rules from a rules set formulated with R package validate, to create a Mixed Integer Problem.</t>
+  </si>
+  <si>
+    <t>janitor</t>
+  </si>
+  <si>
+    <t>The main janitor functions:
+    perfectly format data.frame column names;
+    create and format frequency tables of one, two, or three variables - think an improved table(); and
+    provide other tools for cleaning and examining data.frames.</t>
+  </si>
+  <si>
+    <t>The tabulate-and-report functions approximate popular features of SPSS and Microsoft Excel. tidyverse-oriented package, pipe integration and optimized for cleaning data brought in with the readr and readxl packages.</t>
+  </si>
+  <si>
+    <t>2.1.0</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=janitor</t>
+  </si>
+  <si>
+    <t>https://github.com/sfirke/janitor</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/janitor/vignettes/janitor.html</t>
+  </si>
+  <si>
+    <t>focused on data cleaning, not quality</t>
   </si>
 </sst>
 </file>
@@ -1274,20 +1412,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P35" sqref="P35"/>
+      <selection pane="bottomRight" activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="50" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47" style="2" customWidth="1"/>
     <col min="4" max="4" width="43.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="46.77734375" style="2" customWidth="1"/>
     <col min="6" max="6" width="39.5546875" style="2" customWidth="1"/>
@@ -1299,9 +1437,14 @@
     <col min="13" max="13" width="34.33203125" style="2" customWidth="1"/>
     <col min="14" max="14" width="38.77734375" style="2" customWidth="1"/>
     <col min="15" max="15" width="32.5546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="29.77734375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="31.6640625" style="2" customWidth="1"/>
     <col min="17" max="17" width="32.77734375" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="11" style="2"/>
+    <col min="18" max="18" width="36.44140625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="33.21875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="34" style="2" customWidth="1"/>
+    <col min="21" max="21" width="33.33203125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="35" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1318,58 +1461,58 @@
         <v>10</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="K1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -1383,40 +1526,55 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -1436,7 +1594,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
@@ -1463,6 +1621,21 @@
         <v>15</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1474,7 +1647,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>50</v>
@@ -1486,36 +1659,51 @@
         <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I4" t="s">
         <v>50</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>53</v>
       </c>
       <c r="M4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O4" t="s">
-        <v>257</v>
+        <v>256</v>
+      </c>
+      <c r="P4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>272</v>
+      </c>
+      <c r="R4" t="s">
+        <v>282</v>
+      </c>
+      <c r="S4" t="s">
+        <v>293</v>
+      </c>
+      <c r="T4" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -1557,6 +1745,21 @@
         <v>13</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1577,7 +1780,7 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>19</v>
@@ -1601,9 +1804,24 @@
         <v>19</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1633,7 +1851,7 @@
         <v>13</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>13</v>
@@ -1651,6 +1869,21 @@
         <v>13</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1700,6 +1933,21 @@
       <c r="O8" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="P8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:22" ht="246" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -1712,40 +1960,55 @@
         <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>261</v>
+        <v>236</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -1791,6 +2054,21 @@
       <c r="N10" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="O10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1821,7 +2099,7 @@
         <v>53</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>15</v>
@@ -1830,9 +2108,24 @@
         <v>15</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1865,7 +2158,7 @@
         <v>53</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>15</v>
@@ -1874,9 +2167,24 @@
         <v>15</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1914,6 +2222,15 @@
       <c r="L13" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="Q13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -1949,6 +2266,15 @@
       <c r="L14" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="Q14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1984,6 +2310,15 @@
       <c r="L15" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="Q15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -2019,8 +2354,17 @@
       <c r="L16" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="Q16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -2034,34 +2378,46 @@
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -2084,7 +2440,7 @@
         <v>19</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>19</v>
@@ -2099,13 +2455,22 @@
         <v>19</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -2128,7 +2493,7 @@
         <v>19</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>19</v>
@@ -2143,13 +2508,22 @@
         <v>19</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -2192,8 +2566,17 @@
       <c r="O20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -2207,40 +2590,49 @@
         <v>52</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -2283,8 +2675,17 @@
       <c r="O22" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -2322,13 +2723,22 @@
         <v>19</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
@@ -2371,8 +2781,17 @@
       <c r="O24" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -2380,48 +2799,41 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>230</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G25" s="3"/>
       <c r="I25" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>2</v>
@@ -2430,32 +2842,58 @@
         <v>5</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H26" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="I26" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -2469,28 +2907,34 @@
         <v>46</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -2504,52 +2948,68 @@
         <v>47</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C29" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>139</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -2566,39 +3026,54 @@
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H31" s="15" t="s">
         <v>48</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>17</v>
@@ -2642,10 +3117,25 @@
       <c r="O32" s="9">
         <v>40604</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P32" s="9">
+        <v>42441</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>43014</v>
+      </c>
+      <c r="R32" s="9">
+        <v>40574</v>
+      </c>
+      <c r="S32" s="9">
+        <v>42734</v>
+      </c>
+      <c r="T32" s="9">
+        <v>42646</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>17</v>
@@ -2689,57 +3179,87 @@
       <c r="O33" s="9">
         <v>42200</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33" s="9">
+        <v>44284</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>44463</v>
+      </c>
+      <c r="R33" s="9">
+        <v>43282</v>
+      </c>
+      <c r="S33" s="9">
+        <v>44319</v>
+      </c>
+      <c r="T33" s="9">
+        <v>44201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F34" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>2</v>
@@ -2747,438 +3267,459 @@
       <c r="D35" s="5"/>
       <c r="E35" s="6"/>
       <c r="H35" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C37" s="11"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D51" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I46" s="2" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D48" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D49" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D50" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+    <row r="63" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+    <row r="64" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+      <c r="I68" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I67" s="2" t="s">
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I70" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="13" t="s">
         <v>104</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I69" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3192,36 +3733,45 @@
     <hyperlink ref="E28" r:id="rId7"/>
     <hyperlink ref="E29" r:id="rId8"/>
     <hyperlink ref="E27" r:id="rId9"/>
-    <hyperlink ref="E25" r:id="rId10"/>
-    <hyperlink ref="G25" r:id="rId11"/>
-    <hyperlink ref="F27" r:id="rId12"/>
-    <hyperlink ref="F28" r:id="rId13"/>
-    <hyperlink ref="F29" r:id="rId14"/>
-    <hyperlink ref="F26" r:id="rId15"/>
-    <hyperlink ref="D26" r:id="rId16"/>
-    <hyperlink ref="E26" r:id="rId17"/>
-    <hyperlink ref="G26" r:id="rId18"/>
-    <hyperlink ref="I26" r:id="rId19"/>
-    <hyperlink ref="I27" r:id="rId20"/>
-    <hyperlink ref="I28" r:id="rId21"/>
-    <hyperlink ref="I29" r:id="rId22"/>
-    <hyperlink ref="J26" r:id="rId23"/>
-    <hyperlink ref="J27" r:id="rId24"/>
-    <hyperlink ref="J28" r:id="rId25"/>
-    <hyperlink ref="K25" r:id="rId26"/>
-    <hyperlink ref="K27" r:id="rId27"/>
-    <hyperlink ref="K26" r:id="rId28"/>
-    <hyperlink ref="L25" r:id="rId29"/>
-    <hyperlink ref="L28" r:id="rId30"/>
-    <hyperlink ref="M26" r:id="rId31"/>
-    <hyperlink ref="H25" r:id="rId32"/>
-    <hyperlink ref="H27" r:id="rId33"/>
-    <hyperlink ref="H28" r:id="rId34"/>
-    <hyperlink ref="N28" r:id="rId35"/>
-    <hyperlink ref="N25" r:id="rId36"/>
-    <hyperlink ref="O28" r:id="rId37"/>
+    <hyperlink ref="F27" r:id="rId10"/>
+    <hyperlink ref="F28" r:id="rId11"/>
+    <hyperlink ref="F26" r:id="rId12"/>
+    <hyperlink ref="D26" r:id="rId13"/>
+    <hyperlink ref="E26" r:id="rId14"/>
+    <hyperlink ref="G26" r:id="rId15"/>
+    <hyperlink ref="I26" r:id="rId16"/>
+    <hyperlink ref="I27" r:id="rId17"/>
+    <hyperlink ref="I28" r:id="rId18"/>
+    <hyperlink ref="I29" r:id="rId19"/>
+    <hyperlink ref="J26" r:id="rId20"/>
+    <hyperlink ref="J27" r:id="rId21"/>
+    <hyperlink ref="J28" r:id="rId22"/>
+    <hyperlink ref="K26" r:id="rId23"/>
+    <hyperlink ref="K27" r:id="rId24"/>
+    <hyperlink ref="K28" r:id="rId25"/>
+    <hyperlink ref="L26" r:id="rId26"/>
+    <hyperlink ref="L28" r:id="rId27"/>
+    <hyperlink ref="M26" r:id="rId28"/>
+    <hyperlink ref="H26" r:id="rId29"/>
+    <hyperlink ref="H27" r:id="rId30"/>
+    <hyperlink ref="H28" r:id="rId31"/>
+    <hyperlink ref="N28" r:id="rId32"/>
+    <hyperlink ref="N26" r:id="rId33"/>
+    <hyperlink ref="O28" r:id="rId34"/>
+    <hyperlink ref="P26" r:id="rId35"/>
+    <hyperlink ref="P28" r:id="rId36"/>
+    <hyperlink ref="Q28" r:id="rId37"/>
+    <hyperlink ref="Q26" r:id="rId38"/>
+    <hyperlink ref="Q27" r:id="rId39"/>
+    <hyperlink ref="R26" r:id="rId40"/>
+    <hyperlink ref="R28" r:id="rId41"/>
+    <hyperlink ref="S26" r:id="rId42"/>
+    <hyperlink ref="S28" r:id="rId43"/>
+    <hyperlink ref="S25" r:id="rId44"/>
+    <hyperlink ref="T28" r:id="rId45"/>
+    <hyperlink ref="T27" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId47"/>
 </worksheet>
 </file>
--- a/Data quality revision R overview v01.xlsx
+++ b/Data quality revision R overview v01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marinoj\Desktop\DQToolsReview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marinoj\Desktop\dqtoolsreview\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="2676"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="2670" tabRatio="169"/>
   </bookViews>
   <sheets>
     <sheet name="Tools" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="413">
   <si>
     <t>Acronym (falls vorhanden)</t>
   </si>
@@ -404,13 +404,7 @@
     <t>Count missing (NAs)</t>
   </si>
   <si>
-    <t>Identify missing (codes)</t>
-  </si>
-  <si>
     <t>Unique values</t>
-  </si>
-  <si>
-    <t>Identify loners</t>
   </si>
   <si>
     <t>Identify missclassified numerical variables</t>
@@ -917,9 +911,6 @@
     <t>Descriptive statistics</t>
   </si>
   <si>
-    <t>outliers, mean, mode, etc</t>
-  </si>
-  <si>
     <t>editrules</t>
   </si>
   <si>
@@ -942,9 +933,6 @@
   </si>
   <si>
     <t>M. van der Loo and E. de Jonge, "Manipulation of conditional restrictions and error localization with the editrules package," Statistics Netherlands, The Hague Heerlen, 2012015, 2012. https://www.cbs.nl/-/media/imported/documents/2012/32/2012-15-x10-pub.pdf</t>
-  </si>
-  <si>
-    <t>Excluded: focus data checking, error localization and data editing based on logical restrictions (edit rules). editrules has been succeeded by R packages: validate and errorlocate.</t>
   </si>
   <si>
     <t>errorlocate</t>
@@ -989,9 +977,6 @@
     provide other tools for cleaning and examining data.frames.</t>
   </si>
   <si>
-    <t>The tabulate-and-report functions approximate popular features of SPSS and Microsoft Excel. tidyverse-oriented package, pipe integration and optimized for cleaning data brought in with the readr and readxl packages.</t>
-  </si>
-  <si>
     <t>2.1.0</t>
   </si>
   <si>
@@ -1004,7 +989,335 @@
     <t>https://cran.r-project.org/web/packages/janitor/vignettes/janitor.html</t>
   </si>
   <si>
-    <t>focused on data cleaning, not quality</t>
+    <t>get_dupes()</t>
+  </si>
+  <si>
+    <t>Excluded: focused on data cleaning, not quality</t>
+  </si>
+  <si>
+    <t>Excluded: focused on data checking, error localization and data editing based on logical restrictions (edit rules). editrules has been succeeded by R packages: validate and errorlocate.</t>
+  </si>
+  <si>
+    <t>yes, as "edit rules"</t>
+  </si>
+  <si>
+    <t>The tabulate-and-report functions approximate popular features of SPSS and Microsoft Excel. tidyverse-oriented package, pipe integration and optimized for cleaning data brought in with the readr and readxl packages. Clean data frame names and dates, explore records and  tabulate variables.</t>
+  </si>
+  <si>
+    <t>DataExplorer</t>
+  </si>
+  <si>
+    <t>≥ 3.6</t>
+  </si>
+  <si>
+    <t>Automated data exploration process for analytic tasks and predictive modeling, so that users could focus on understanding data and extracting insights. The package scans and analyzes each variable, and visualizes them with typical graphical techniques. Common data processing methods are also available to treat and format data.</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=DataExplorer</t>
+  </si>
+  <si>
+    <t>0.8.2</t>
+  </si>
+  <si>
+    <t>https://boxuancui.github.io/DataExplorer/</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/DataExplorer/vignettes/dataexplorer-intro.html</t>
+  </si>
+  <si>
+    <t>profile_missing (count NAs)</t>
+  </si>
+  <si>
+    <t>Histogram, boxplot, correlation heatmap, density estimates, Qqplot, PCA</t>
+  </si>
+  <si>
+    <t>Replace missing values (NAs), split data into discrete and continuous parts, visualization of data structure (tree-like or network), group sparse categories, transform the data into binary format (dummify)</t>
+  </si>
+  <si>
+    <t>SmartEDA</t>
+  </si>
+  <si>
+    <t>Tool21</t>
+  </si>
+  <si>
+    <t>Tool22</t>
+  </si>
+  <si>
+    <t>Tool23</t>
+  </si>
+  <si>
+    <t>Tool24</t>
+  </si>
+  <si>
+    <t>Tool25</t>
+  </si>
+  <si>
+    <t>Tool26</t>
+  </si>
+  <si>
+    <t>Tool27</t>
+  </si>
+  <si>
+    <t>Tool28</t>
+  </si>
+  <si>
+    <t>Tool29</t>
+  </si>
+  <si>
+    <t>Tool30</t>
+  </si>
+  <si>
+    <t>Tool31</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=SmartEDA</t>
+  </si>
+  <si>
+    <t>0.3.8</t>
+  </si>
+  <si>
+    <t>Putatunda et al., (2019). SmartEDA: An R Package for Automated Exploratory Data Analysis. Journal of Open Source Software, 4(41), 1509, https://doi.org/10.21105/joss.01509</t>
+  </si>
+  <si>
+    <t>https://github.com/daya6489/SmartEDA</t>
+  </si>
+  <si>
+    <t>≥ 3.3.0</t>
+  </si>
+  <si>
+    <t>Data reshaping using data.table.dcast(), filter rows/cases where conditions are true. Options to apply filters at variable level or complete data set like base subsetting.</t>
+  </si>
+  <si>
+    <t>Missing_Count (NAs)</t>
+  </si>
+  <si>
+    <t>No_of_distinct_values (Uniqueness)</t>
+  </si>
+  <si>
+    <t>html, R Objects, pdf (figures only)</t>
+  </si>
+  <si>
+    <t>Check missing percentage calculation (Per_of_Missing does not match)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The SmartEDA R package has four unique functionalities: descriptive statistics, data visualisation, custom table, HTML EDA report. The SmartEDA package automatically selects the variables and performs the related descriptive statistics. Moreover, it also analyzes the information value, the weight of evidence, custom tables, summary statistics, and performs graphical techniques for both numeric and categorical variables.
+</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/SmartEDA/vignettes/SmartEDA.html</t>
+  </si>
+  <si>
+    <t>ExpOutliers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measures of central tendency (Mean, Median, Mode, etc.), measures of variance/dispersion (Standard Deviation, Variance, Outliers), Count, Proportions, Quantiles, IQR, Percentages of Shares (PS) for numerical data. Skewness. Distributions of variables (Scatterplots, density, box, and bar plots) and normality/co-ordinate plots. </t>
+  </si>
+  <si>
+    <t>RtutoR</t>
+  </si>
+  <si>
+    <t>GPL-2 | GPL-3 [expanded from: GPL]</t>
+  </si>
+  <si>
+    <t>https://github.com/anup50695/RtutoR</t>
+  </si>
+  <si>
+    <t>pptx, R objects</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UMRBuXbRyag</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=RtutoR</t>
+  </si>
+  <si>
+    <t>Shiny apps for Plotting and Exploratory Analysis. The plotting app provides an automated interface for generating plots using the 'ggplot2' package. Current version of this app supports 10 different plot types along with options to manipulate specific aesthetics and controls related to each plot type. Exploratory Analysis app helps generates an Exploratory analysis report (in PowerPoint format) comprising of Univariate and Bivariate plots &amp; related summary tables.</t>
+  </si>
+  <si>
+    <t>https://www.r-bloggers.com/2018/01/automating-basic-eda/</t>
+  </si>
+  <si>
+    <t>exploreR</t>
+  </si>
+  <si>
+    <t>Simplifies some complicated and labor intensive processes involved in exploring and explaining data. Allows you to quickly and efficiently visualize the interaction between variables and simplifies the process of discovering covariation in your data. Also includes some convenience features designed to remove as much redundant typing as possible.</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/exploreR/vignettes/exploreR.html</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=exploreR</t>
+  </si>
+  <si>
+    <t>≥ 3.2.3</t>
+  </si>
+  <si>
+    <t>Functions to reset (erase the console, detach all packages and remove all data from the global environment), linear models (regression), and standardize variables</t>
+  </si>
+  <si>
+    <t>Excluded: limited scope (not related to data quality) and no recent update</t>
+  </si>
+  <si>
+    <t>Hmisc</t>
+  </si>
+  <si>
+    <t>https://github.com/harrelfe/Hmisc</t>
+  </si>
+  <si>
+    <t>https://hbiostat.org/R/Hmisc/</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=Hmisc</t>
+  </si>
+  <si>
+    <t>Contains many functions useful for data analysis, high-level graphics, utility operations, functions for computing sample size and power, simulation, importing and annotating datasets, imputing missing values, advanced table making, variable clustering, character string manipulation, conversion of R objects to LaTeX and html code, and recoding variables.</t>
+  </si>
+  <si>
+    <t>≥ 3.1-6</t>
+  </si>
+  <si>
+    <t>4.6-0</t>
+  </si>
+  <si>
+    <t>R objects, html (buggy)</t>
+  </si>
+  <si>
+    <t>Missing values (NAs: naclus, naplot)</t>
+  </si>
+  <si>
+    <t>Excluded: wide scope but not related to data quality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print "data dictionary" (contents). Summarize variables listed in an S formula (compute quartiles, SD and tests for group differences), spike histogram (univariable association between a continuous predictor and binary outcome),  stratified quantiles, means/SD, and proportions by treatment group. </t>
+  </si>
+  <si>
+    <t>Impute missing values (multiple imputation using additive regression with various options for bootstrapping, predictive mean matching). Hierarchical cluster analysis on Nas. Simulating Frequentist and Bayesian Operating Characteristics of Longitudinal Markov Ordinal Randomized Trials. Mulitple summary functions and related plotting.</t>
+  </si>
+  <si>
+    <t>Check: package failed to load</t>
+  </si>
+  <si>
+    <t>assertive</t>
+  </si>
+  <si>
+    <t>≥ 3.0.0</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=assertive</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/richierocks/assertive/src/master/</t>
+  </si>
+  <si>
+    <t>0.3-6</t>
+  </si>
+  <si>
+    <t>has_duplicates()</t>
+  </si>
+  <si>
+    <t>assert_all_are_not_na()</t>
+  </si>
+  <si>
+    <t>is_integer(), etc.</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/assertive/vignettes/checklists.html</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/assertive/vignettes/introduction.html</t>
+  </si>
+  <si>
+    <t>are_same_length()</t>
+  </si>
+  <si>
+    <t>Tool32</t>
+  </si>
+  <si>
+    <t>Tool33</t>
+  </si>
+  <si>
+    <t>Tool34</t>
+  </si>
+  <si>
+    <t>Tool35</t>
+  </si>
+  <si>
+    <t>Tool36</t>
+  </si>
+  <si>
+    <t>Tool37</t>
+  </si>
+  <si>
+    <t>Tool38</t>
+  </si>
+  <si>
+    <t>Tool39</t>
+  </si>
+  <si>
+    <t>Tool40</t>
+  </si>
+  <si>
+    <t>Tool41</t>
+  </si>
+  <si>
+    <t>Tool42</t>
+  </si>
+  <si>
+    <t>Tool43</t>
+  </si>
+  <si>
+    <t>Tool44</t>
+  </si>
+  <si>
+    <t>Tool45</t>
+  </si>
+  <si>
+    <t>An R package that provides readable check functions to ensure code integrity. Lots of predicates (is_* functions) to check the state of your variables, and assertions (assert_* functions) to throw errors if they aren't in the right form.  It is designed to make your code very easy to read, and to provide highly informative error messages. assertive, and assertions in general, are for run-time testing. That is, you include them in your code to check that the user hasn't made a mistake while running your code. The assertive package is now a virtual package: that is, it no longer contains its own functions, but instead exports them from lower-level packages.</t>
+  </si>
+  <si>
+    <t>n_elements()</t>
+  </si>
+  <si>
+    <t>contents()</t>
+  </si>
+  <si>
+    <t>distinct</t>
+  </si>
+  <si>
+    <t>Identify loners (Identify levels with &lt; 6 obs., for character and factor variables)</t>
+  </si>
+  <si>
+    <t>Generation of "codebooks"</t>
+  </si>
+  <si>
+    <t>Inadmissible numerical values (hard limits)</t>
+  </si>
+  <si>
+    <t>Uncertain numerical values (soft limits)</t>
+  </si>
+  <si>
+    <t>Correlation analysis</t>
+  </si>
+  <si>
+    <t>Archived on 2021-10-22.</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>outliers, mean, mode, min, max, quartiles</t>
+  </si>
+  <si>
+    <t>Identify missing (codes) but not working on latest version, described for dataMaid</t>
+  </si>
+  <si>
+    <t>mean, sd, min, med, max, iqr, cv, freqs</t>
+  </si>
+  <si>
+    <t>Plot empirical distribution</t>
+  </si>
+  <si>
+    <t>Variable type</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1325,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1113,10 +1426,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1131,6 +1440,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1412,42 +1725,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:AU85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S34" sqref="S34"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="47" style="2" customWidth="1"/>
-    <col min="4" max="4" width="43.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="39.5546875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="38.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="39.5703125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="38.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="42" style="2" customWidth="1"/>
-    <col min="10" max="10" width="40.44140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="32.44140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="33.77734375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="34.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="38.77734375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="32.5546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="31.6640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="32.77734375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="36.44140625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="33.21875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="40.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="32.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="33.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="34.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="38.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="32.5703125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="31.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="32.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="36.42578125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="33.28515625" style="2" customWidth="1"/>
     <col min="20" max="20" width="34" style="2" customWidth="1"/>
-    <col min="21" max="21" width="33.33203125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="35" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="11" style="2"/>
+    <col min="21" max="21" width="33.28515625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="38.7109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="34.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="33" style="2" customWidth="1"/>
+    <col min="25" max="25" width="33.85546875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="32.85546875" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1479,43 +1796,118 @@
         <v>66</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W1" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1538,46 +1930,64 @@
         <v>71</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1638,8 +2048,26 @@
       <c r="T3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
@@ -1647,7 +2075,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>50</v>
@@ -1659,50 +2087,68 @@
         <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I4" t="s">
         <v>50</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>53</v>
       </c>
       <c r="M4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="R4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="S4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="T4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="U4" t="s">
+        <v>309</v>
+      </c>
+      <c r="V4" t="s">
+        <v>334</v>
+      </c>
+      <c r="W4" t="s">
+        <v>204</v>
+      </c>
+      <c r="X4" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1762,8 +2208,26 @@
       <c r="T5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1804,7 +2268,7 @@
         <v>19</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>19</v>
@@ -1824,8 +2288,26 @@
       <c r="T6" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="U6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1851,7 +2333,7 @@
         <v>13</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>13</v>
@@ -1886,8 +2368,26 @@
       <c r="T7" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="U7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -1948,8 +2448,26 @@
       <c r="T8" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="246" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" ht="246" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1960,10 +2478,10 @@
         <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>68</v>
@@ -1972,46 +2490,64 @@
         <v>76</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z9" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -2069,8 +2605,29 @@
       <c r="S10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="T10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -2099,7 +2656,7 @@
         <v>53</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>15</v>
@@ -2108,7 +2665,7 @@
         <v>15</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>15</v>
@@ -2128,8 +2685,29 @@
       <c r="S11" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="T11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -2158,7 +2736,7 @@
         <v>53</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>15</v>
@@ -2167,7 +2745,7 @@
         <v>15</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>15</v>
@@ -2187,8 +2765,29 @@
       <c r="S12" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2231,8 +2830,17 @@
       <c r="S13" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="T13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -2275,8 +2883,23 @@
       <c r="S14" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="T14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -2319,8 +2942,23 @@
       <c r="S15" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -2363,8 +3001,23 @@
       <c r="S16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="T16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="165" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -2375,49 +3028,61 @@
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>14</v>
+        <v>402</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -2440,7 +3105,7 @@
         <v>19</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>19</v>
@@ -2455,22 +3120,46 @@
         <v>19</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="R18" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="S18" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -2493,7 +3182,7 @@
         <v>19</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>19</v>
@@ -2508,22 +3197,46 @@
         <v>19</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="R19" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="S19" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -2572,11 +3285,35 @@
       <c r="Q20" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="R20" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="S20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -2590,49 +3327,73 @@
         <v>52</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>75</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -2681,11 +3442,35 @@
       <c r="Q22" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="R22" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="S22" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -2723,7 +3508,7 @@
         <v>19</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>19</v>
@@ -2734,11 +3519,35 @@
       <c r="Q23" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="R23" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="S23" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="T23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
@@ -2787,11 +3596,35 @@
       <c r="Q24" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="R24" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="S24" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -2810,30 +3643,45 @@
       </c>
       <c r="G25" s="3"/>
       <c r="I25" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>2</v>
@@ -2842,58 +3690,70 @@
         <v>5</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>190</v>
+        <v>150</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -2916,25 +3776,40 @@
         <v>72</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>156</v>
+        <v>229</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -2951,51 +3826,66 @@
         <v>57</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>72</v>
       </c>
       <c r="H28" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="N28" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="O28" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P28" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q28" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="Q28" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="R28" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
@@ -3003,13 +3893,19 @@
       </c>
       <c r="F29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -3026,186 +3922,240 @@
         <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G31" t="s">
         <v>74</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="13" t="s">
         <v>48</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="14">
         <v>44222</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="14">
         <v>42737</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="15">
         <v>41862</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="15">
         <v>41193</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="15">
         <v>43217</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="15">
         <v>42836</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="15">
         <v>42248</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="15">
         <v>42908</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="15">
         <v>42454</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="15">
         <v>41538</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="15">
         <v>41518</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N32" s="15">
         <v>41380</v>
       </c>
-      <c r="O32" s="9">
+      <c r="O32" s="15">
         <v>40604</v>
       </c>
-      <c r="P32" s="9">
+      <c r="P32" s="15">
         <v>42441</v>
       </c>
-      <c r="Q32" s="9">
+      <c r="Q32" s="15">
         <v>43014</v>
       </c>
-      <c r="R32" s="9">
+      <c r="R32" s="15">
         <v>40574</v>
       </c>
-      <c r="S32" s="9">
+      <c r="S32" s="15">
         <v>42734</v>
       </c>
-      <c r="T32" s="9">
+      <c r="T32" s="14">
         <v>42646</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="U32" s="14">
+        <v>42430</v>
+      </c>
+      <c r="V32" s="14">
+        <v>43196</v>
+      </c>
+      <c r="W32" s="14">
+        <v>42441</v>
+      </c>
+      <c r="X32" s="13">
+        <v>42410</v>
+      </c>
+      <c r="Y32" s="13">
+        <v>37819</v>
+      </c>
+      <c r="Z32" s="13">
+        <v>41058</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="14">
         <v>44442</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="15">
         <v>44179</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="15">
         <v>44405</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="15">
         <v>44399</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="15">
         <v>44441</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="15">
         <v>43468</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="15">
         <v>44476</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="15">
         <v>42908</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="15">
         <v>42454</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="15">
         <v>41538</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M33" s="15">
         <v>42606</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N33" s="15">
         <v>42112</v>
       </c>
-      <c r="O33" s="9">
+      <c r="O33" s="15">
         <v>42200</v>
       </c>
-      <c r="P33" s="9">
+      <c r="P33" s="15">
         <v>44284</v>
       </c>
-      <c r="Q33" s="9">
+      <c r="Q33" s="15">
         <v>44463</v>
       </c>
-      <c r="R33" s="9">
+      <c r="R33" s="15">
         <v>43282</v>
       </c>
-      <c r="S33" s="9">
+      <c r="S33" s="15">
         <v>44319</v>
       </c>
-      <c r="T33" s="9">
+      <c r="T33" s="14">
         <v>44201</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U33" s="14">
+        <v>44180</v>
+      </c>
+      <c r="V33" s="14">
+        <v>44352</v>
+      </c>
+      <c r="W33" s="14">
+        <v>43357</v>
+      </c>
+      <c r="X33" s="13">
+        <v>42410</v>
+      </c>
+      <c r="Y33" s="13">
+        <v>44476</v>
+      </c>
+      <c r="Z33" s="13">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="10" t="s">
         <v>119</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -3218,13 +4168,13 @@
         <v>73</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>119</v>
@@ -3233,492 +4183,592 @@
         <v>119</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>119</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="T34" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="V34" t="s">
+        <v>331</v>
+      </c>
+      <c r="W34" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="X34" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y36" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="H37" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="T37" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" ht="72" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="H35" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C38" s="11"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="V37" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="D42" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z43" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z44" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z45" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y47" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z47" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="L49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z49" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="V50" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="D51" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="D52" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I47" s="2" t="s">
+      <c r="I52" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y52" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I48" s="2" t="s">
+    <row r="64" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I71" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="L48" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D49" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J49" s="2" t="s">
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J74" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="L49" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D50" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D51" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I70" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+      <c r="V74" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+      <c r="E77" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+    <row r="80" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+      <c r="U80" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+      <c r="U81" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+    <row r="85" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3770,8 +4820,27 @@
     <hyperlink ref="S25" r:id="rId44"/>
     <hyperlink ref="T28" r:id="rId45"/>
     <hyperlink ref="T27" r:id="rId46"/>
+    <hyperlink ref="T25" r:id="rId47"/>
+    <hyperlink ref="U26" r:id="rId48"/>
+    <hyperlink ref="U28" r:id="rId49"/>
+    <hyperlink ref="U27" r:id="rId50"/>
+    <hyperlink ref="V26" r:id="rId51"/>
+    <hyperlink ref="V28" r:id="rId52"/>
+    <hyperlink ref="V27" r:id="rId53"/>
+    <hyperlink ref="W28" r:id="rId54"/>
+    <hyperlink ref="W29" r:id="rId55"/>
+    <hyperlink ref="W27" r:id="rId56"/>
+    <hyperlink ref="X27" r:id="rId57"/>
+    <hyperlink ref="X26" r:id="rId58"/>
+    <hyperlink ref="Y28" r:id="rId59"/>
+    <hyperlink ref="Y27" r:id="rId60"/>
+    <hyperlink ref="Y25" r:id="rId61"/>
+    <hyperlink ref="Z25" r:id="rId62"/>
+    <hyperlink ref="Z28" r:id="rId63"/>
+    <hyperlink ref="Z26" r:id="rId64"/>
+    <hyperlink ref="Z29" r:id="rId65"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId47"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId66"/>
 </worksheet>
 </file>
--- a/Data quality revision R overview v01.xlsx
+++ b/Data quality revision R overview v01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="420">
   <si>
     <t>Acronym (falls vorhanden)</t>
   </si>
@@ -506,12 +506,6 @@
     <t>R objects (JSON for validatereport)</t>
   </si>
   <si>
-    <t>yes, as "validation rules" (text and yaml files)</t>
-  </si>
-  <si>
-    <t>yes, as "validation rules"</t>
-  </si>
-  <si>
     <t>Field length (number of characters in text fields)</t>
   </si>
   <si>
@@ -545,9 +539,6 @@
     <t>Forbidden value combinations</t>
   </si>
   <si>
-    <t>handling long format data, comparing data sets (with lumberjack package), statistical checks, continuous data indicators</t>
-  </si>
-  <si>
     <t>yes, iff using validatereport package (in beta version only - does not work)</t>
   </si>
   <si>
@@ -630,9 +621,6 @@
   </si>
   <si>
     <t>Quantify missing values</t>
-  </si>
-  <si>
-    <t>outliers</t>
   </si>
   <si>
     <t>dataClean</t>
@@ -1318,6 +1306,39 @@
   </si>
   <si>
     <t>Variable type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean, min, med, max, quartiles, outliers, </t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>handling long format data, comparing data sets (with lumberjack package), statistical checks, continuous data indicators. Integration with Statistical Data and Metadata eXchange (SDMX) and Data Structure Definition (DSD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, as "validation rules" or from SDMX or DSD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes, as "validation rules" (text and yaml files) or from SDMX or DSD </t>
+  </si>
+  <si>
+    <t>yes, for the "validation rules"</t>
+  </si>
+  <si>
+    <t>yes (one report per variable)</t>
+  </si>
+  <si>
+    <t>Missings (but it doesn't seem to work)</t>
+  </si>
+  <si>
+    <t>Empirical distribution</t>
+  </si>
+  <si>
+    <t>Outliers (from box-whisker plot)</t>
+  </si>
+  <si>
+    <t>Frequency, percentage, empirical distribution, mean, min, max, quartiles, box-whisker plot, qq-plot</t>
   </si>
 </sst>
 </file>
@@ -1727,11 +1748,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="S27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1796,118 +1817,118 @@
         <v>66</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="W1" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA1" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="AD1" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>329</v>
-      </c>
       <c r="AH1" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL1" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="AR1" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1930,61 +1951,61 @@
         <v>71</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>149</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
@@ -2067,7 +2088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
@@ -2090,61 +2111,61 @@
         <v>144</v>
       </c>
       <c r="H4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I4" t="s">
         <v>50</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>53</v>
       </c>
       <c r="M4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P4" t="s">
         <v>144</v>
       </c>
       <c r="Q4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="R4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="S4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="T4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="U4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="V4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="W4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="X4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Y4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Z4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="30" x14ac:dyDescent="0.25">
@@ -2268,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>19</v>
@@ -2333,10 +2354,10 @@
         <v>13</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>19</v>
@@ -2481,7 +2502,7 @@
         <v>130</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>68</v>
@@ -2490,61 +2511,61 @@
         <v>76</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>156</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Y9" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:47" ht="30" x14ac:dyDescent="0.25">
@@ -2656,7 +2677,7 @@
         <v>53</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>15</v>
@@ -2665,7 +2686,7 @@
         <v>15</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>15</v>
@@ -2736,7 +2757,7 @@
         <v>53</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>15</v>
@@ -2745,7 +2766,7 @@
         <v>15</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>15</v>
@@ -3028,7 +3049,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>133</v>
@@ -3040,46 +3061,46 @@
         <v>147</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>173</v>
+        <v>411</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P17" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q17" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="Q17" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="S17" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -3105,7 +3126,7 @@
         <v>19</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>161</v>
+        <v>412</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>19</v>
@@ -3120,22 +3141,22 @@
         <v>19</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>19</v>
@@ -3182,7 +3203,7 @@
         <v>19</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>160</v>
+        <v>413</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>19</v>
@@ -3197,22 +3218,22 @@
         <v>19</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>19</v>
@@ -3259,7 +3280,7 @@
         <v>19</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>13</v>
+        <v>414</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>19</v>
@@ -3313,7 +3334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -3336,61 +3357,61 @@
         <v>75</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>159</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="N21" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="O21" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -3470,7 +3491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -3508,7 +3529,7 @@
         <v>19</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>19</v>
@@ -3646,37 +3667,37 @@
         <v>153</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -3702,55 +3723,55 @@
         <v>143</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>150</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K26" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="M26" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="R26" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="S26" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>287</v>
-      </c>
       <c r="T26" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="60" x14ac:dyDescent="0.25">
@@ -3776,37 +3797,37 @@
         <v>72</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>154</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -3832,55 +3853,55 @@
         <v>72</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>155</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -3896,16 +3917,16 @@
         <v>158</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -3934,19 +3955,19 @@
         <v>151</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>151</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>151</v>
       </c>
       <c r="N31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>151</v>
@@ -3964,16 +3985,16 @@
         <v>151</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="U31" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="V31" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="X31" s="2" t="s">
         <v>151</v>
@@ -3985,7 +4006,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>78</v>
       </c>
@@ -4065,7 +4086,7 @@
         <v>41058</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>118</v>
       </c>
@@ -4168,13 +4189,13 @@
         <v>73</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>152</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>119</v>
@@ -4183,34 +4204,34 @@
         <v>119</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>119</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="V34" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="W34" s="2">
         <v>1.2</v>
@@ -4219,87 +4240,93 @@
         <v>0.1</v>
       </c>
       <c r="Y34" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Z34" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E37" s="6"/>
       <c r="H37" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Y37" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
@@ -4323,7 +4350,7 @@
         <v>79</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
@@ -4334,13 +4361,10 @@
         <v>80</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>168</v>
+        <v>403</v>
       </c>
       <c r="Z43" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
@@ -4357,10 +4381,10 @@
         <v>81</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Z44" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
@@ -4371,7 +4395,7 @@
         <v>82</v>
       </c>
       <c r="Z45" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
@@ -4393,16 +4417,19 @@
         <v>127</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>157</v>
       </c>
       <c r="Y47" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4416,7 +4443,7 @@
         <v>124</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4439,22 +4466,25 @@
         <v>145</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
@@ -4462,27 +4492,27 @@
         <v>126</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>126</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="D51" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4490,10 +4520,15 @@
         <v>129</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Y52" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I53" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
@@ -4508,9 +4543,6 @@
       <c r="C55" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
@@ -4544,10 +4576,10 @@
         <v>93</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
@@ -4557,13 +4589,13 @@
     </row>
     <row r="62" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>95</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
@@ -4574,7 +4606,7 @@
         <v>96</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4585,7 +4617,7 @@
         <v>97</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="30" x14ac:dyDescent="0.25">
@@ -4606,13 +4638,13 @@
     </row>
     <row r="67" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>100</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -4623,7 +4655,7 @@
         <v>101</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="30" x14ac:dyDescent="0.25">
@@ -4634,7 +4666,7 @@
         <v>102</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
@@ -4647,7 +4679,7 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I71" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -4669,10 +4701,10 @@
         <v>146</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>202</v>
+        <v>418</v>
       </c>
       <c r="V74" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -4698,8 +4730,14 @@
       <c r="C77" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="D77" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="E77" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
@@ -4726,7 +4764,7 @@
         <v>111</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4737,7 +4775,7 @@
         <v>112</v>
       </c>
       <c r="U81" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">

--- a/Data quality revision R overview v01.xlsx
+++ b/Data quality revision R overview v01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="422">
   <si>
     <t>Acronym (falls vorhanden)</t>
   </si>
@@ -1016,9 +1016,6 @@
     <t>profile_missing (count NAs)</t>
   </si>
   <si>
-    <t>Histogram, boxplot, correlation heatmap, density estimates, Qqplot, PCA</t>
-  </si>
-  <si>
     <t>Replace missing values (NAs), split data into discrete and continuous parts, visualization of data structure (tree-like or network), group sparse categories, transform the data into binary format (dummify)</t>
   </si>
   <si>
@@ -1071,9 +1068,6 @@
   </si>
   <si>
     <t>≥ 3.3.0</t>
-  </si>
-  <si>
-    <t>Data reshaping using data.table.dcast(), filter rows/cases where conditions are true. Options to apply filters at variable level or complete data set like base subsetting.</t>
   </si>
   <si>
     <t>Missing_Count (NAs)</t>
@@ -1339,6 +1333,18 @@
   </si>
   <si>
     <t>Frequency, percentage, empirical distribution, mean, min, max, quartiles, box-whisker plot, qq-plot</t>
+  </si>
+  <si>
+    <t>Histogram, boxplot, correlation heatmap, density estimates, qqplot, PCA</t>
+  </si>
+  <si>
+    <t>Sample size</t>
+  </si>
+  <si>
+    <t>No. variables</t>
+  </si>
+  <si>
+    <t>Data reshaping using data.table.dcast(), filter rows/cases where conditions are true. Options to apply filters at variable level or complete data set like base subsetting. Outlier imputation.</t>
   </si>
 </sst>
 </file>
@@ -1749,10 +1755,10 @@
   <dimension ref="A1:AU85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Y27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T43" sqref="T43"/>
+      <selection pane="bottomRight" activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,79 +1859,79 @@
         <v>184</v>
       </c>
       <c r="W1" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="AG1" s="4" t="s">
-        <v>325</v>
-      </c>
       <c r="AH1" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
@@ -1993,19 +1999,19 @@
         <v>304</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
@@ -2153,19 +2159,19 @@
         <v>305</v>
       </c>
       <c r="V4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W4" t="s">
         <v>200</v>
       </c>
       <c r="X4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Y4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Z4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:47" ht="30" x14ac:dyDescent="0.25">
@@ -2357,7 +2363,7 @@
         <v>171</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>19</v>
@@ -2553,19 +2559,19 @@
         <v>306</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Y9" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:47" ht="30" x14ac:dyDescent="0.25">
@@ -3049,7 +3055,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>133</v>
@@ -3061,7 +3067,7 @@
         <v>147</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>196</v>
@@ -3091,16 +3097,16 @@
         <v>303</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>331</v>
+        <v>421</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -3126,7 +3132,7 @@
         <v>19</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>19</v>
@@ -3203,7 +3209,7 @@
         <v>19</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>19</v>
@@ -3280,7 +3286,7 @@
         <v>19</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>19</v>
@@ -3396,19 +3402,19 @@
         <v>236</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X21" s="2" t="s">
         <v>236</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="Z21" s="2" t="s">
         <v>236</v>
@@ -3688,16 +3694,16 @@
         <v>297</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -3765,13 +3771,13 @@
         <v>307</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="60" x14ac:dyDescent="0.25">
@@ -3818,16 +3824,16 @@
         <v>310</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -3892,16 +3898,16 @@
         <v>309</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -3917,10 +3923,10 @@
         <v>158</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
@@ -3994,7 +4000,7 @@
         <v>231</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="X31" s="2" t="s">
         <v>151</v>
@@ -4076,13 +4082,13 @@
       <c r="W32" s="14">
         <v>42441</v>
       </c>
-      <c r="X32" s="13">
+      <c r="X32" s="14">
         <v>42410</v>
       </c>
-      <c r="Y32" s="13">
+      <c r="Y32" s="14">
         <v>37819</v>
       </c>
-      <c r="Z32" s="13">
+      <c r="Z32" s="14">
         <v>41058</v>
       </c>
     </row>
@@ -4156,13 +4162,13 @@
       <c r="W33" s="14">
         <v>43357</v>
       </c>
-      <c r="X33" s="13">
+      <c r="X33" s="14">
         <v>42410</v>
       </c>
-      <c r="Y33" s="13">
+      <c r="Y33" s="14">
         <v>44476</v>
       </c>
-      <c r="Z33" s="13">
+      <c r="Z33" s="14">
         <v>44044</v>
       </c>
     </row>
@@ -4231,7 +4237,7 @@
         <v>308</v>
       </c>
       <c r="V34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="W34" s="2">
         <v>1.2</v>
@@ -4240,36 +4246,36 @@
         <v>0.1</v>
       </c>
       <c r="Y34" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="Z34" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>273</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>406</v>
-      </c>
       <c r="G36" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>312</v>
+        <v>418</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Y36" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="75" x14ac:dyDescent="0.25">
@@ -4280,7 +4286,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E37" s="6"/>
       <c r="H37" s="2" t="s">
@@ -4317,16 +4323,16 @@
         <v>300</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Y37" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
@@ -4350,7 +4356,7 @@
         <v>79</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
@@ -4361,10 +4367,10 @@
         <v>80</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Z43" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
@@ -4384,7 +4390,7 @@
         <v>299</v>
       </c>
       <c r="Z44" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
@@ -4394,8 +4400,11 @@
       <c r="C45" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="V45" s="2" t="s">
+        <v>420</v>
+      </c>
       <c r="Z45" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
@@ -4405,6 +4414,9 @@
       <c r="C46" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="V46" s="2" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -4417,19 +4429,22 @@
         <v>127</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>157</v>
       </c>
+      <c r="V47" s="2" t="s">
+        <v>406</v>
+      </c>
       <c r="Y47" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -4469,7 +4484,7 @@
         <v>168</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>212</v>
@@ -4478,13 +4493,13 @@
         <v>311</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
@@ -4504,12 +4519,12 @@
         <v>126</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="D51" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>167</v>
@@ -4523,7 +4538,7 @@
         <v>160</v>
       </c>
       <c r="Y52" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
@@ -4576,7 +4591,7 @@
         <v>93</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>198</v>
@@ -4589,7 +4604,7 @@
     </row>
     <row r="62" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>95</v>
@@ -4638,7 +4653,7 @@
     </row>
     <row r="67" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>100</v>
@@ -4701,10 +4716,10 @@
         <v>146</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="V74" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -4731,13 +4746,19 @@
         <v>108</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
+      </c>
+      <c r="U77" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="V77" s="2" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
@@ -4764,7 +4785,7 @@
         <v>111</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4775,7 +4796,7 @@
         <v>112</v>
       </c>
       <c r="U81" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">

--- a/Data quality revision R overview v01.xlsx
+++ b/Data quality revision R overview v01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="434">
   <si>
     <t>Acronym (falls vorhanden)</t>
   </si>
@@ -1345,6 +1345,42 @@
   </si>
   <si>
     <t>Data reshaping using data.table.dcast(), filter rows/cases where conditions are true. Options to apply filters at variable level or complete data set like base subsetting. Outlier imputation.</t>
+  </si>
+  <si>
+    <t>arsenal</t>
+  </si>
+  <si>
+    <t>3.6.3</t>
+  </si>
+  <si>
+    <t>≥ 3.4.0 (stats ≥ 3.4.0)</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=arsenal</t>
+  </si>
+  <si>
+    <t>https://github.com/mayoverse/arsenal</t>
+  </si>
+  <si>
+    <t>https://mayoverse.github.io/arsenal/</t>
+  </si>
+  <si>
+    <t>The goal of library(arsenal) is to make statistical reporting easy. An Arsenal of 'R' functions for large-scale statistical summaries, which are streamlined to work within the latest reporting tools in 'R' and 'RStudio' and which use formulas and versatile summary statistics for summary tables and models. There are, at this time, 6 main functions, documented below. Each of these functions is motivated by a local SAS macro or procedure of similar functionality.  The primary functions include tableby(), a Table-1-like summary of multiple variable types 'by' the levels of one or more categorical variables; paired(), a Table-1-like summary of multiple variable types paired across two time points; modelsum(), which performs simple model fits on one or more endpoints for many variables (univariate or adjusted for covariates); freqlist(), a powerful frequency table across many categorical variables; comparedf(), a function for comparing data.frames; and write2(), a function to output tables to a document.</t>
+  </si>
+  <si>
+    <t>comparedf()</t>
+  </si>
+  <si>
+    <t>Nas</t>
+  </si>
+  <si>
+    <t>R objects, csv, docx, html</t>
+  </si>
+  <si>
+    <t>Comparison of datasets, including: equivalent classes (ignore case, treat dots and underscores the same),  tolerance (logical, numerical, factor, character and date), differences. Pass functions to freqlist. Set and modify dataset labels. Fit and summarize regression models (gaussian, binomial, survival, poisson) including weights. Variable transformation. Summary statistics and tests for variables paired across two time points (paired). Specify tests for summary statistics tables. Output results in multiple formats, but these are not "reports".</t>
+  </si>
+  <si>
+    <t>no, but comparison of e.g. model fitting across datasets</t>
   </si>
 </sst>
 </file>
@@ -1755,10 +1791,10 @@
   <dimension ref="A1:AU85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Y27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z36" sqref="Z36"/>
+      <selection pane="bottomRight" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,7 +1824,8 @@
     <col min="24" max="24" width="33" style="2" customWidth="1"/>
     <col min="25" max="25" width="33.85546875" style="2" customWidth="1"/>
     <col min="26" max="26" width="32.85546875" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="11" style="2"/>
+    <col min="27" max="27" width="36.42578125" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2013,6 +2050,9 @@
       <c r="Z2" s="2" t="s">
         <v>366</v>
       </c>
+      <c r="AA2" s="2" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2093,6 +2133,9 @@
       <c r="Z3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="AA3" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -2173,8 +2216,11 @@
       <c r="Z4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="5" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="AA4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>77</v>
       </c>
@@ -2253,8 +2299,11 @@
       <c r="Z5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="AA5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2331,6 +2380,9 @@
         <v>19</v>
       </c>
       <c r="Z6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2413,6 +2465,9 @@
       <c r="Z7" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AA7" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -2493,6 +2548,9 @@
       <c r="Z8" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AA8" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:47" ht="246" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2573,6 +2631,9 @@
       <c r="Z9" s="7" t="s">
         <v>391</v>
       </c>
+      <c r="AA9" s="7" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="10" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -2653,6 +2714,9 @@
       <c r="Z10" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AA10" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -2733,6 +2797,9 @@
       <c r="Z11" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="AA11" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:47" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -2813,6 +2880,9 @@
       <c r="Z12" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="AA12" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:47" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -2866,6 +2936,15 @@
       <c r="X13" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="Y13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -2925,6 +3004,12 @@
       <c r="Y14" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="Z14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -2984,6 +3069,12 @@
       <c r="Y15" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="Z15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:47" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -3043,8 +3134,14 @@
       <c r="Y16" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" ht="165" x14ac:dyDescent="0.25">
+      <c r="Z16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="225" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -3108,8 +3205,11 @@
       <c r="Y17" s="2" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="AA17" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -3185,8 +3285,11 @@
       <c r="Z18" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="AA18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -3262,8 +3365,11 @@
       <c r="Z19" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="AA19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -3339,8 +3445,11 @@
       <c r="Z20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -3419,8 +3528,11 @@
       <c r="Z21" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="AA21" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -3496,8 +3608,11 @@
       <c r="Z22" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -3573,8 +3688,11 @@
       <c r="Z23" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="AA23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
@@ -3650,8 +3768,11 @@
       <c r="Z24" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA24" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -3706,7 +3827,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>137</v>
       </c>
@@ -3779,8 +3900,11 @@
       <c r="Z26" s="3" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="AA26" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -3835,8 +3959,11 @@
       <c r="Y27" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="AA27" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -3909,8 +4036,11 @@
       <c r="Z28" s="3" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="AA28" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
         <v>140</v>
       </c>
@@ -3929,10 +4059,10 @@
         <v>375</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -4011,8 +4141,11 @@
       <c r="Z31" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA31" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>78</v>
       </c>
@@ -4091,8 +4224,11 @@
       <c r="Z32" s="14">
         <v>41058</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA32" s="14">
+        <v>42734</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>118</v>
       </c>
@@ -4171,8 +4307,11 @@
       <c r="Z33" s="14">
         <v>44044</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA33" s="14">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>117</v>
       </c>
@@ -4251,8 +4390,11 @@
       <c r="Z34" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>273</v>
       </c>
@@ -4278,7 +4420,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>233</v>
       </c>
@@ -4335,20 +4477,20 @@
         <v>362</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C39" s="9"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>79</v>
       </c>
@@ -4358,8 +4500,11 @@
       <c r="D42" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA42" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>80</v>
       </c>
@@ -4372,8 +4517,11 @@
       <c r="Z43" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA43" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>81</v>
       </c>
@@ -4393,7 +4541,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>82</v>
       </c>
@@ -4407,7 +4555,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>83</v>
       </c>
@@ -4418,7 +4566,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>84</v>
       </c>
@@ -4447,7 +4595,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>85</v>
       </c>
@@ -4461,48 +4609,15 @@
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="U49" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="V49" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y49" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="Z49" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D50" s="2" t="s">
         <v>126</v>
       </c>
@@ -4521,8 +4636,11 @@
       <c r="V50" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="Y50" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="D51" s="2" t="s">
         <v>395</v>
       </c>
@@ -4530,36 +4648,69 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="D52" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="Y52" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I53" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="V55" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y55" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z55" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA55" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>90</v>
       </c>
@@ -4567,7 +4718,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>91</v>
       </c>
@@ -4575,7 +4726,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>92</v>
       </c>
@@ -4583,7 +4734,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>93</v>
       </c>
@@ -4597,12 +4748,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>397</v>
       </c>
@@ -4613,7 +4764,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>96</v>
       </c>
@@ -4624,7 +4775,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>97</v>
       </c>
@@ -4898,8 +5049,13 @@
     <hyperlink ref="Z28" r:id="rId63"/>
     <hyperlink ref="Z26" r:id="rId64"/>
     <hyperlink ref="Z29" r:id="rId65"/>
+    <hyperlink ref="AA26" r:id="rId66"/>
+    <hyperlink ref="AA28" r:id="rId67"/>
+    <hyperlink ref="AA27" r:id="rId68"/>
+    <hyperlink ref="AA42" r:id="rId69" display="https://mayoverse.github.io/arsenal/reference/comparedf.html"/>
+    <hyperlink ref="AA43" r:id="rId70" display="https://mayoverse.github.io/arsenal/reference/comparedf.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId66"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId71"/>
 </worksheet>
 </file>
--- a/Data quality revision R overview v01.xlsx
+++ b/Data quality revision R overview v01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="445">
   <si>
     <t>Acronym (falls vorhanden)</t>
   </si>
@@ -1381,6 +1381,39 @@
   </si>
   <si>
     <t>no, but comparison of e.g. model fitting across datasets</t>
+  </si>
+  <si>
+    <t>autoEDA</t>
+  </si>
+  <si>
+    <t>https://github.com/XanderHorn/autoEDA</t>
+  </si>
+  <si>
+    <t>Excluded: not available on CRAN, only from github.</t>
+  </si>
+  <si>
+    <t>https://rdrr.io/github/XanderHorn/autoEDA/man/autoEDA.html</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>FeatureClass and Type</t>
+  </si>
+  <si>
+    <t>Percentage unique</t>
+  </si>
+  <si>
+    <t>Outliers</t>
+  </si>
+  <si>
+    <t>min, max, quartiles, mean, outliers</t>
+  </si>
+  <si>
+    <t>Percentage missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated exploratory data analysis for modelling problems, variables of interest and data of interest. Exploratory data analysis can be performed both visually and in a tabular manner. In addition allows for exploring variable predictive power when encountering a modelling problem. autoEDA aims to automate exploratory data analysis in a univariate or bivariate manner. It has the ability to output plots created with the ggplot2 library and themes inspired by RColorBrewer. The main ability involves seemlessly cleaning and pre-processing your data inorder for plots to display adequately. </t>
   </si>
 </sst>
 </file>
@@ -1791,10 +1824,10 @@
   <dimension ref="A1:AU85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F62" sqref="F62"/>
+      <selection pane="bottomRight" activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,7 +1858,8 @@
     <col min="25" max="25" width="33.85546875" style="2" customWidth="1"/>
     <col min="26" max="26" width="32.85546875" style="2" customWidth="1"/>
     <col min="27" max="27" width="36.42578125" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="11" style="2"/>
+    <col min="28" max="28" width="32.7109375" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2053,6 +2087,9 @@
       <c r="AA2" s="2" t="s">
         <v>422</v>
       </c>
+      <c r="AB2" s="2" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2136,6 +2173,9 @@
       <c r="AA3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="AB3" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -2302,6 +2342,9 @@
       <c r="AA5" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="AB5" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2385,6 +2428,9 @@
       <c r="AA6" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AB6" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:47" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2468,6 +2514,9 @@
       <c r="AA7" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AB7" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -2551,6 +2600,9 @@
       <c r="AA8" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AB8" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:47" ht="246" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2634,6 +2686,9 @@
       <c r="AA9" s="7" t="s">
         <v>428</v>
       </c>
+      <c r="AB9" s="7" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="10" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -2717,6 +2772,9 @@
       <c r="AA10" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AB10" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -2800,6 +2858,9 @@
       <c r="AA11" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="AB11" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:47" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -2883,6 +2944,9 @@
       <c r="AA12" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="AB12" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:47" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -2945,6 +3009,9 @@
       <c r="AA13" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="AB13" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -3010,6 +3077,9 @@
       <c r="AA14" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AB14" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:47" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -3075,6 +3145,9 @@
       <c r="AA15" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AB15" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:47" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -3140,8 +3213,11 @@
       <c r="AA16" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" ht="225" x14ac:dyDescent="0.25">
+      <c r="AB16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="225" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -3209,7 +3285,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -3288,8 +3364,11 @@
       <c r="AA18" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="AB18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -3368,8 +3447,11 @@
       <c r="AA19" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="AB19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -3448,8 +3530,11 @@
       <c r="AA20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -3531,8 +3616,11 @@
       <c r="AA21" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="AB21" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -3611,8 +3699,11 @@
       <c r="AA22" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -3691,8 +3782,11 @@
       <c r="AA23" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="AB23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
@@ -3771,8 +3865,11 @@
       <c r="AA24" s="2" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
@@ -3827,7 +3924,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>137</v>
       </c>
@@ -3903,8 +4000,11 @@
       <c r="AA26" s="3" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="AB26" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
@@ -3963,7 +4063,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -4039,8 +4139,11 @@
       <c r="AA28" s="3" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="AB28" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
         <v>140</v>
       </c>
@@ -4059,10 +4162,10 @@
         <v>375</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -4145,7 +4248,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>78</v>
       </c>
@@ -4228,7 +4331,7 @@
         <v>42734</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>118</v>
       </c>
@@ -4311,7 +4414,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>117</v>
       </c>
@@ -4394,7 +4497,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>273</v>
       </c>
@@ -4419,8 +4522,11 @@
       <c r="Y36" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="AB36" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>233</v>
       </c>
@@ -4476,21 +4582,24 @@
       <c r="Y37" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB37" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C39" s="9"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>79</v>
       </c>
@@ -4504,7 +4613,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>80</v>
       </c>
@@ -4520,8 +4629,11 @@
       <c r="AA43" s="2" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB43" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>81</v>
       </c>
@@ -4541,7 +4653,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>82</v>
       </c>
@@ -4555,7 +4667,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>83</v>
       </c>
@@ -4566,7 +4678,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>84</v>
       </c>
@@ -4594,8 +4706,11 @@
       <c r="Z47" s="2" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="48" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="AB47" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>85</v>
       </c>
@@ -4609,7 +4724,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>86</v>
       </c>
@@ -4617,7 +4732,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D50" s="2" t="s">
         <v>126</v>
       </c>
@@ -4639,8 +4754,11 @@
       <c r="Y50" s="2" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="51" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="AB50" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="D51" s="2" t="s">
         <v>395</v>
       </c>
@@ -4648,7 +4766,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="D52" s="2" t="s">
         <v>129</v>
       </c>
@@ -4656,17 +4774,17 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I53" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>89</v>
       </c>
@@ -4709,8 +4827,11 @@
       <c r="AA55" s="2" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB55" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>90</v>
       </c>
@@ -4718,7 +4839,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>91</v>
       </c>
@@ -4726,7 +4847,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>92</v>
       </c>
@@ -4734,7 +4855,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>93</v>
       </c>
@@ -4748,12 +4869,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>397</v>
       </c>
@@ -4764,7 +4885,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>96</v>
       </c>
@@ -4775,7 +4896,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>97</v>
       </c>
@@ -4786,7 +4907,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>98</v>
       </c>
@@ -4794,7 +4915,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>99</v>
       </c>
@@ -4802,7 +4923,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>398</v>
       </c>
@@ -4813,7 +4934,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>101</v>
       </c>
@@ -4824,7 +4945,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>102</v>
       </c>
@@ -4835,7 +4956,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>103</v>
       </c>
@@ -4843,17 +4964,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I71" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>105</v>
       </c>
@@ -4872,8 +4993,11 @@
       <c r="V74" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="AB74" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>106</v>
       </c>
@@ -4881,7 +5005,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>107</v>
       </c>
@@ -4889,7 +5013,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>108</v>
       </c>
@@ -4912,7 +5036,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>109</v>
       </c>
@@ -4920,7 +5044,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>110</v>
       </c>
@@ -4928,7 +5052,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>111</v>
       </c>
@@ -5054,8 +5178,10 @@
     <hyperlink ref="AA27" r:id="rId68"/>
     <hyperlink ref="AA42" r:id="rId69" display="https://mayoverse.github.io/arsenal/reference/comparedf.html"/>
     <hyperlink ref="AA43" r:id="rId70" display="https://mayoverse.github.io/arsenal/reference/comparedf.html"/>
+    <hyperlink ref="AB28" r:id="rId71"/>
+    <hyperlink ref="AB26" r:id="rId72"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId71"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId73"/>
 </worksheet>
 </file>
--- a/Data quality revision R overview v01.xlsx
+++ b/Data quality revision R overview v01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="469">
   <si>
     <t>Acronym (falls vorhanden)</t>
   </si>
@@ -1302,9 +1302,6 @@
     <t>Variable type</t>
   </si>
   <si>
-    <t xml:space="preserve">mean, min, med, max, quartiles, outliers, </t>
-  </si>
-  <si>
     <t>Types</t>
   </si>
   <si>
@@ -1414,6 +1411,82 @@
   </si>
   <si>
     <t xml:space="preserve">Automated exploratory data analysis for modelling problems, variables of interest and data of interest. Exploratory data analysis can be performed both visually and in a tabular manner. In addition allows for exploring variable predictive power when encountering a modelling problem. autoEDA aims to automate exploratory data analysis in a univariate or bivariate manner. It has the ability to output plots created with the ggplot2 library and themes inspired by RColorBrewer. The main ability involves seemlessly cleaning and pre-processing your data inorder for plots to display adequately. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExPanDaR </t>
+  </si>
+  <si>
+    <t>0.5.3</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=ExPanDaR</t>
+  </si>
+  <si>
+    <t>https://joachim-gassen.github.io/ExPanDaR/</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Extreme observations</t>
+  </si>
+  <si>
+    <t>Correlation plot</t>
+  </si>
+  <si>
+    <t>mean, median, sd, min, max, quartiles, histogram. Bar, violin, scatter plots by group. Regression analysis.</t>
+  </si>
+  <si>
+    <t>https://github.com/joachim-gassen/ExPanDaR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExPanD has two purposes: 1) Provide a toolbox for researchers to explore data on the fly, now also allowing them to download R notebook code that reflects their analysis. 2) Enable users to assess the robustness of empirical evidence without providing them with access to the underlying data. Provides a shiny-based front end (the 'ExPanD' app) and a set of functions for exploratory data analysis. Run as a web-based app, 'ExPanD' enables users to assess the robustness of empirical evidence without providing them access to the underlying data. You can export a notebook containing the analysis of 'ExPanD' and/or use the functions of the package to support your exploratory data analysis workflow.
+</t>
+  </si>
+  <si>
+    <t>yes, as "df_def"</t>
+  </si>
+  <si>
+    <t>R objects, Rmd, html</t>
+  </si>
+  <si>
+    <t>explore</t>
+  </si>
+  <si>
+    <t>Interactive data exploration with one line of code or use an easy to remember set of tidy functions for exploratory data analysis. Introduces three main verbs. explore() to graphically explore a variable or table, describe() to describe a variable or table and report() to create an automated report.</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>min, mean, max, boxplots</t>
+  </si>
+  <si>
+    <t>Decision tree and logistic regression</t>
+  </si>
+  <si>
+    <t>https://github.com/rolkra/explore</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=explore</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/explore/vignettes/explore.html</t>
+  </si>
+  <si>
+    <t>0.7.1</t>
+  </si>
+  <si>
+    <t>explore_cor</t>
+  </si>
+  <si>
+    <t>Correlation coefficient, matrix and plot</t>
+  </si>
+  <si>
+    <t>mean, min, med, max, quartiles, outliers, normality test</t>
   </si>
 </sst>
 </file>
@@ -1821,286 +1894,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU85"/>
+  <dimension ref="A1:AV85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="X32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB9" sqref="AB9"/>
+      <selection pane="bottomRight" activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47" style="2" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="39.5703125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="38.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="42" style="2" customWidth="1"/>
-    <col min="10" max="10" width="40.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="32.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="33.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="34.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="38.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="32.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="31.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="32.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="36.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="33.28515625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="34" style="2" customWidth="1"/>
-    <col min="21" max="21" width="33.28515625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="38.7109375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="34.42578125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="33" style="2" customWidth="1"/>
-    <col min="25" max="25" width="33.85546875" style="2" customWidth="1"/>
-    <col min="26" max="26" width="32.85546875" style="2" customWidth="1"/>
-    <col min="27" max="27" width="36.42578125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="32.7109375" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="11" style="2"/>
+    <col min="1" max="1" width="11" style="2"/>
+    <col min="2" max="2" width="29.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="46.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="38.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="42" style="2" customWidth="1"/>
+    <col min="11" max="11" width="40.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="32.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="33.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="34.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="38.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="32.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="31.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="32.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="36.42578125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="33.28515625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="34" style="2" customWidth="1"/>
+    <col min="22" max="22" width="33.28515625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="38.7109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="34.42578125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="33" style="2" customWidth="1"/>
+    <col min="26" max="26" width="33.85546875" style="2" customWidth="1"/>
+    <col min="27" max="27" width="32.85546875" style="2" customWidth="1"/>
+    <col min="28" max="28" width="36.42578125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="32.7109375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="32.5703125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="37.28515625" style="2" customWidth="1"/>
+    <col min="32" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="2:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>422</v>
-      </c>
       <c r="AB2" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
@@ -2108,11 +2187,11 @@
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
@@ -2176,100 +2255,115 @@
       <c r="AB3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="AC3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>56</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>50</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>144</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>221</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>200</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>242</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>200</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>250</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>144</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>266</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>275</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>285</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>221</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>305</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>329</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>200</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>350</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>358</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>367</v>
       </c>
-      <c r="AA4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="AB4" t="s">
+        <v>423</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2345,29 +2439,35 @@
       <c r="AB5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="AC5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="H6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2387,11 +2487,11 @@
         <v>19</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="P6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2414,10 +2514,10 @@
         <v>19</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>19</v>
@@ -2431,17 +2531,23 @@
       <c r="AB6" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:47" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="AC6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:48" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2449,22 +2555,22 @@
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>19</v>
+        <v>412</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>19</v>
@@ -2473,10 +2579,10 @@
         <v>19</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>19</v>
@@ -2494,7 +2600,7 @@
         <v>19</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>13</v>
@@ -2503,7 +2609,7 @@
         <v>13</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>19</v>
@@ -2517,17 +2623,23 @@
       <c r="AB7" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:47" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="AC7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:48" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2541,10 +2653,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>19</v>
@@ -2603,108 +2715,120 @@
       <c r="AB8" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:47" ht="246" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="AC8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:48" ht="246" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="O9" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="R9" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="S9" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="T9" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="U9" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="V9" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="W9" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="W9" s="7" t="s">
+      <c r="X9" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="X9" s="7" t="s">
+      <c r="Y9" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="Y9" s="7" t="s">
+      <c r="Z9" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="Z9" s="7" t="s">
+      <c r="AA9" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="AA9" s="7" t="s">
-        <v>428</v>
-      </c>
       <c r="AB9" s="7" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:47" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC9" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD9" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="AE9" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="2:48" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>19</v>
@@ -2716,22 +2840,22 @@
         <v>19</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>19</v>
@@ -2775,23 +2899,29 @@
       <c r="AB10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:47" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="AC10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:48" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2802,23 +2932,23 @@
         <v>15</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="L11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="O11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2861,23 +2991,29 @@
       <c r="AB11" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:47" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="AC11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:48" ht="135" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>15</v>
       </c>
@@ -2888,23 +3024,23 @@
         <v>15</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="L12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="O12" s="2" t="s">
         <v>15</v>
       </c>
@@ -2947,17 +3083,23 @@
       <c r="AB12" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:47" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="AC12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:48" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
@@ -2970,20 +3112,20 @@
       <c r="G13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="R13" s="2" t="s">
         <v>15</v>
@@ -2994,14 +3136,14 @@
       <c r="T13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>19</v>
+      <c r="U13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Z13" s="2" t="s">
         <v>13</v>
@@ -3012,22 +3154,28 @@
       <c r="AB13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:47" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="AC13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:48" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>19</v>
@@ -3035,20 +3183,20 @@
       <c r="G14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>15</v>
+      <c r="M14" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>15</v>
@@ -3060,12 +3208,12 @@
         <v>15</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="X14" s="2" t="s">
+      <c r="W14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="Y14" s="2" t="s">
@@ -3080,19 +3228,25 @@
       <c r="AB14" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:47" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="AC14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:48" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>19</v>
@@ -3103,7 +3257,7 @@
       <c r="G15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J15" s="2" t="s">
@@ -3115,8 +3269,8 @@
       <c r="L15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>15</v>
+      <c r="M15" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>15</v>
@@ -3128,12 +3282,12 @@
         <v>15</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="V15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="X15" s="2" t="s">
+      <c r="W15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="Y15" s="2" t="s">
@@ -3148,43 +3302,49 @@
       <c r="AB15" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:47" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="AC15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:48" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="2" t="s">
-        <v>15</v>
+      <c r="M16" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>15</v>
@@ -3196,13 +3356,13 @@
         <v>15</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="Y16" s="2" t="s">
         <v>19</v>
@@ -3214,105 +3374,114 @@
         <v>19</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="225" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:31" ht="225" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="18" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="K18" s="2" t="s">
         <v>19</v>
       </c>
@@ -3323,26 +3492,26 @@
         <v>19</v>
       </c>
       <c r="N18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>255</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="R18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="T18" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="T18" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="U18" s="2" t="s">
         <v>19</v>
       </c>
@@ -3367,19 +3536,25 @@
       <c r="AB18" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="AC18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>19</v>
@@ -3390,11 +3565,11 @@
       <c r="G19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>411</v>
+      <c r="H19" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>19</v>
+        <v>410</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>19</v>
@@ -3406,26 +3581,26 @@
         <v>19</v>
       </c>
       <c r="N19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>255</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="R19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="T19" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="T19" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="U19" s="2" t="s">
         <v>19</v>
       </c>
@@ -3450,17 +3625,23 @@
       <c r="AB19" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="AC19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
@@ -3473,11 +3654,11 @@
       <c r="G20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>412</v>
+      <c r="H20" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>19</v>
+        <v>411</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>19</v>
@@ -3489,10 +3670,10 @@
         <v>19</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>19</v>
@@ -3533,52 +3714,58 @@
       <c r="AB20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="AC20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="O21" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>236</v>
@@ -3596,60 +3783,66 @@
         <v>236</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>332</v>
+        <v>236</v>
       </c>
       <c r="V21" s="2" t="s">
         <v>332</v>
       </c>
       <c r="W21" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="X21" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="X21" s="2" t="s">
+      <c r="Y21" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="Y21" s="2" t="s">
+      <c r="Z21" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="Z21" s="2" t="s">
+      <c r="AA21" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AA21" s="2" t="s">
-        <v>431</v>
-      </c>
       <c r="AB21" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC21" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="AD21" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="AE21" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>13</v>
@@ -3702,20 +3895,26 @@
       <c r="AB22" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="AC22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E23" s="2" t="s">
         <v>19</v>
       </c>
@@ -3723,10 +3922,10 @@
         <v>19</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>19</v>
@@ -3741,11 +3940,11 @@
         <v>19</v>
       </c>
       <c r="N23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="O23" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="P23" s="2" t="s">
         <v>19</v>
       </c>
@@ -3762,10 +3961,10 @@
         <v>19</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>19</v>
@@ -3785,17 +3984,23 @@
       <c r="AB23" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="AC23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D24" s="2" t="s">
         <v>19</v>
       </c>
@@ -3808,7 +4013,7 @@
       <c r="G24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J24" s="2" t="s">
@@ -3863,353 +4068,377 @@
         <v>19</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>433</v>
+        <v>19</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:31" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="3"/>
+      <c r="G25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="I25" s="2" t="s">
+      <c r="H25" s="3"/>
+      <c r="J25" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>260</v>
       </c>
       <c r="R25" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="S25" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="S25" s="3" t="s">
+      <c r="T25" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="U25" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="V25" s="2" t="s">
+      <c r="W25" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="W25" s="2" t="s">
+      <c r="X25" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="Y25" s="3" t="s">
+      <c r="Z25" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="Z25" s="3" t="s">
+      <c r="AA25" s="3" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="AD25" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="26" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="K26" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="R26" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="S26" s="3" t="s">
+      <c r="T26" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="T26" s="2" t="s">
+      <c r="U26" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="V26" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="W26" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="X26" s="3" t="s">
+      <c r="Y26" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="Z26" s="3" t="s">
+      <c r="AA26" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="AA26" s="3" t="s">
+      <c r="AB26" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="27" spans="2:31" ht="60" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="28" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB28" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="X27" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="Y27" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="AA27" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="V28" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="W28" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y28" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="Z28" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AA28" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="AB28" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="C29" s="3" t="s">
+      <c r="AC28" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="AD28" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="29" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="D29" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="I29" s="3" t="s">
+      <c r="G29" s="3"/>
+      <c r="J29" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="Z29" s="3" t="s">
+      <c r="AA29" s="3" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" t="s">
         <v>142</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>74</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="I31" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="N31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>231</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>151</v>
@@ -4223,8 +4452,8 @@
       <c r="S31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="T31" s="5" t="s">
-        <v>231</v>
+      <c r="T31" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="U31" s="5" t="s">
         <v>231</v>
@@ -4233,566 +4462,641 @@
         <v>231</v>
       </c>
       <c r="W31" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="X31" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="X31" s="2" t="s">
+      <c r="Y31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>142</v>
       </c>
-      <c r="Z31" s="2" t="s">
+      <c r="AA31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AA31" s="2" t="s">
+      <c r="AB31" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="AD31" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE31" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="14">
+      <c r="D32" s="14">
         <v>44222</v>
       </c>
-      <c r="D32" s="14">
+      <c r="E32" s="14">
         <v>42737</v>
       </c>
-      <c r="E32" s="15">
+      <c r="F32" s="15">
         <v>41862</v>
       </c>
-      <c r="F32" s="15">
+      <c r="G32" s="15">
         <v>41193</v>
       </c>
-      <c r="G32" s="15">
+      <c r="H32" s="15">
         <v>43217</v>
       </c>
-      <c r="H32" s="15">
+      <c r="I32" s="15">
         <v>42836</v>
       </c>
-      <c r="I32" s="15">
+      <c r="J32" s="15">
         <v>42248</v>
       </c>
-      <c r="J32" s="15">
+      <c r="K32" s="15">
         <v>42908</v>
       </c>
-      <c r="K32" s="15">
+      <c r="L32" s="15">
         <v>42454</v>
       </c>
-      <c r="L32" s="15">
+      <c r="M32" s="15">
         <v>41538</v>
       </c>
-      <c r="M32" s="15">
+      <c r="N32" s="15">
         <v>41518</v>
       </c>
-      <c r="N32" s="15">
+      <c r="O32" s="15">
         <v>41380</v>
       </c>
-      <c r="O32" s="15">
+      <c r="P32" s="15">
         <v>40604</v>
       </c>
-      <c r="P32" s="15">
+      <c r="Q32" s="15">
         <v>42441</v>
       </c>
-      <c r="Q32" s="15">
+      <c r="R32" s="15">
         <v>43014</v>
       </c>
-      <c r="R32" s="15">
+      <c r="S32" s="15">
         <v>40574</v>
       </c>
-      <c r="S32" s="15">
+      <c r="T32" s="15">
         <v>42734</v>
       </c>
-      <c r="T32" s="14">
+      <c r="U32" s="14">
         <v>42646</v>
       </c>
-      <c r="U32" s="14">
+      <c r="V32" s="14">
         <v>42430</v>
       </c>
-      <c r="V32" s="14">
+      <c r="W32" s="14">
         <v>43196</v>
       </c>
-      <c r="W32" s="14">
+      <c r="X32" s="14">
         <v>42441</v>
       </c>
-      <c r="X32" s="14">
+      <c r="Y32" s="14">
         <v>42410</v>
       </c>
-      <c r="Y32" s="14">
+      <c r="Z32" s="14">
         <v>37819</v>
       </c>
-      <c r="Z32" s="14">
+      <c r="AA32" s="14">
         <v>41058</v>
       </c>
-      <c r="AA32" s="14">
+      <c r="AB32" s="14">
         <v>42734</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="AC32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD32" s="14">
+        <v>43231</v>
+      </c>
+      <c r="AE32" s="14">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="14">
+      <c r="D33" s="14">
         <v>44442</v>
       </c>
-      <c r="D33" s="15">
+      <c r="E33" s="15">
         <v>44179</v>
       </c>
-      <c r="E33" s="15">
+      <c r="F33" s="15">
         <v>44405</v>
       </c>
-      <c r="F33" s="15">
+      <c r="G33" s="15">
         <v>44399</v>
       </c>
-      <c r="G33" s="15">
+      <c r="H33" s="15">
         <v>44441</v>
       </c>
-      <c r="H33" s="15">
+      <c r="I33" s="15">
         <v>43468</v>
       </c>
-      <c r="I33" s="15">
+      <c r="J33" s="15">
         <v>44476</v>
       </c>
-      <c r="J33" s="15">
+      <c r="K33" s="15">
         <v>42908</v>
       </c>
-      <c r="K33" s="15">
+      <c r="L33" s="15">
         <v>42454</v>
       </c>
-      <c r="L33" s="15">
+      <c r="M33" s="15">
         <v>41538</v>
       </c>
-      <c r="M33" s="15">
+      <c r="N33" s="15">
         <v>42606</v>
       </c>
-      <c r="N33" s="15">
+      <c r="O33" s="15">
         <v>42112</v>
       </c>
-      <c r="O33" s="15">
+      <c r="P33" s="15">
         <v>42200</v>
       </c>
-      <c r="P33" s="15">
+      <c r="Q33" s="15">
         <v>44284</v>
       </c>
-      <c r="Q33" s="15">
+      <c r="R33" s="15">
         <v>44463</v>
       </c>
-      <c r="R33" s="15">
+      <c r="S33" s="15">
         <v>43282</v>
       </c>
-      <c r="S33" s="15">
+      <c r="T33" s="15">
         <v>44319</v>
       </c>
-      <c r="T33" s="14">
+      <c r="U33" s="14">
         <v>44201</v>
       </c>
-      <c r="U33" s="14">
+      <c r="V33" s="14">
         <v>44180</v>
       </c>
-      <c r="V33" s="14">
+      <c r="W33" s="14">
         <v>44352</v>
       </c>
-      <c r="W33" s="14">
+      <c r="X33" s="14">
         <v>43357</v>
       </c>
-      <c r="X33" s="14">
+      <c r="Y33" s="14">
         <v>42410</v>
       </c>
-      <c r="Y33" s="14">
+      <c r="Z33" s="14">
         <v>44476</v>
       </c>
-      <c r="Z33" s="14">
+      <c r="AA33" s="14">
         <v>44044</v>
       </c>
-      <c r="AA33" s="14">
+      <c r="AB33" s="14">
         <v>44351</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="AC33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD33" s="14">
+        <v>44171</v>
+      </c>
+      <c r="AE33" s="14">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="E34" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>119</v>
       </c>
       <c r="M34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N34" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="N34" s="2" t="s">
+      <c r="O34" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="P34" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="P34" s="2" t="s">
+      <c r="Q34" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="R34" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="R34" s="2" t="s">
+      <c r="S34" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="S34" s="2" t="s">
+      <c r="T34" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="T34" s="2" t="s">
+      <c r="U34" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="U34" s="5" t="s">
+      <c r="V34" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>326</v>
       </c>
-      <c r="W34" s="2">
+      <c r="X34" s="2">
         <v>1.2</v>
       </c>
-      <c r="X34" s="2">
+      <c r="Y34" s="2">
         <v>0.1</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>359</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>370</v>
       </c>
-      <c r="AA34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="AB34" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD34" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="H36" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z36" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC36" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD36" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE36" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" ht="75" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="I37" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z37" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB42" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>2</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA43" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="AB43" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AC43" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD43" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>3</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA44" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA45" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="U36" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y36" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB36" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="H37" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="V37" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="X37" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y37" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="AB37" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C39" s="9"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="AA42" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="Z43" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="AA43" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="AB43" s="2" t="s">
+      <c r="J47" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="W47" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z47" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA47" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC47" s="2" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z44" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="V45" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="Z45" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="V46" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="V47" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y47" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="Z47" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="AB47" s="2" t="s">
+      <c r="AE47" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>7</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>8</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="W50" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z50" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC50" s="2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D50" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="V50" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="Y50" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="AB50" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="D51" s="2" t="s">
+      <c r="AE50" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="E51" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="D52" s="2" t="s">
+    <row r="52" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="E52" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="I53" s="2" t="s">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="J53" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B54" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>9</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>125</v>
@@ -4801,387 +5105,512 @@
         <v>125</v>
       </c>
       <c r="G55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="L55" s="2" t="s">
+      <c r="K55" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="U55" s="2" t="s">
+      <c r="V55" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="V55" s="2" t="s">
+      <c r="W55" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="Y55" s="2" t="s">
+      <c r="Z55" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="Z55" s="2" t="s">
+      <c r="AA55" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="AA55" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="AB55" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC55" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE55" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>10</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>11</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>12</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>13</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="K59" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B61" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>14</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>15</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="J63" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>16</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>17</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>18</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="67" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>19</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="J67" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>20</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>21</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>22</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="I71" s="2" t="s">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="J71" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B73" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>23</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="V74" s="2" t="s">
+      <c r="K74" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="W74" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="AB74" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="AC74" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>449</v>
+      </c>
+      <c r="AE74" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>24</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>25</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>26</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="U77" s="2" t="s">
-        <v>415</v>
+      <c r="F77" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="V77" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="W77" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="AD77" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="AE77" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>27</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>28</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>29</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="U80" s="2" t="s">
+      <c r="H80" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="V80" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="AD80" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE80" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>30</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="U81" s="2" t="s">
+      <c r="H81" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="V81" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="AD81" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE81" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>31</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="H82" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="AD82" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE82" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>32</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>33</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    <row r="85" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>34</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C28" r:id="rId1"/>
-    <hyperlink ref="C27" r:id="rId2"/>
-    <hyperlink ref="C26" r:id="rId3"/>
-    <hyperlink ref="C29" r:id="rId4"/>
-    <hyperlink ref="D27" r:id="rId5"/>
-    <hyperlink ref="D28" r:id="rId6"/>
-    <hyperlink ref="E28" r:id="rId7"/>
-    <hyperlink ref="E29" r:id="rId8"/>
-    <hyperlink ref="E27" r:id="rId9"/>
-    <hyperlink ref="F27" r:id="rId10"/>
-    <hyperlink ref="F28" r:id="rId11"/>
-    <hyperlink ref="F26" r:id="rId12"/>
-    <hyperlink ref="D26" r:id="rId13"/>
-    <hyperlink ref="E26" r:id="rId14"/>
-    <hyperlink ref="G26" r:id="rId15"/>
-    <hyperlink ref="I26" r:id="rId16"/>
-    <hyperlink ref="I27" r:id="rId17"/>
-    <hyperlink ref="I28" r:id="rId18"/>
-    <hyperlink ref="I29" r:id="rId19"/>
-    <hyperlink ref="J26" r:id="rId20"/>
-    <hyperlink ref="J27" r:id="rId21"/>
-    <hyperlink ref="J28" r:id="rId22"/>
-    <hyperlink ref="K26" r:id="rId23"/>
-    <hyperlink ref="K27" r:id="rId24"/>
-    <hyperlink ref="K28" r:id="rId25"/>
-    <hyperlink ref="L26" r:id="rId26"/>
-    <hyperlink ref="L28" r:id="rId27"/>
-    <hyperlink ref="M26" r:id="rId28"/>
-    <hyperlink ref="H26" r:id="rId29"/>
-    <hyperlink ref="H27" r:id="rId30"/>
-    <hyperlink ref="H28" r:id="rId31"/>
-    <hyperlink ref="N28" r:id="rId32"/>
-    <hyperlink ref="N26" r:id="rId33"/>
-    <hyperlink ref="O28" r:id="rId34"/>
-    <hyperlink ref="P26" r:id="rId35"/>
-    <hyperlink ref="P28" r:id="rId36"/>
-    <hyperlink ref="Q28" r:id="rId37"/>
-    <hyperlink ref="Q26" r:id="rId38"/>
-    <hyperlink ref="Q27" r:id="rId39"/>
-    <hyperlink ref="R26" r:id="rId40"/>
-    <hyperlink ref="R28" r:id="rId41"/>
-    <hyperlink ref="S26" r:id="rId42"/>
-    <hyperlink ref="S28" r:id="rId43"/>
-    <hyperlink ref="S25" r:id="rId44"/>
-    <hyperlink ref="T28" r:id="rId45"/>
-    <hyperlink ref="T27" r:id="rId46"/>
-    <hyperlink ref="T25" r:id="rId47"/>
-    <hyperlink ref="U26" r:id="rId48"/>
-    <hyperlink ref="U28" r:id="rId49"/>
-    <hyperlink ref="U27" r:id="rId50"/>
-    <hyperlink ref="V26" r:id="rId51"/>
-    <hyperlink ref="V28" r:id="rId52"/>
-    <hyperlink ref="V27" r:id="rId53"/>
-    <hyperlink ref="W28" r:id="rId54"/>
-    <hyperlink ref="W29" r:id="rId55"/>
-    <hyperlink ref="W27" r:id="rId56"/>
-    <hyperlink ref="X27" r:id="rId57"/>
-    <hyperlink ref="X26" r:id="rId58"/>
-    <hyperlink ref="Y28" r:id="rId59"/>
-    <hyperlink ref="Y27" r:id="rId60"/>
-    <hyperlink ref="Y25" r:id="rId61"/>
-    <hyperlink ref="Z25" r:id="rId62"/>
-    <hyperlink ref="Z28" r:id="rId63"/>
-    <hyperlink ref="Z26" r:id="rId64"/>
-    <hyperlink ref="Z29" r:id="rId65"/>
-    <hyperlink ref="AA26" r:id="rId66"/>
-    <hyperlink ref="AA28" r:id="rId67"/>
-    <hyperlink ref="AA27" r:id="rId68"/>
-    <hyperlink ref="AA42" r:id="rId69" display="https://mayoverse.github.io/arsenal/reference/comparedf.html"/>
-    <hyperlink ref="AA43" r:id="rId70" display="https://mayoverse.github.io/arsenal/reference/comparedf.html"/>
-    <hyperlink ref="AB28" r:id="rId71"/>
-    <hyperlink ref="AB26" r:id="rId72"/>
+    <hyperlink ref="D28" r:id="rId1"/>
+    <hyperlink ref="D27" r:id="rId2"/>
+    <hyperlink ref="D26" r:id="rId3"/>
+    <hyperlink ref="D29" r:id="rId4"/>
+    <hyperlink ref="E27" r:id="rId5"/>
+    <hyperlink ref="E28" r:id="rId6"/>
+    <hyperlink ref="F28" r:id="rId7"/>
+    <hyperlink ref="F29" r:id="rId8"/>
+    <hyperlink ref="F27" r:id="rId9"/>
+    <hyperlink ref="G27" r:id="rId10"/>
+    <hyperlink ref="G28" r:id="rId11"/>
+    <hyperlink ref="G26" r:id="rId12"/>
+    <hyperlink ref="E26" r:id="rId13"/>
+    <hyperlink ref="F26" r:id="rId14"/>
+    <hyperlink ref="H26" r:id="rId15"/>
+    <hyperlink ref="J26" r:id="rId16"/>
+    <hyperlink ref="J27" r:id="rId17"/>
+    <hyperlink ref="J28" r:id="rId18"/>
+    <hyperlink ref="J29" r:id="rId19"/>
+    <hyperlink ref="K26" r:id="rId20"/>
+    <hyperlink ref="K27" r:id="rId21"/>
+    <hyperlink ref="K28" r:id="rId22"/>
+    <hyperlink ref="L26" r:id="rId23"/>
+    <hyperlink ref="L27" r:id="rId24"/>
+    <hyperlink ref="L28" r:id="rId25"/>
+    <hyperlink ref="M26" r:id="rId26"/>
+    <hyperlink ref="M28" r:id="rId27"/>
+    <hyperlink ref="N26" r:id="rId28"/>
+    <hyperlink ref="I26" r:id="rId29"/>
+    <hyperlink ref="I27" r:id="rId30"/>
+    <hyperlink ref="I28" r:id="rId31"/>
+    <hyperlink ref="O28" r:id="rId32"/>
+    <hyperlink ref="O26" r:id="rId33"/>
+    <hyperlink ref="P28" r:id="rId34"/>
+    <hyperlink ref="Q26" r:id="rId35"/>
+    <hyperlink ref="Q28" r:id="rId36"/>
+    <hyperlink ref="R28" r:id="rId37"/>
+    <hyperlink ref="R26" r:id="rId38"/>
+    <hyperlink ref="R27" r:id="rId39"/>
+    <hyperlink ref="S26" r:id="rId40"/>
+    <hyperlink ref="S28" r:id="rId41"/>
+    <hyperlink ref="T26" r:id="rId42"/>
+    <hyperlink ref="T28" r:id="rId43"/>
+    <hyperlink ref="T25" r:id="rId44"/>
+    <hyperlink ref="U28" r:id="rId45"/>
+    <hyperlink ref="U27" r:id="rId46"/>
+    <hyperlink ref="U25" r:id="rId47"/>
+    <hyperlink ref="V26" r:id="rId48"/>
+    <hyperlink ref="V28" r:id="rId49"/>
+    <hyperlink ref="V27" r:id="rId50"/>
+    <hyperlink ref="W26" r:id="rId51"/>
+    <hyperlink ref="W28" r:id="rId52"/>
+    <hyperlink ref="W27" r:id="rId53"/>
+    <hyperlink ref="X28" r:id="rId54"/>
+    <hyperlink ref="X29" r:id="rId55"/>
+    <hyperlink ref="X27" r:id="rId56"/>
+    <hyperlink ref="Y27" r:id="rId57"/>
+    <hyperlink ref="Y26" r:id="rId58"/>
+    <hyperlink ref="Z28" r:id="rId59"/>
+    <hyperlink ref="Z27" r:id="rId60"/>
+    <hyperlink ref="Z25" r:id="rId61"/>
+    <hyperlink ref="AA25" r:id="rId62"/>
+    <hyperlink ref="AA28" r:id="rId63"/>
+    <hyperlink ref="AA26" r:id="rId64"/>
+    <hyperlink ref="AA29" r:id="rId65"/>
+    <hyperlink ref="AB26" r:id="rId66"/>
+    <hyperlink ref="AB28" r:id="rId67"/>
+    <hyperlink ref="AB27" r:id="rId68"/>
+    <hyperlink ref="AB42" r:id="rId69" display="https://mayoverse.github.io/arsenal/reference/comparedf.html"/>
+    <hyperlink ref="AB43" r:id="rId70" display="https://mayoverse.github.io/arsenal/reference/comparedf.html"/>
+    <hyperlink ref="AC28" r:id="rId71"/>
+    <hyperlink ref="AC26" r:id="rId72"/>
+    <hyperlink ref="AD27" r:id="rId73"/>
+    <hyperlink ref="AD28" r:id="rId74"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId73"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId75"/>
 </worksheet>
 </file>
--- a/Data quality revision R overview v01.xlsx
+++ b/Data quality revision R overview v01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="486">
   <si>
     <t>Acronym (falls vorhanden)</t>
   </si>
@@ -1488,6 +1488,57 @@
   <si>
     <t>mean, min, med, max, quartiles, outliers, normality test</t>
   </si>
+  <si>
+    <t>funModeling</t>
+  </si>
+  <si>
+    <t>1.9.4</t>
+  </si>
+  <si>
+    <t>≥ 3.4.0</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=funModeling</t>
+  </si>
+  <si>
+    <t>https://github.com/pablo14/funModeling</t>
+  </si>
+  <si>
+    <t>http://pablo14.github.io/funModeling/</t>
+  </si>
+  <si>
+    <t>This package contains a set of functions related to exploratory data analysis, data preparation, and model performance. funModeling is intimately related to the Data Science Live Book -Open Source- (2017) (&lt;https://livebook.datascienceheroes.com/&gt;) in the sense that most of its functionality is used to explain different topics addressed by the book.</t>
+  </si>
+  <si>
+    <t>Data summary/overview</t>
+  </si>
+  <si>
+    <t>Variables by type (data_integrity)</t>
+  </si>
+  <si>
+    <t>Uniques</t>
+  </si>
+  <si>
+    <t>Cardinality</t>
+  </si>
+  <si>
+    <t>correlation_table, var_rank_info, cross_plot</t>
+  </si>
+  <si>
+    <t>Data preparation: discretization, convert numeric variables to categoric, numeric variable to categoric, Variable discretization based on gain ratio maximization, Scales variable into the 0 to 1 range. Remove outliers.</t>
+  </si>
+  <si>
+    <t>compare_df</t>
+  </si>
+  <si>
+    <t>zeros, infinite numbers</t>
+  </si>
+  <si>
+    <t>mean, sd, variation coef, percentiles, range. frequency distributions for categoric variables. Boxplot and density histogram between input and target variables. Quantitative analysis for binary outcome. Predictive model performance: Gain and lift performance curve, Coordinate plot (clustering models). Check data integrity according to specific model (xgboost, random forest, regression, etc).</t>
+  </si>
+  <si>
+    <t>R objects, jpg</t>
+  </si>
 </sst>
 </file>
 
@@ -1496,7 +1547,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1544,6 +1595,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1572,7 +1628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1612,6 +1668,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1894,16 +1953,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV85"/>
+  <dimension ref="A1:AV86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="X32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="AE27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X36" sqref="X36"/>
+      <selection pane="bottomRight" activeCell="AF29" sqref="AF29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" style="2"/>
     <col min="2" max="2" width="29.140625" style="2" customWidth="1"/>
@@ -1935,10 +1994,11 @@
     <col min="29" max="29" width="32.7109375" style="2" customWidth="1"/>
     <col min="30" max="30" width="32.5703125" style="2" customWidth="1"/>
     <col min="31" max="31" width="37.28515625" style="2" customWidth="1"/>
-    <col min="32" max="16384" width="11" style="2"/>
+    <col min="32" max="32" width="38.42578125" style="2" customWidth="1"/>
+    <col min="33" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:48" s="4" customFormat="1">
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
@@ -2081,7 +2141,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="2:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:48">
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
@@ -2172,8 +2232,11 @@
       <c r="AE2" s="2" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="3" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AF2" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3" spans="2:48">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2264,8 +2327,11 @@
       <c r="AE3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AF3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:48">
       <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
@@ -2356,8 +2422,11 @@
       <c r="AE4" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AF4" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="5" spans="2:48">
       <c r="B5" s="8" t="s">
         <v>77</v>
       </c>
@@ -2448,8 +2517,11 @@
       <c r="AE5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AF5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:48">
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2540,8 +2612,11 @@
       <c r="AE6" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="2:48" ht="45" x14ac:dyDescent="0.25">
+      <c r="AF6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:48" ht="45">
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -2632,8 +2707,11 @@
       <c r="AE7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:48" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:48" ht="30">
       <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
@@ -2724,8 +2802,11 @@
       <c r="AE8" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="2:48" ht="246" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:48" ht="246" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2897,11 @@
       <c r="AE9" s="7" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="10" spans="2:48" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF9" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="2:48" ht="30">
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
@@ -2908,8 +2992,11 @@
       <c r="AE10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="2:48" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:48" ht="30">
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
@@ -3000,8 +3087,11 @@
       <c r="AE11" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="2:48" ht="135" x14ac:dyDescent="0.25">
+      <c r="AF11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:48" ht="135">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -3092,8 +3182,11 @@
       <c r="AE12" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="2:48" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:48" ht="29.25" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
@@ -3163,8 +3256,11 @@
       <c r="AE13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="2:48" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:48" ht="30">
       <c r="B14" s="2" t="s">
         <v>45</v>
       </c>
@@ -3237,8 +3333,11 @@
       <c r="AE14" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="2:48" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:48" ht="30">
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
@@ -3311,8 +3410,11 @@
       <c r="AE15" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="2:48" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:48" ht="27.6" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -3385,8 +3487,11 @@
       <c r="AE16" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:31" ht="225" x14ac:dyDescent="0.25">
+      <c r="AF16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32" ht="225">
       <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
@@ -3456,8 +3561,11 @@
       <c r="AE17" s="2" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="18" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF17" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32" ht="30">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -3545,8 +3653,11 @@
       <c r="AE18" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="AF18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32" ht="45">
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
@@ -3634,8 +3745,11 @@
       <c r="AE19" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:32" ht="30">
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
@@ -3723,8 +3837,11 @@
       <c r="AE20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32">
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
@@ -3815,8 +3932,11 @@
       <c r="AE21" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="22" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF21" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="22" spans="2:32" ht="30">
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
@@ -3904,8 +4024,11 @@
       <c r="AE22" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:32">
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
@@ -3993,8 +4116,11 @@
       <c r="AE23" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="AF23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32" ht="30">
       <c r="B24" s="2" t="s">
         <v>39</v>
       </c>
@@ -4082,8 +4208,11 @@
       <c r="AE24" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="2:31" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32" ht="90" customHeight="1">
       <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
@@ -4143,8 +4272,11 @@
       <c r="AE25" s="2" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="26" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="AF25" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="26" spans="2:32" ht="45">
       <c r="B26" s="2" t="s">
         <v>137</v>
       </c>
@@ -4224,7 +4356,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="27" spans="2:31" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:32" ht="60">
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
@@ -4288,8 +4420,11 @@
       <c r="AE27" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="28" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="AF27" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32" ht="45">
       <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
@@ -4374,8 +4509,11 @@
       <c r="AE28" s="2" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="29" spans="2:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="AF28" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32" ht="45">
       <c r="D29" s="3" t="s">
         <v>140</v>
       </c>
@@ -4394,10 +4532,10 @@
         <v>375</v>
       </c>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:32">
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="2:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:32" ht="30">
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
@@ -4485,8 +4623,11 @@
       <c r="AE31" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AF31" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32">
       <c r="B32" s="8" t="s">
         <v>78</v>
       </c>
@@ -4578,7 +4719,7 @@
         <v>43601</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32">
       <c r="B33" s="8" t="s">
         <v>118</v>
       </c>
@@ -4669,8 +4810,11 @@
       <c r="AE33" s="14">
         <v>44351</v>
       </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF33" s="13">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32">
       <c r="B34" s="2" t="s">
         <v>117</v>
       </c>
@@ -4761,711 +4905,729 @@
       <c r="AE34" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="36" spans="1:31" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+      <c r="AF34" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32">
+      <c r="B36" t="s">
+        <v>476</v>
+      </c>
+      <c r="AF36" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" ht="126" customHeight="1">
+      <c r="B37" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H37" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="V36" s="2" t="s">
+      <c r="V37" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="W36" s="2" t="s">
+      <c r="W37" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="Z36" s="2" t="s">
+      <c r="Z37" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AC36" s="2" t="s">
+      <c r="AC37" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="AD36" s="2" t="s">
+      <c r="AD37" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="AE36" s="2" t="s">
+      <c r="AE37" s="2" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="37" spans="1:31" ht="75" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+      <c r="AF37" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" ht="75">
+      <c r="B38" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="I37" s="2" t="s">
+      <c r="F38" s="6"/>
+      <c r="I38" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L38" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="M38" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="N38" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="O38" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="P38" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="Q38" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="R37" s="2" t="s">
+      <c r="R38" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="S37" s="2" t="s">
+      <c r="S38" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="T37" s="2" t="s">
+      <c r="T38" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="U37" s="2" t="s">
+      <c r="U38" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="W37" s="2" t="s">
+      <c r="W38" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="X37" s="2" t="s">
+      <c r="X38" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="Y37" s="2" t="s">
+      <c r="Y38" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="Z37" s="2" t="s">
+      <c r="Z38" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AC37" s="2" t="s">
+      <c r="AC38" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+    <row r="40" spans="1:32">
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:32">
+      <c r="B41" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
+    <row r="42" spans="1:32">
+      <c r="B42" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="43" spans="1:32">
+      <c r="A43" s="2">
         <v>1</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="AB42" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>2</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="AA43" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="AB43" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="AC43" s="2" t="s">
+      <c r="AF43" s="16" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32">
+      <c r="A44" s="2">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA44" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="AB44" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AC44" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="AD43" s="2" t="s">
+      <c r="AD44" s="2" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="AF44" s="16" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32">
+      <c r="A45" s="2">
         <v>3</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="U44" s="2" t="s">
+      <c r="U45" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="AA44" s="2" t="s">
+      <c r="AA45" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="46" spans="1:32">
+      <c r="A46" s="2">
         <v>4</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="W45" s="2" t="s">
+      <c r="W46" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="AA45" s="2" t="s">
+      <c r="AA46" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="47" spans="1:32">
+      <c r="A47" s="2">
         <v>5</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W46" s="2" t="s">
+      <c r="W47" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+    <row r="48" spans="1:32">
+      <c r="A48" s="2">
         <v>6</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="W47" s="2" t="s">
+      <c r="W48" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="Z47" s="2" t="s">
+      <c r="Z48" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="AA47" s="2" t="s">
+      <c r="AA48" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="AC47" s="2" t="s">
+      <c r="AC48" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="AE47" s="2" t="s">
+      <c r="AE48" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="48" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="AF48" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" ht="30">
+      <c r="A49" s="2">
         <v>7</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="50" spans="1:32">
+      <c r="A50" s="2">
         <v>8</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="E50" s="2" t="s">
+    <row r="51" spans="1:32">
+      <c r="E51" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="M50" s="2" t="s">
+      <c r="M51" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="W50" s="2" t="s">
+      <c r="W51" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="Z50" s="2" t="s">
+      <c r="Z51" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="AC50" s="2" t="s">
+      <c r="AC51" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="AE50" s="2" t="s">
+      <c r="AE51" s="2" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="51" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="E51" s="2" t="s">
+      <c r="AF51" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" ht="30">
+      <c r="E52" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="52" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="E52" s="2" t="s">
+      <c r="AF52" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" ht="30">
+      <c r="E53" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="J53" s="2" t="s">
+      <c r="AF53" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32">
+      <c r="J54" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B54" s="11" t="s">
+    <row r="55" spans="1:32">
+      <c r="B55" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+    <row r="56" spans="1:32" ht="30">
+      <c r="A56" s="2">
         <v>9</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="M55" s="2" t="s">
+      <c r="M56" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="V55" s="2" t="s">
+      <c r="V56" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="W55" s="2" t="s">
+      <c r="W56" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="Z55" s="2" t="s">
+      <c r="Z56" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AA55" s="2" t="s">
+      <c r="AA56" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="AB55" s="2" t="s">
+      <c r="AB56" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="AC55" s="2" t="s">
+      <c r="AC56" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="AE55" s="2" t="s">
+      <c r="AE56" s="2" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="AF56" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32">
+      <c r="A57" s="2">
         <v>10</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+    <row r="58" spans="1:32">
+      <c r="A58" s="2">
         <v>11</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+    <row r="59" spans="1:32">
+      <c r="A59" s="2">
         <v>12</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>13</v>
-      </c>
-      <c r="B59" s="2" t="s">
+    <row r="60" spans="1:32" ht="30">
+      <c r="A60" s="2">
+        <v>13</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K60" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B61" s="11" t="s">
+    <row r="62" spans="1:32">
+      <c r="B62" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+    <row r="63" spans="1:32" ht="30">
+      <c r="A63" s="2">
         <v>14</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J63" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>15</v>
-      </c>
-      <c r="B63" s="2" t="s">
+    <row r="64" spans="1:32">
+      <c r="A64" s="2">
+        <v>15</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+    <row r="65" spans="1:32" ht="30">
+      <c r="A65" s="2">
         <v>16</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J65" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+    <row r="66" spans="1:32" ht="30">
+      <c r="A66" s="2">
         <v>17</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+    <row r="67" spans="1:32">
+      <c r="A67" s="2">
         <v>18</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>19</v>
-      </c>
-      <c r="B67" s="2" t="s">
+    <row r="68" spans="1:32" ht="30">
+      <c r="A68" s="2">
+        <v>19</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+    <row r="69" spans="1:32">
+      <c r="A69" s="2">
         <v>20</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+    <row r="70" spans="1:32" ht="30">
+      <c r="A70" s="2">
         <v>21</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+    <row r="71" spans="1:32">
+      <c r="A71" s="2">
         <v>22</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="J71" s="2" t="s">
+    <row r="72" spans="1:32">
+      <c r="J72" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B73" s="11" t="s">
+    <row r="74" spans="1:32">
+      <c r="B74" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+    <row r="75" spans="1:32">
+      <c r="A75" s="2">
         <v>23</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K75" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="W74" s="2" t="s">
+      <c r="W75" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="AC74" s="2" t="s">
+      <c r="AC75" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="AD74" t="s">
+      <c r="AD75" t="s">
         <v>449</v>
       </c>
-      <c r="AE74" s="2" t="s">
+      <c r="AE75" s="2" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+      <c r="AF75" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32">
+      <c r="A76" s="2">
         <v>24</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+    <row r="77" spans="1:32">
+      <c r="A77" s="2">
         <v>25</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+    <row r="78" spans="1:32">
+      <c r="A78" s="2">
         <v>26</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="K78" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="V77" s="2" t="s">
+      <c r="V78" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="W77" s="2" t="s">
+      <c r="W78" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="AD77" s="2" t="s">
+      <c r="AD78" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="AE77" s="2" t="s">
+      <c r="AE78" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+      <c r="AF78" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32">
+      <c r="A79" s="2">
         <v>27</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+    <row r="80" spans="1:32">
+      <c r="A80" s="2">
         <v>28</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+    <row r="81" spans="1:32" ht="18" customHeight="1">
+      <c r="A81" s="2">
         <v>29</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="V80" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="AD80" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="AE80" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="81" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>30</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>467</v>
@@ -5479,57 +5641,86 @@
       <c r="AE81" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF81" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" ht="16.5" customHeight="1">
       <c r="A82" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>467</v>
       </c>
+      <c r="V82" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="AD82" s="2" t="s">
         <v>450</v>
       </c>
       <c r="AE82" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF82" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32">
       <c r="A83" s="2">
+        <v>31</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="AD83" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE83" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32">
+      <c r="A84" s="2">
         <v>32</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+    <row r="85" spans="1:32">
+      <c r="A85" s="2">
         <v>33</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+    <row r="86" spans="1:32" ht="30">
+      <c r="A86" s="2">
         <v>34</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5603,8 +5794,8 @@
     <hyperlink ref="AB26" r:id="rId66"/>
     <hyperlink ref="AB28" r:id="rId67"/>
     <hyperlink ref="AB27" r:id="rId68"/>
-    <hyperlink ref="AB42" r:id="rId69" display="https://mayoverse.github.io/arsenal/reference/comparedf.html"/>
-    <hyperlink ref="AB43" r:id="rId70" display="https://mayoverse.github.io/arsenal/reference/comparedf.html"/>
+    <hyperlink ref="AB43" r:id="rId69" display="https://mayoverse.github.io/arsenal/reference/comparedf.html"/>
+    <hyperlink ref="AB44" r:id="rId70" display="https://mayoverse.github.io/arsenal/reference/comparedf.html"/>
     <hyperlink ref="AC28" r:id="rId71"/>
     <hyperlink ref="AC26" r:id="rId72"/>
     <hyperlink ref="AD27" r:id="rId73"/>

--- a/Data quality revision R overview v01.xlsx
+++ b/Data quality revision R overview v01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="2670" tabRatio="169"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="2676" tabRatio="169"/>
   </bookViews>
   <sheets>
     <sheet name="Tools" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="507">
   <si>
     <t>Acronym (falls vorhanden)</t>
   </si>
@@ -1538,6 +1538,73 @@
   </si>
   <si>
     <t>R objects, jpg</t>
+  </si>
+  <si>
+    <t>inspectdf</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=inspectdf</t>
+  </si>
+  <si>
+    <t>0.0.11</t>
+  </si>
+  <si>
+    <t>https://alastairrushworth.github.io/inspectdf/</t>
+  </si>
+  <si>
+    <t>https://github.com/alastairrushworth/inspectdf/</t>
+  </si>
+  <si>
+    <t>inspect_types</t>
+  </si>
+  <si>
+    <t>Number of columns</t>
+  </si>
+  <si>
+    <t>Memory usage per column. Comparison across dataframes for all features.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min, q1, mean, median,q3, max, sd, histogram </t>
+  </si>
+  <si>
+    <t>inspect_cor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A collection of utilities for columnwise summary, comparison and visualisation of data frames. Functions report missingness, categorical levels, numeric distribution, correlation, column types and memory usage. The package has three aims:
+    to speed up repetitive checking and exploratory tasks for data frames
+    to make it easier to compare data frames for differences and inconsistencies
+    to support quick visualisation of data frames
+</t>
+  </si>
+  <si>
+    <t>visdat</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=visdat</t>
+  </si>
+  <si>
+    <t>≥ 3.2.2</t>
+  </si>
+  <si>
+    <t>https://github.com/ropensci/visdat</t>
+  </si>
+  <si>
+    <t>https://docs.ropensci.org/visdat/</t>
+  </si>
+  <si>
+    <t>Create preliminary exploratory data visualisations of an entire dataset to identify problems or unexpected features using 'ggplot2'.</t>
+  </si>
+  <si>
+    <t>No of variables</t>
+  </si>
+  <si>
+    <t>No of observations</t>
+  </si>
+  <si>
+    <t>vis_cor</t>
+  </si>
+  <si>
+    <t>Compare datasets of the same size. Visualise the values of the data on a 0 to 1 scale, or binary values</t>
   </si>
 </sst>
 </file>
@@ -1956,46 +2023,48 @@
   <dimension ref="A1:AV86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AE27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AG3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF29" sqref="AF29"/>
+      <selection pane="bottomRight" activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11" style="2"/>
-    <col min="2" max="2" width="29.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="47" style="2" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="46.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.5703125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="38.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="46.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.5546875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="38.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="42" style="2" customWidth="1"/>
-    <col min="11" max="11" width="40.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="32.42578125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="33.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="34.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="38.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="32.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="31.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="32.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="36.42578125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="33.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="40.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="32.44140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="33.6640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="34.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="38.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="32.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="31.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="32.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="36.44140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="33.33203125" style="2" customWidth="1"/>
     <col min="21" max="21" width="34" style="2" customWidth="1"/>
-    <col min="22" max="22" width="33.28515625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="38.7109375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="34.42578125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="33.33203125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="38.6640625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="34.44140625" style="2" customWidth="1"/>
     <col min="25" max="25" width="33" style="2" customWidth="1"/>
-    <col min="26" max="26" width="33.85546875" style="2" customWidth="1"/>
-    <col min="27" max="27" width="32.85546875" style="2" customWidth="1"/>
-    <col min="28" max="28" width="36.42578125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="32.7109375" style="2" customWidth="1"/>
-    <col min="30" max="30" width="32.5703125" style="2" customWidth="1"/>
-    <col min="31" max="31" width="37.28515625" style="2" customWidth="1"/>
-    <col min="32" max="32" width="38.42578125" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="11" style="2"/>
+    <col min="26" max="26" width="33.88671875" style="2" customWidth="1"/>
+    <col min="27" max="27" width="32.88671875" style="2" customWidth="1"/>
+    <col min="28" max="28" width="36.44140625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="32.6640625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="32.5546875" style="2" customWidth="1"/>
+    <col min="31" max="31" width="37.33203125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="38.44140625" style="2" customWidth="1"/>
+    <col min="33" max="33" width="33.109375" style="2" customWidth="1"/>
+    <col min="34" max="34" width="32.88671875" style="2" customWidth="1"/>
+    <col min="35" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:48" s="4" customFormat="1">
@@ -2235,6 +2304,12 @@
       <c r="AF2" s="2" t="s">
         <v>469</v>
       </c>
+      <c r="AG2" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="3" spans="2:48">
       <c r="B3" s="2" t="s">
@@ -2330,6 +2405,12 @@
       <c r="AF3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="AG3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="2:48">
       <c r="B4" s="2" t="s">
@@ -2425,6 +2506,12 @@
       <c r="AF4" s="2" t="s">
         <v>471</v>
       </c>
+      <c r="AG4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="5" spans="2:48">
       <c r="B5" s="8" t="s">
@@ -2520,6 +2607,12 @@
       <c r="AF5" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="AG5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="2:48">
       <c r="B6" s="2" t="s">
@@ -2615,8 +2708,14 @@
       <c r="AF6" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="2:48" ht="45">
+      <c r="AG6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:48" ht="28.8">
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -2710,8 +2809,14 @@
       <c r="AF7" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="2:48" ht="30">
+      <c r="AG7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:48" ht="28.8">
       <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
@@ -2803,6 +2908,12 @@
         <v>19</v>
       </c>
       <c r="AF8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2897,11 +3008,17 @@
       <c r="AE9" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="AF9" s="2" t="s">
+      <c r="AF9" s="7" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="10" spans="2:48" ht="30">
+      <c r="AG9" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="AH9" s="7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="10" spans="2:48">
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
@@ -2995,8 +3112,14 @@
       <c r="AF10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="2:48" ht="30">
+      <c r="AG10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:48" ht="28.8">
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
@@ -3090,8 +3213,14 @@
       <c r="AF11" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="2:48" ht="135">
+      <c r="AG11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:48" ht="115.2">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -3183,6 +3312,12 @@
         <v>15</v>
       </c>
       <c r="AF12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3259,8 +3394,14 @@
       <c r="AF13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="2:48" ht="30">
+      <c r="AG13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:48" ht="28.8">
       <c r="B14" s="2" t="s">
         <v>45</v>
       </c>
@@ -3336,8 +3477,14 @@
       <c r="AF14" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="2:48" ht="30">
+      <c r="AG14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:48" ht="28.8">
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
@@ -3411,6 +3558,12 @@
         <v>19</v>
       </c>
       <c r="AF15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3490,8 +3643,14 @@
       <c r="AF16" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:32" ht="225">
+      <c r="AG16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:37" ht="201.6">
       <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
@@ -3564,8 +3723,14 @@
       <c r="AF17" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="18" spans="2:32" ht="30">
+      <c r="AG17" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="AH17" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="2:37" ht="28.8">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -3656,8 +3821,14 @@
       <c r="AF18" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="2:32" ht="45">
+      <c r="AG18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:37" ht="28.8">
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
@@ -3748,8 +3919,14 @@
       <c r="AF19" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="2:32" ht="30">
+      <c r="AG19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:37" ht="28.8">
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
@@ -3840,8 +4017,14 @@
       <c r="AF20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="2:32">
+      <c r="AG20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:37">
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
@@ -3935,8 +4118,14 @@
       <c r="AF21" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="22" spans="2:32" ht="30">
+      <c r="AG21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH21" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="2:37" ht="28.8">
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
@@ -4027,8 +4216,14 @@
       <c r="AF22" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="2:32">
+      <c r="AG22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:37">
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
@@ -4119,8 +4314,14 @@
       <c r="AF23" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="2:32" ht="30">
+      <c r="AG23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:37" ht="28.8">
       <c r="B24" s="2" t="s">
         <v>39</v>
       </c>
@@ -4211,8 +4412,14 @@
       <c r="AF24" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="2:32" ht="90" customHeight="1">
+      <c r="AG24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:37" ht="90" customHeight="1">
       <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
@@ -4275,8 +4482,14 @@
       <c r="AF25" s="2" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="26" spans="2:32" ht="45">
+      <c r="AG25" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="AH25" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="26" spans="2:37" ht="43.2">
       <c r="B26" s="2" t="s">
         <v>137</v>
       </c>
@@ -4356,7 +4569,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="27" spans="2:32" ht="60">
+    <row r="27" spans="2:37" ht="43.2">
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
@@ -4423,8 +4636,14 @@
       <c r="AF27" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="28" spans="2:32" ht="45">
+      <c r="AG27" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="AH27" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="28" spans="2:37" ht="28.8">
       <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
@@ -4512,8 +4731,14 @@
       <c r="AF28" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="29" spans="2:32" ht="45">
+      <c r="AG28" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="AH28" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="2:37" ht="43.2">
       <c r="D29" s="3" t="s">
         <v>140</v>
       </c>
@@ -4532,10 +4757,10 @@
         <v>375</v>
       </c>
     </row>
-    <row r="30" spans="2:32">
+    <row r="30" spans="2:37">
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="2:32" ht="30">
+    <row r="31" spans="2:37">
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
@@ -4626,8 +4851,14 @@
       <c r="AF31" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="2:32">
+      <c r="AG31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="2:37">
       <c r="B32" s="8" t="s">
         <v>78</v>
       </c>
@@ -4718,8 +4949,18 @@
       <c r="AE32" s="14">
         <v>43601</v>
       </c>
-    </row>
-    <row r="33" spans="1:32">
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14">
+        <v>43579</v>
+      </c>
+      <c r="AH32" s="14">
+        <v>42927</v>
+      </c>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="14"/>
+    </row>
+    <row r="33" spans="1:37">
       <c r="B33" s="8" t="s">
         <v>118</v>
       </c>
@@ -4810,11 +5051,20 @@
       <c r="AE33" s="14">
         <v>44351</v>
       </c>
-      <c r="AF33" s="13">
+      <c r="AF33" s="14">
         <v>43997</v>
       </c>
-    </row>
-    <row r="34" spans="1:32">
+      <c r="AG33" s="14">
+        <v>44288</v>
+      </c>
+      <c r="AH33" s="14">
+        <v>43511</v>
+      </c>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="14"/>
+      <c r="AK33" s="14"/>
+    </row>
+    <row r="34" spans="1:37">
       <c r="B34" s="2" t="s">
         <v>117</v>
       </c>
@@ -4908,8 +5158,14 @@
       <c r="AF34" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="36" spans="1:32">
+      <c r="AG34" t="s">
+        <v>488</v>
+      </c>
+      <c r="AH34" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37">
       <c r="B36" t="s">
         <v>476</v>
       </c>
@@ -4917,7 +5173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="126" customHeight="1">
+    <row r="37" spans="1:37" ht="126" customHeight="1">
       <c r="B37" s="2" t="s">
         <v>273</v>
       </c>
@@ -4954,8 +5210,11 @@
       <c r="AF37" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" ht="75">
+      <c r="AG37" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" ht="72">
       <c r="B38" s="2" t="s">
         <v>233</v>
       </c>
@@ -5015,20 +5274,20 @@
         <v>435</v>
       </c>
     </row>
-    <row r="40" spans="1:32">
+    <row r="40" spans="1:37">
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:32">
+    <row r="41" spans="1:37">
       <c r="B41" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:32">
+    <row r="42" spans="1:37">
       <c r="B42" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:32">
+    <row r="43" spans="1:37">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -5047,8 +5306,14 @@
       <c r="AF43" s="16" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="44" spans="1:32">
+      <c r="AG43" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="AH43" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37">
       <c r="A44" s="2">
         <v>2</v>
       </c>
@@ -5076,8 +5341,11 @@
       <c r="AF44" s="16" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="45" spans="1:32">
+      <c r="AH44" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37">
       <c r="A45" s="2">
         <v>3</v>
       </c>
@@ -5100,7 +5368,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="46" spans="1:32">
+    <row r="46" spans="1:37">
       <c r="A46" s="2">
         <v>4</v>
       </c>
@@ -5117,7 +5385,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="47" spans="1:32">
+    <row r="47" spans="1:37">
       <c r="A47" s="2">
         <v>5</v>
       </c>
@@ -5131,7 +5399,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="48" spans="1:32">
+    <row r="48" spans="1:37">
       <c r="A48" s="2">
         <v>6</v>
       </c>
@@ -5171,8 +5439,14 @@
       <c r="AF48" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="49" spans="1:32" ht="30">
+      <c r="AG48" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="AH48" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34">
       <c r="A49" s="2">
         <v>7</v>
       </c>
@@ -5189,7 +5463,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="50" spans="1:32">
+    <row r="50" spans="1:34">
       <c r="A50" s="2">
         <v>8</v>
       </c>
@@ -5200,7 +5474,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:32">
+    <row r="51" spans="1:34">
       <c r="E51" s="2" t="s">
         <v>126</v>
       </c>
@@ -5232,7 +5506,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="52" spans="1:32" ht="30">
+    <row r="52" spans="1:34" ht="28.8">
       <c r="E52" s="2" t="s">
         <v>395</v>
       </c>
@@ -5243,7 +5517,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="30">
+    <row r="53" spans="1:34">
       <c r="E53" s="2" t="s">
         <v>129</v>
       </c>
@@ -5254,17 +5528,17 @@
         <v>479</v>
       </c>
     </row>
-    <row r="54" spans="1:32">
+    <row r="54" spans="1:34">
       <c r="J54" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:32">
+    <row r="55" spans="1:34">
       <c r="B55" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="30">
+    <row r="56" spans="1:34" ht="28.8">
       <c r="A56" s="2">
         <v>9</v>
       </c>
@@ -5319,8 +5593,14 @@
       <c r="AF56" s="2" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="57" spans="1:32">
+      <c r="AG56" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="AH56" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34">
       <c r="A57" s="2">
         <v>10</v>
       </c>
@@ -5331,7 +5611,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:32">
+    <row r="58" spans="1:34">
       <c r="A58" s="2">
         <v>11</v>
       </c>
@@ -5342,7 +5622,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:32">
+    <row r="59" spans="1:34">
       <c r="A59" s="2">
         <v>12</v>
       </c>
@@ -5353,7 +5633,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="30">
+    <row r="60" spans="1:34" ht="28.8">
       <c r="A60" s="2">
         <v>13</v>
       </c>
@@ -5370,12 +5650,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:32">
+    <row r="62" spans="1:34">
       <c r="B62" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="30">
+    <row r="63" spans="1:34" ht="28.8">
       <c r="A63" s="2">
         <v>14</v>
       </c>
@@ -5389,7 +5669,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:32">
+    <row r="64" spans="1:34">
       <c r="A64" s="2">
         <v>15</v>
       </c>
@@ -5403,7 +5683,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="30">
+    <row r="65" spans="1:33" ht="28.8">
       <c r="A65" s="2">
         <v>16</v>
       </c>
@@ -5417,7 +5697,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="30">
+    <row r="66" spans="1:33" ht="28.8">
       <c r="A66" s="2">
         <v>17</v>
       </c>
@@ -5428,7 +5708,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:32">
+    <row r="67" spans="1:33">
       <c r="A67" s="2">
         <v>18</v>
       </c>
@@ -5439,7 +5719,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="30">
+    <row r="68" spans="1:33" ht="28.8">
       <c r="A68" s="2">
         <v>19</v>
       </c>
@@ -5453,7 +5733,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:32">
+    <row r="69" spans="1:33">
       <c r="A69" s="2">
         <v>20</v>
       </c>
@@ -5467,7 +5747,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:32" ht="30">
+    <row r="70" spans="1:33" ht="28.8">
       <c r="A70" s="2">
         <v>21</v>
       </c>
@@ -5481,7 +5761,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:32">
+    <row r="71" spans="1:33">
       <c r="A71" s="2">
         <v>22</v>
       </c>
@@ -5492,17 +5772,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:32">
+    <row r="72" spans="1:33">
       <c r="J72" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:32">
+    <row r="74" spans="1:33">
       <c r="B74" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:32">
+    <row r="75" spans="1:33">
       <c r="A75" s="2">
         <v>23</v>
       </c>
@@ -5537,7 +5817,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="76" spans="1:32">
+    <row r="76" spans="1:33">
       <c r="A76" s="2">
         <v>24</v>
       </c>
@@ -5548,7 +5828,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:32">
+    <row r="77" spans="1:33">
       <c r="A77" s="2">
         <v>25</v>
       </c>
@@ -5559,7 +5839,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:32">
+    <row r="78" spans="1:33">
       <c r="A78" s="2">
         <v>26</v>
       </c>
@@ -5596,8 +5876,11 @@
       <c r="AF78" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="79" spans="1:32">
+      <c r="AG78" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33">
       <c r="A79" s="2">
         <v>27</v>
       </c>
@@ -5608,7 +5891,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="1:32">
+    <row r="80" spans="1:33">
       <c r="A80" s="2">
         <v>28</v>
       </c>
@@ -5619,7 +5902,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:32" ht="18" customHeight="1">
+    <row r="81" spans="1:34" ht="18" customHeight="1">
       <c r="A81" s="2">
         <v>29</v>
       </c>
@@ -5644,8 +5927,14 @@
       <c r="AF81" s="2" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="82" spans="1:32" ht="16.5" customHeight="1">
+      <c r="AG81" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AH81" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" ht="16.5" customHeight="1">
       <c r="A82" s="2">
         <v>30</v>
       </c>
@@ -5670,8 +5959,14 @@
       <c r="AF82" s="2" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="83" spans="1:32">
+      <c r="AG82" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AH82" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34">
       <c r="A83" s="2">
         <v>31</v>
       </c>
@@ -5691,7 +5986,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="84" spans="1:32">
+    <row r="84" spans="1:34">
       <c r="A84" s="2">
         <v>32</v>
       </c>
@@ -5702,7 +5997,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="1:32">
+    <row r="85" spans="1:34">
       <c r="A85" s="2">
         <v>33</v>
       </c>
@@ -5713,7 +6008,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:32" ht="30">
+    <row r="86" spans="1:34">
       <c r="A86" s="2">
         <v>34</v>
       </c>
@@ -5800,8 +6095,13 @@
     <hyperlink ref="AC26" r:id="rId72"/>
     <hyperlink ref="AD27" r:id="rId73"/>
     <hyperlink ref="AD28" r:id="rId74"/>
+    <hyperlink ref="AG25" r:id="rId75"/>
+    <hyperlink ref="AG27" r:id="rId76"/>
+    <hyperlink ref="AG28" r:id="rId77"/>
+    <hyperlink ref="AH25" r:id="rId78"/>
+    <hyperlink ref="AH28" r:id="rId79"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId75"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId80"/>
 </worksheet>
 </file>
--- a/Data quality revision R overview v01.xlsx
+++ b/Data quality revision R overview v01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="538">
   <si>
     <t>Acronym (falls vorhanden)</t>
   </si>
@@ -1604,7 +1604,100 @@
     <t>vis_cor</t>
   </si>
   <si>
-    <t>Compare datasets of the same size. Visualise the values of the data on a 0 to 1 scale, or binary values</t>
+    <t>Compare datasets of the same size. Visualise the values of the data on a 0 to 1 scale, or binary values. Integration with plotly.</t>
+  </si>
+  <si>
+    <t>xray</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=xray</t>
+  </si>
+  <si>
+    <t>https://github.com/sicarul/xray</t>
+  </si>
+  <si>
+    <t>Tools to analyze datasets previous to any statistical modeling. Has various functions designed to find inconsistencies and understanding the distribution of the data.</t>
+  </si>
+  <si>
+    <t>maybe, as percentage of anomalous values in variable</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/xray/README.html</t>
+  </si>
+  <si>
+    <t>Zeroes, infinite, blanks, distinct</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>No of observations (q)</t>
+  </si>
+  <si>
+    <t>Distinct?</t>
+  </si>
+  <si>
+    <t>Percentiles, histogram</t>
+  </si>
+  <si>
+    <t>Distributions along a time axis, i.e. the change over time of the variables' distribution</t>
+  </si>
+  <si>
+    <t>pointblank</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=pointblank</t>
+  </si>
+  <si>
+    <t>https://github.com/rich-iannone/pointblank</t>
+  </si>
+  <si>
+    <t>https://rich-iannone.github.io/pointblank/</t>
+  </si>
+  <si>
+    <t>0.9.0</t>
+  </si>
+  <si>
+    <t>Validate data in data frames, 'tibble' objects, 'Spark' 'DataFrames', and database tables. Validation pipelines can be made using easily-readable, consecutive validation steps. Upon execution of the validation plan, several reporting options are available. User-defined thresholds for failure rates allow for the determination of appropriate reporting actions. Many other workflows are available including an information management workflow, where the aim is to record, collect, and generate useful information on data tables.</t>
+  </si>
+  <si>
+    <t>R objects, R Markdown, html, yaml</t>
+  </si>
+  <si>
+    <t>Supports PostgreSQL. MySQL, MariaDB, DuckDB, SQLite, and Spark DataFrames (through the sparklyr package). Pipeline Data Validation workflow that outputs an error or warning if there is a single ‘fail’ test unit in any validation step, multiple failure thresholds and side effects for each failure state can be specified. Integration with R Markdown workflow  enabled by default once the pointblank library is loaded. All errors are reported in the validation code chunk after rendering the document to HTML, where green or red status buttons indicate whether all validations succeeded or failures occurred. Click them to reveal the otherwise hidden validation statements and any associated error messages. Send reports via email. Reporting across time. making data dictionaries, translate reporting outputs to multiple spoken languages.</t>
+  </si>
+  <si>
+    <t>TO DO: generate SHIP report</t>
+  </si>
+  <si>
+    <t>data quality checks over time</t>
+  </si>
+  <si>
+    <t>dartR</t>
+  </si>
+  <si>
+    <t>≥ 3.5</t>
+  </si>
+  <si>
+    <t>1.9.9.1</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=dartR</t>
+  </si>
+  <si>
+    <t>Gruber, B, Unmack, PJ, Berry, OF, Georges, A. dartr: An r package to facilitate analysis of SNP data generated from reduced representation genome sequencing. Mol Ecol Resour. 2018; 18: 691– 699. https://doi.org/10.1111/1755-0998.12745</t>
+  </si>
+  <si>
+    <t>Excluded: focus on the analysis of single nucleotide polymorphism data for population genomic and phylogenomic applications</t>
+  </si>
+  <si>
+    <t>Enables the analysis of single nucleotide polymorphism data for population genomic and phylogenomic applications. dartr provides user-friendly functions for data quality control and marker selection, and permits rigorous evaluations of conformation to Hardy–Weinberg equilibrium, gametic-phase disequilibrium and neutrality. The package reports standard descriptive statistics, permits exploration of patterns in the data through principal components analysis and conducts standard F-statistics, as well as basic phylogenetic analyses, population assignment, isolation by distance and exports data to a variety of commonly used downstream applications (e.g., newhybrids, faststructure and phylogeny applications) outside of the r environment. The package serves two main purposes: first, a user-friendly approach to lower the hurdle to analyse such data—therefore, the package comes with a detailed tutorial targeted to the r beginner to allow data analysis without requiring deep knowledge of r. Second, we use a single, well-established format—genlight from the adegenet package—as input for all our functions to avoid data reformatting.</t>
+  </si>
+  <si>
+    <t>https://github.com/green-striped-gecko/dartR</t>
+  </si>
+  <si>
+    <t>http://georges.biomatix.org/dartR</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1761,7 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1678,6 +1771,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1695,7 +1794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1738,6 +1837,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2023,10 +2125,10 @@
   <dimension ref="A1:AV86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AG3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH9" sqref="AH9"/>
+      <selection pane="bottomRight" activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4"/>
@@ -2064,7 +2166,10 @@
     <col min="32" max="32" width="38.44140625" style="2" customWidth="1"/>
     <col min="33" max="33" width="33.109375" style="2" customWidth="1"/>
     <col min="34" max="34" width="32.88671875" style="2" customWidth="1"/>
-    <col min="35" max="16384" width="11" style="2"/>
+    <col min="35" max="35" width="28.44140625" style="2" customWidth="1"/>
+    <col min="36" max="36" width="24.109375" style="2" customWidth="1"/>
+    <col min="37" max="37" width="22.77734375" style="2" customWidth="1"/>
+    <col min="38" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:48" s="4" customFormat="1">
@@ -2310,6 +2415,15 @@
       <c r="AH2" s="2" t="s">
         <v>497</v>
       </c>
+      <c r="AI2" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="3" spans="2:48">
       <c r="B3" s="2" t="s">
@@ -2411,6 +2525,15 @@
       <c r="AH3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="AI3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="2:48">
       <c r="B4" s="2" t="s">
@@ -2512,6 +2635,15 @@
       <c r="AH4" t="s">
         <v>499</v>
       </c>
+      <c r="AI4" t="s">
+        <v>471</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="5" spans="2:48">
       <c r="B5" s="8" t="s">
@@ -2613,6 +2745,15 @@
       <c r="AH5" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="AI5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="2:48">
       <c r="B6" s="2" t="s">
@@ -2714,6 +2855,15 @@
       <c r="AH6" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AI6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="2:48" ht="28.8">
       <c r="B7" s="2" t="s">
@@ -2815,6 +2965,15 @@
       <c r="AH7" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AI7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="2:48" ht="28.8">
       <c r="B8" s="2" t="s">
@@ -2916,6 +3075,12 @@
       <c r="AH8" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AI8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="2:48" ht="246" customHeight="1">
       <c r="B9" s="2" t="s">
@@ -3017,6 +3182,19 @@
       <c r="AH9" s="7" t="s">
         <v>502</v>
       </c>
+      <c r="AI9" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="AJ9" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="AK9" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
     </row>
     <row r="10" spans="2:48">
       <c r="B10" s="2" t="s">
@@ -3118,6 +3296,15 @@
       <c r="AH10" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AI10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="2:48" ht="28.8">
       <c r="B11" s="2" t="s">
@@ -3219,6 +3406,15 @@
       <c r="AH11" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="AI11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="2:48" ht="115.2">
       <c r="B12" s="2" t="s">
@@ -3320,6 +3516,15 @@
       <c r="AH12" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="AI12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="2:48" ht="29.25" customHeight="1">
       <c r="B13" s="2" t="s">
@@ -3400,6 +3605,9 @@
       <c r="AH13" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="AI13" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="2:48" ht="28.8">
       <c r="B14" s="2" t="s">
@@ -3483,6 +3691,9 @@
       <c r="AH14" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="AI14" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="2:48" ht="28.8">
       <c r="B15" s="2" t="s">
@@ -3566,6 +3777,9 @@
       <c r="AH15" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AI15" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="2:48" ht="27.6" customHeight="1">
       <c r="B16" s="2" t="s">
@@ -3649,8 +3863,11 @@
       <c r="AH16" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:37" ht="201.6">
+      <c r="AI16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:37" ht="151.19999999999999" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
@@ -3728,6 +3945,12 @@
       </c>
       <c r="AH17" s="2" t="s">
         <v>506</v>
+      </c>
+      <c r="AI17" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="AJ17" s="7" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="2:37" ht="28.8">
@@ -3827,6 +4050,12 @@
       <c r="AH18" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AI18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="2:37" ht="28.8">
       <c r="B19" s="2" t="s">
@@ -3925,6 +4154,12 @@
       <c r="AH19" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AI19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" spans="2:37" ht="28.8">
       <c r="B20" s="2" t="s">
@@ -4023,8 +4258,14 @@
       <c r="AH20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="2:37">
+      <c r="AI20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:37" ht="28.8">
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
@@ -4122,6 +4363,15 @@
         <v>236</v>
       </c>
       <c r="AH21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ21" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="AK21" s="2" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4222,8 +4472,17 @@
       <c r="AH22" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="2:37">
+      <c r="AI22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:37" ht="28.8">
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
@@ -4319,6 +4578,12 @@
       </c>
       <c r="AH23" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="AI23" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="AJ23" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="2:37" ht="28.8">
@@ -4418,6 +4683,12 @@
       <c r="AH24" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AI24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ24" s="2" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="25" spans="2:37" ht="90" customHeight="1">
       <c r="B25" s="2" t="s">
@@ -4488,6 +4759,15 @@
       <c r="AH25" s="3" t="s">
         <v>498</v>
       </c>
+      <c r="AI25" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="AJ25" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="AK25" s="7" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="26" spans="2:37" ht="43.2">
       <c r="B26" s="2" t="s">
@@ -4568,6 +4848,9 @@
       <c r="AC26" s="3" t="s">
         <v>436</v>
       </c>
+      <c r="AK26" s="3" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="27" spans="2:37" ht="43.2">
       <c r="B27" s="2" t="s">
@@ -4642,6 +4925,15 @@
       <c r="AH27" s="2" t="s">
         <v>501</v>
       </c>
+      <c r="AI27" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="AJ27" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="AK27" s="3" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="28" spans="2:37" ht="28.8">
       <c r="B28" s="2" t="s">
@@ -4737,6 +5029,15 @@
       <c r="AH28" s="3" t="s">
         <v>500</v>
       </c>
+      <c r="AI28" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="AJ28" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="AK28" s="3" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="29" spans="2:37" ht="43.2">
       <c r="D29" s="3" t="s">
@@ -4857,6 +5158,15 @@
       <c r="AH31" t="s">
         <v>231</v>
       </c>
+      <c r="AI31" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ31" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK31" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="32" spans="2:37">
       <c r="B32" s="8" t="s">
@@ -4956,9 +5266,15 @@
       <c r="AH32" s="14">
         <v>42927</v>
       </c>
-      <c r="AI32" s="14"/>
-      <c r="AJ32" s="14"/>
-      <c r="AK32" s="14"/>
+      <c r="AI32" s="13">
+        <v>43061</v>
+      </c>
+      <c r="AJ32" s="13">
+        <v>42969</v>
+      </c>
+      <c r="AK32" s="13">
+        <v>42909</v>
+      </c>
     </row>
     <row r="33" spans="1:37">
       <c r="B33" s="8" t="s">
@@ -5060,9 +5376,15 @@
       <c r="AH33" s="14">
         <v>43511</v>
       </c>
-      <c r="AI33" s="14"/>
-      <c r="AJ33" s="14"/>
-      <c r="AK33" s="14"/>
+      <c r="AI33" s="13">
+        <v>43077</v>
+      </c>
+      <c r="AJ33" s="13">
+        <v>44497</v>
+      </c>
+      <c r="AK33" s="13">
+        <v>44344</v>
+      </c>
     </row>
     <row r="34" spans="1:37">
       <c r="B34" s="2" t="s">
@@ -5164,6 +5486,15 @@
       <c r="AH34" s="5" t="s">
         <v>445</v>
       </c>
+      <c r="AI34" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AJ34" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="36" spans="1:37">
       <c r="B36" t="s">
@@ -5172,6 +5503,12 @@
       <c r="AF36" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="AI36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ36" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="37" spans="1:37" ht="126" customHeight="1">
       <c r="B37" s="2" t="s">
@@ -5213,8 +5550,11 @@
       <c r="AG37" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="38" spans="1:37" ht="72">
+      <c r="AI37" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" ht="86.4">
       <c r="B38" s="2" t="s">
         <v>233</v>
       </c>
@@ -5273,9 +5613,16 @@
       <c r="AC38" s="2" t="s">
         <v>435</v>
       </c>
+      <c r="AJ38" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="AK38" s="2" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="40" spans="1:37">
       <c r="D40" s="9"/>
+      <c r="AJ40" s="1"/>
     </row>
     <row r="41" spans="1:37">
       <c r="B41" s="1" t="s">
@@ -5312,6 +5659,9 @@
       <c r="AH43" s="2" t="s">
         <v>503</v>
       </c>
+      <c r="AI43" s="2" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="44" spans="1:37">
       <c r="A44" s="2">
@@ -5344,6 +5694,9 @@
       <c r="AH44" s="2" t="s">
         <v>504</v>
       </c>
+      <c r="AI44" s="2" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="45" spans="1:37">
       <c r="A45" s="2">
@@ -5367,6 +5720,9 @@
       <c r="AA45" s="2" t="s">
         <v>371</v>
       </c>
+      <c r="AI45" s="2" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="46" spans="1:37">
       <c r="A46" s="2">
@@ -5445,8 +5801,11 @@
       <c r="AH48" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="49" spans="1:34">
+      <c r="AI48" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35">
       <c r="A49" s="2">
         <v>7</v>
       </c>
@@ -5463,7 +5822,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50" s="2">
         <v>8</v>
       </c>
@@ -5474,7 +5833,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="E51" s="2" t="s">
         <v>126</v>
       </c>
@@ -5506,7 +5865,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="52" spans="1:34" ht="28.8">
+    <row r="52" spans="1:35" ht="28.8">
       <c r="E52" s="2" t="s">
         <v>395</v>
       </c>
@@ -5517,7 +5876,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="E53" s="2" t="s">
         <v>129</v>
       </c>
@@ -5527,18 +5886,21 @@
       <c r="AF53" s="2" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="54" spans="1:34">
+      <c r="AI53" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35">
       <c r="J54" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="B55" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="28.8">
+    <row r="56" spans="1:35" ht="28.8">
       <c r="A56" s="2">
         <v>9</v>
       </c>
@@ -5599,8 +5961,11 @@
       <c r="AH56" s="2" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="57" spans="1:34">
+      <c r="AI56" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35">
       <c r="A57" s="2">
         <v>10</v>
       </c>
@@ -5611,7 +5976,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58" s="2">
         <v>11</v>
       </c>
@@ -5622,7 +5987,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59" s="2">
         <v>12</v>
       </c>
@@ -5633,7 +5998,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="28.8">
+    <row r="60" spans="1:35" ht="28.8">
       <c r="A60" s="2">
         <v>13</v>
       </c>
@@ -5650,12 +6015,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="B62" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:34" ht="28.8">
+    <row r="63" spans="1:35" ht="28.8">
       <c r="A63" s="2">
         <v>14</v>
       </c>
@@ -5669,7 +6034,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64" s="2">
         <v>15</v>
       </c>
@@ -5683,7 +6048,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="65" spans="1:33" ht="28.8">
+    <row r="65" spans="1:35" ht="28.8">
       <c r="A65" s="2">
         <v>16</v>
       </c>
@@ -5697,7 +6062,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:33" ht="28.8">
+    <row r="66" spans="1:35" ht="28.8">
       <c r="A66" s="2">
         <v>17</v>
       </c>
@@ -5708,7 +6073,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:33">
+    <row r="67" spans="1:35">
       <c r="A67" s="2">
         <v>18</v>
       </c>
@@ -5719,7 +6084,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:33" ht="28.8">
+    <row r="68" spans="1:35" ht="28.8">
       <c r="A68" s="2">
         <v>19</v>
       </c>
@@ -5733,7 +6098,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:33">
+    <row r="69" spans="1:35">
       <c r="A69" s="2">
         <v>20</v>
       </c>
@@ -5747,7 +6112,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:33" ht="28.8">
+    <row r="70" spans="1:35" ht="28.8">
       <c r="A70" s="2">
         <v>21</v>
       </c>
@@ -5761,7 +6126,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:33">
+    <row r="71" spans="1:35">
       <c r="A71" s="2">
         <v>22</v>
       </c>
@@ -5772,17 +6137,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:33">
+    <row r="72" spans="1:35">
       <c r="J72" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:33">
+    <row r="74" spans="1:35">
       <c r="B74" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:33">
+    <row r="75" spans="1:35">
       <c r="A75" s="2">
         <v>23</v>
       </c>
@@ -5817,7 +6182,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="76" spans="1:33">
+    <row r="76" spans="1:35">
       <c r="A76" s="2">
         <v>24</v>
       </c>
@@ -5828,7 +6193,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:33">
+    <row r="77" spans="1:35">
       <c r="A77" s="2">
         <v>25</v>
       </c>
@@ -5839,7 +6204,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:33">
+    <row r="78" spans="1:35">
       <c r="A78" s="2">
         <v>26</v>
       </c>
@@ -5879,8 +6244,11 @@
       <c r="AG78" s="2" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="79" spans="1:33">
+      <c r="AI78" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35">
       <c r="A79" s="2">
         <v>27</v>
       </c>
@@ -5891,7 +6259,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="1:33">
+    <row r="80" spans="1:35">
       <c r="A80" s="2">
         <v>28</v>
       </c>
@@ -6100,8 +6468,17 @@
     <hyperlink ref="AG28" r:id="rId77"/>
     <hyperlink ref="AH25" r:id="rId78"/>
     <hyperlink ref="AH28" r:id="rId79"/>
+    <hyperlink ref="AI25" r:id="rId80"/>
+    <hyperlink ref="AI28" r:id="rId81"/>
+    <hyperlink ref="AI27" r:id="rId82"/>
+    <hyperlink ref="AJ25" r:id="rId83"/>
+    <hyperlink ref="AJ28" r:id="rId84"/>
+    <hyperlink ref="AJ27" r:id="rId85"/>
+    <hyperlink ref="AK26" r:id="rId86"/>
+    <hyperlink ref="AK28" r:id="rId87"/>
+    <hyperlink ref="AK27" r:id="rId88"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId80"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId89"/>
 </worksheet>
 </file>
--- a/Data quality revision R overview v01.xlsx
+++ b/Data quality revision R overview v01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="701">
   <si>
     <t>Acronym (falls vorhanden)</t>
   </si>
@@ -1699,15 +1699,569 @@
   <si>
     <t>http://georges.biomatix.org/dartR</t>
   </si>
+  <si>
+    <t>skimr</t>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=skimr</t>
+  </si>
+  <si>
+    <t>https://github.com/ropensci/skimr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skimr provides a frictionless approach to summary statistics which conforms to the principle of least surprise, displaying summary statistics the user can skim quickly to understand their data. It handles different data types and returns a skim_df object which can be included in a pipeline or displayed nicely for the human reader. Provides: 
+    - larger set of statistics than summary(), including missing, complete, n, and sd.
+    - reports each data types separately
+    - handles dates, logicals, and a variety of other types
+    - supports spark-bar and spark-line based on the pillar package.
+</t>
+  </si>
+  <si>
+    <t>R objects, R Markdown (manually through knitr)</t>
+  </si>
+  <si>
+    <t>Number of rows</t>
+  </si>
+  <si>
+    <t>whitespace, empty</t>
+  </si>
+  <si>
+    <t>uniques</t>
+  </si>
+  <si>
+    <t>Production of spark graphs for numeric data. Integration with dplyr, pipes, tidyverse and knittr. Users can specify their own statistics and classes.</t>
+  </si>
+  <si>
+    <t>https://docs.ropensci.org/skimr/</t>
+  </si>
+  <si>
+    <t>mean, sd, percentiles, histogram, min, max, median, sd, frequency, count</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>correlationfunnel</t>
+  </si>
+  <si>
+    <t>≥ 3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The correlationfunnel package includes a streamlined 3-step process for preparing data and performing visual Correlation Analysis. The visualization produced uncovers insights by elevating high-correlation features and loweribng low-correlation features. The shape looks like a funnel (hence the name “Correlation Funnel”), making it very efficient to understand which features are most likely to provide business insights and lend well to a machine learning model. The Correlation Funnel process uses 3 functions:
+    Transform the data into a binary format with binarize() - This step prepares semi-processed data for an optimal format (binary) for correlation analysis
+    Perform correlation analysis using correlate() - This step correlates the “binarized” data (binary features) with the target
+    Visualize the feature-target relationships using plot_correlation_funnel() - This step produces the visualization from which we can get business insights
+</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=correlationfunnel</t>
+  </si>
+  <si>
+    <t>https://github.com/business-science/correlationfunnel</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>https://business-science.github.io/correlationfunnel/</t>
+  </si>
+  <si>
+    <t>Interactive plots</t>
+  </si>
+  <si>
+    <t>correlation analysis</t>
+  </si>
+  <si>
+    <t>Correlation funnel plot</t>
+  </si>
+  <si>
+    <t>Highlights of interest</t>
+  </si>
+  <si>
+    <t>Aesthetics and functions</t>
+  </si>
+  <si>
+    <t>Tierney, N. J., &amp; Cook, D. H. (2018). Expanding tidy data principles to facilitate missing data exploration, visualization and assessment of imputations. arXiv preprint arXiv:1809.02264.</t>
+  </si>
+  <si>
+    <t>Different visualizations for relationships in missing values. Tidy framework for missings</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=naniar</t>
+  </si>
+  <si>
+    <t>https://naniar.njtierney.com/</t>
+  </si>
+  <si>
+    <t>naniar' provides data structures and functions that facilitate the plotting of missing values and examination of imputations. This allows missing data dependencies to be explored with minimal deviation from the common work patterns of 'ggplot2' and tidy data. Provides:
+1. Shadow matrices, a tidy data structure for missing data
+2. Shorthand summaries for missing data
+3. Statistical tests of missingness
+4. Visualizations for missing data</t>
+  </si>
+  <si>
+    <t>https://github.com/njtierney/naniar</t>
+  </si>
+  <si>
+    <t>https://naniar.njtierney.com/articles/naniar-visualisation.html</t>
+  </si>
+  <si>
+    <t>0.6.1</t>
+  </si>
+  <si>
+    <t>naniar (formerly named ggmissing)</t>
+  </si>
+  <si>
+    <t>only for missings</t>
+  </si>
+  <si>
+    <t>Parallel coordinate plot, decision tree, upsetr integration. Missingness along a repeating span.</t>
+  </si>
+  <si>
+    <t>TO DO: generate SHIP report - To exclude? Focus only on correlation analysis</t>
+  </si>
+  <si>
+    <t>TO DO: generate SHIP report - To exclude? Focus only on missing values (Nas)</t>
+  </si>
+  <si>
+    <t>Tool46</t>
+  </si>
+  <si>
+    <t>Tool47</t>
+  </si>
+  <si>
+    <t>Tool48</t>
+  </si>
+  <si>
+    <t>Tool49</t>
+  </si>
+  <si>
+    <t>Tool50</t>
+  </si>
+  <si>
+    <t>Jake R Conway, Alexander Lex, Nils Gehlenborg UpSetR: An R Package for the Visualization of Intersecting Sets and their Properties doi: https://doi.org/10.1093/bioinformatics/btx364</t>
+  </si>
+  <si>
+    <t>Alexander Lex, Nils Gehlenborg, Hendrik Strobelt, Romain Vuillemot, Hanspeter Pfister,
+UpSet: Visualization of Intersecting Sets,
+IEEE Transactions on Visualization and Computer Graphics (InfoVis '14), vol. 20, no. 12, pp. 1983–1992, 2014.
+doi: https://doi.org/10.1109/TVCG.2014.2346248</t>
+  </si>
+  <si>
+    <t>UpSetR</t>
+  </si>
+  <si>
+    <t>UpSetR generates static UpSet plots. The UpSet technique visualizes set intersections in a matrix layout and introduces aggregates based on groupings and queries. The matrix layout enables the effective representation of associated data, such as the number of elements in the aggregates and intersections, as well as additional summary statistics derived from subset or element attributes.</t>
+  </si>
+  <si>
+    <t>≥ 3.0</t>
+  </si>
+  <si>
+    <t>yes, shiny app</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=UpSetR</t>
+  </si>
+  <si>
+    <t>https://github.com/hms-dbmi/UpSetR</t>
+  </si>
+  <si>
+    <t>https://gehlenborglab.shinyapps.io/upsetr/</t>
+  </si>
+  <si>
+    <t>http://gehlenborglab.org/research/projects/upsetr/</t>
+  </si>
+  <si>
+    <t>1.4.0</t>
+  </si>
+  <si>
+    <t>Upset plots for  intersecting sets</t>
+  </si>
+  <si>
+    <t>To exclude: focus only on UpSet Plots</t>
+  </si>
+  <si>
+    <t>Ggally</t>
+  </si>
+  <si>
+    <t>'GGally' extends 'ggplot2' by adding several functions to reduce the complexity of combining geometric objects with transformed data. Some of these functions include a pairwise plot matrix, a two group pairwise plot matrix, a parallel coordinates plot, a survival plot, and several functions to plot networks.</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>GPL-2 | GPL-3 [expanded from: GPL (≥ 2.0)]</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=GGally</t>
+  </si>
+  <si>
+    <t>https://ggobi.github.io/ggally/</t>
+  </si>
+  <si>
+    <t>https://github.com/ggobi/ggally/</t>
+  </si>
+  <si>
+    <t>To exclude: plotting library</t>
+  </si>
+  <si>
+    <t>See different types of plots</t>
+  </si>
+  <si>
+    <t>StatMeasures</t>
+  </si>
+  <si>
+    <t>≥ 3.1.3</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=StatMeasures</t>
+  </si>
+  <si>
+    <t>Offers useful functions to perform day-to-day data manipulation operations, data quality checks and post modelling statistical checks. One can effortlessly change class of a number of variables to factor, remove duplicate observations from the data, create deciles of a variable, perform data quality checks for continuous (integer or numeric), categorical (factor) and date variables, and compute goodness of fit measures such as auc for statistical models. The functions are consistent for objects of class 'data.frame' and 'data.table', which is an enhanced 'data.frame' implemented in the package 'data.table'.</t>
+  </si>
+  <si>
+    <t>https://github.com/cran/StatMeasures</t>
+  </si>
+  <si>
+    <t>Distinct values</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>outliers</t>
+  </si>
+  <si>
+    <t>Deciles, min, max, sd, variance, percentiles, outliers, pentiles</t>
+  </si>
+  <si>
+    <t>Confusion matrix and overall accuracy of predicted binary response, Comparison of actual and predicted linear response, Area under curve of predicted binary response, Gini coefficient of a distribution, Impute missing values in a variable, Information value of an independent variable in predicting a binary
+response,  Kolmogorov-Smirnov statistic for predicted binary response, randomise rows, remove duplicates, Split modeling data into test and train set</t>
+  </si>
+  <si>
+    <t>brinton</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=brinton</t>
+  </si>
+  <si>
+    <t>https://github.com/sciencegraph/brinton</t>
+  </si>
+  <si>
+    <t>https://sciencegraph.github.io/brinton/</t>
+  </si>
+  <si>
+    <t>0.2.5</t>
+  </si>
+  <si>
+    <t>An automated graphical exploratory data analysis (EDA) tool that introduces: a.) wideplot() graphics for exploring the structure of a dataset through a grid of variables and graphic types. b.) longplot() graphics, which present the entire catalog of available graphics for representing a particular variable using a grid of graphic types and variations on these types. c.) plotup() function, which presents a particular graphic for a specific variable of a dataset. The plotup() function also makes it possible to obtain the code used to generate the graphic, meaning that the user can adjust its properties as needed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Millán-Martínez, P., &amp; Oller, R. (2021). A Graphical EDA Tool with ggplot2: brinton. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The R Journal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2), 311-320. https://doi.org/10.32614/RJ-2021-018</t>
+    </r>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>histograms, density, count, scatter, violin, parallel, sequence, qq plots, heatmap, boxplot, path and point-to-point graphs, scatter plot with marginal rugs</t>
+  </si>
+  <si>
+    <t>Export one particular plot (in html) or to print the ggplot2 function to produce plot in the console</t>
+  </si>
+  <si>
+    <t>cleanEHR</t>
+  </si>
+  <si>
+    <t>Excluded: Archived on 2020-02-19</t>
+  </si>
+  <si>
+    <t>Longitudinal data plots</t>
+  </si>
+  <si>
+    <t>https://github.com/ropensci/cleanEHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An electronic health care record (EHR) data cleaning and processing platform. It focus on heterogeneous high resolution longitudinal data. It works with Critical Care Health Informatics Collaborative (CCHIC) dataset. It is created to address various data reliability and accessibility problems of EHRs as such. </t>
+  </si>
+  <si>
+    <t>Shi, S., Pérez-Suárez, D., Harris, S., MacCallum, N., Brealey, D., Singer, M., &amp; Hetherington, J. (2017). Critical care data processing tools. Journal of Open Source Software, 2(20), 513. https://joss.theoj.org/papers/10.21105/joss.00513.pdf</t>
+  </si>
+  <si>
+    <t>yes, manual</t>
+  </si>
+  <si>
+    <t>yes (yaml)</t>
+  </si>
+  <si>
+    <t>Numerical range filter</t>
+  </si>
+  <si>
+    <t>Categorical data filter</t>
+  </si>
+  <si>
+    <t>No data</t>
+  </si>
+  <si>
+    <t>yes, as filters</t>
+  </si>
+  <si>
+    <t>Imputation</t>
+  </si>
+  <si>
+    <t>https://docs.ropensci.org/cleanEHR</t>
+  </si>
+  <si>
+    <t>Data type</t>
+  </si>
+  <si>
+    <t>chipPCR: an R package to pre-process raw data of amplification curves. Rödiger S, Burdukiewicz M, Schierack P. Bioinformatics. 2015 Sep 1;31(17):2900-2. doi: 10.1093/bioinformatics/btv205. Epub 2015 Apr 24. PMID: 25913204</t>
+  </si>
+  <si>
+    <t>chipPCR</t>
+  </si>
+  <si>
+    <t>A collection of functions to pre-process amplification curve data from polymerase chain reaction (PCR) or isothermal amplification reactions. Contains functions to normalize and baseline amplification curves, to detect both the start and end of an amplification reaction, several smoothers (e.g., LOWESS, moving average, cubic splines, Savitzky-Golay), a function to detect false positive amplification reactions and a function to determine the amplification efficiency. Quantification point (Cq) methods include the first (FDM) and second approximate derivative maximum (SDM) methods (calculated by a 5-point-stencil) and the cycle threshold method. Data sets of experimental nucleic acid amplification systems ('VideoScan HCU', capillary convective PCR (ccPCR)) and commercial systems are included. Amplification curves were generated by helicase dependent amplification (HDA), ccPCR or PCR. As detection system intercalating dyes (EvaGreen, SYBR Green) and hydrolysis probes (TaqMan) were used.</t>
+  </si>
+  <si>
+    <t>1.0-2</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=chipPCR</t>
+  </si>
+  <si>
+    <t>https://github.com/michbur/chipPCR</t>
+  </si>
+  <si>
+    <t>https://pcruniversum.github.io/chipPCR/</t>
+  </si>
+  <si>
+    <t>Excluded: focus on PCR data</t>
+  </si>
+  <si>
+    <t>yes?</t>
+  </si>
+  <si>
+    <t>Malkusch, S, Hahnefeld, L, Gurke, R, Lötsch, J. Visually guided preprocessing of bioanalytical laboratory data using an interactive R notebook (pguIMP). CPT Pharmacometrics Syst Pharmacol. 2021; 10: 1371– 1381. https://doi.org/10.1002/psp4.12704</t>
+  </si>
+  <si>
+    <t>pguIMP</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=pguIMP</t>
+  </si>
+  <si>
+    <t>0.0.0.3</t>
+  </si>
+  <si>
+    <t>GPL (≥ 3)</t>
+  </si>
+  <si>
+    <t>https://github.com/SMLMS/pguIMP</t>
+  </si>
+  <si>
+    <t>In collaboration between data scientists and experts in bioanalytical diagnostics, a graphical software package for data preprocessing called pguIMP is proposed, which contains a fixed sequence of preprocessing steps to enable reproducible interactive data preprocessing. As an R-based package, it also allows direct integration into this data science environment without requiring any programming knowledge. The implementation of contemporary data processing methods, including machine-learning-based imputation techniques, ensures the generation of corrected and cleaned bioanalytical data sets that preserve data structures such as clusters better than is possible with classical methods. This was evaluated on bioanalytical data sets from lipidomics and drug research using k-nearest-neighbors-based imputation followed by k-means clustering and density-based spatial clustering of applications with noise. The R package provides a Shiny-based web interface designed to be easy to use for non–data analysis experts. It is demonstrated that the spectrum of methods provided is suitable as a standard pipeline for preprocessing bioanalytical data in biomedical research domains.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central value (median, mode), </t>
+  </si>
+  <si>
+    <t>pairwise correlation</t>
+  </si>
+  <si>
+    <t>Empirical vs theoretical distributions</t>
+  </si>
+  <si>
+    <t>log Likelihood, imputation, data normalization, pairwise robust regression</t>
+  </si>
+  <si>
+    <t>R objects, xls, odf, R markdown, latex</t>
+  </si>
+  <si>
+    <t>To do: package installation error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checkmate </t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=checkmate</t>
+  </si>
+  <si>
+    <t>https://github.com/mllg/checkmate</t>
+  </si>
+  <si>
+    <t>BSD_3_clause + file LICENSE</t>
+  </si>
+  <si>
+    <t>Lang, M. (2017). checkmate: fast argument checks for Defensive R programming. The R Journal. 9:1, 437-445. https://doi.org/10.32614/RJ-2017-028</t>
+  </si>
+  <si>
+    <t>Tests and assertions to perform frequent argument checks. Virtually every standard type of user error when passing arguments into function can be caught with a simple, readable line which produces an informative error message in case. A substantial part of the package was written in C to minimize any worries about execution time overhead. Fur thermore, checkmate simplifies writing unit tests using the framework testthat (Wickham, 2011) by extending it with plenty of additional expectation functions, and registered C routines are available for package developers to perform assertions on arbitrary SEXPs (internal data structure for R objects implemented as struct in C) in compiled code.</t>
+  </si>
+  <si>
+    <t>Excluded: focus on argument checks / unit testing</t>
+  </si>
+  <si>
+    <t>assertthat</t>
+  </si>
+  <si>
+    <t>https://github.com/hadley/assertthat</t>
+  </si>
+  <si>
+    <t>An extension to stopifnot() that makes it easy to declare the pre and post conditions that you code should satisfy, while also producing friendly error messages so that your users know what's gone wrong.</t>
+  </si>
+  <si>
+    <t>0.2.1</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=assertthat</t>
+  </si>
+  <si>
+    <t>ensurer</t>
+  </si>
+  <si>
+    <t>ensurer is a utility package for R that provides a simple and light-weight mechanism for ensuring certain aspects of values at runtime. Using the magrittr pipe %&gt;% greatly improves semantics of the functionality provided by this package, but it is not necessary.
+This package is not meant as a substitute for unit testing, and great packages for this already exist, e.g. testthat by Hadley Wickham. The ensurer package is ideal for scripts or programs where runtime conditions may break the functionality, and where errors should be raised as soon and clear as possible. Although a side-effect, It is my experience that it also promotes better design decisions at outset, and helps catch coding errors early on.</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=ensurer</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/ensurer/vignettes/ensurer.html</t>
+  </si>
+  <si>
+    <t>Excluded: focus on argument checks at runtime</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=tester</t>
+  </si>
+  <si>
+    <t>https://github.com/gastonstat/tester</t>
+  </si>
+  <si>
+    <t>tester provides human readable functions to test characteristics of some common R objects. The main purpose behind tester is to help you validate objects, especially for programming and developing purposes (e.g. creating R packages)</t>
+  </si>
+  <si>
+    <t>0.1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exposomeShiny </t>
+  </si>
+  <si>
+    <t>Xavier Escriba-Montagut, Xavier Basagaña, Martine Vrijheid, Juan R Gonzalez, Software application profile: exposomeShiny—a toolbox for exposome data analysis, International Journal of Epidemiology, 2021;, dyab220, https://doi.org/10.1093/ije/dyab220</t>
+  </si>
+  <si>
+    <t>https://github.com/isglobal-brge/exposomeShiny</t>
+  </si>
+  <si>
+    <t>https://isglobal-brge.github.io/exposome_bookdown/</t>
+  </si>
+  <si>
+    <t>Excluded: focus on exposome analysis</t>
+  </si>
+  <si>
+    <t>standalone web application implemented in R, also available as a Docker image. Different types of analyses.</t>
+  </si>
+  <si>
+    <t>v1.4</t>
+  </si>
+  <si>
+    <t>≥ 4.0.2</t>
+  </si>
+  <si>
+    <t>ExposomeShiny is a standalone web application implemented in R (front end support for Bioconductor packages). It is available as source files and can be installed in any server or computer avoiding problems with data confidentiality. It is executed in RStudio which opens a browser window with the web application. The presented implementation allows the conduct of: (i) data pre-processing: normalization and missing imputation (including limit of detection); (ii) descriptive analysis; (iii) exposome principal component analysis (PCA) and hierarchical clustering; (iv) exposome-wide association studies (ExWAS) and variable selection ExWAS; (v) omic data integration by single association and multi-omic analyses; and (vi) post-exposome data analyses to gain biological insight for the exposures, genes or using the Comparative Toxicogenomics Database (CTD) and pathway analysis.</t>
+  </si>
+  <si>
+    <t>assertr</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=assertr</t>
+  </si>
+  <si>
+    <t>https://docs.ropensci.org/assertr/</t>
+  </si>
+  <si>
+    <t>https://github.com/ropensci/assertr</t>
+  </si>
+  <si>
+    <t>The assertr package supplies a suite of functions designed to verify assumptions about data early in an analysis pipeline so that data errors are spotted early and can be addressed quickly.</t>
+  </si>
+  <si>
+    <t>within_bounds</t>
+  </si>
+  <si>
+    <t>in_set</t>
+  </si>
+  <si>
+    <t>duplicated_across_cols</t>
+  </si>
+  <si>
+    <t>has_class</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> within_n_sds - used to dynamically create bounds to check vector elements with based on standard z-scores
+ within_n_mads - better method for dynamically creating bounds to check vector elements with based on 'robust' z-scores (using median absolute deviation)
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1760,6 +2314,12 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1794,7 +2354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1841,6 +2401,26 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2122,13 +2702,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV86"/>
+  <dimension ref="A1:BA87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AZ12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK6" sqref="AK6"/>
+      <selection pane="bottomRight" activeCell="BA18" sqref="BA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4"/>
@@ -2169,10 +2749,25 @@
     <col min="35" max="35" width="28.44140625" style="2" customWidth="1"/>
     <col min="36" max="36" width="24.109375" style="2" customWidth="1"/>
     <col min="37" max="37" width="22.77734375" style="2" customWidth="1"/>
-    <col min="38" max="16384" width="11" style="2"/>
+    <col min="38" max="38" width="24" style="2" customWidth="1"/>
+    <col min="39" max="39" width="26.5546875" style="2" customWidth="1"/>
+    <col min="40" max="40" width="26.6640625" style="2" customWidth="1"/>
+    <col min="41" max="41" width="27.77734375" style="2" customWidth="1"/>
+    <col min="42" max="42" width="24.33203125" style="2" customWidth="1"/>
+    <col min="43" max="43" width="31.5546875" style="2" customWidth="1"/>
+    <col min="44" max="44" width="26" style="2" customWidth="1"/>
+    <col min="45" max="45" width="26.109375" style="2" customWidth="1"/>
+    <col min="46" max="46" width="25.6640625" style="2" customWidth="1"/>
+    <col min="47" max="47" width="29.44140625" style="2" customWidth="1"/>
+    <col min="48" max="48" width="29.5546875" style="2" customWidth="1"/>
+    <col min="49" max="49" width="26.88671875" style="2" customWidth="1"/>
+    <col min="50" max="50" width="25.6640625" style="2" customWidth="1"/>
+    <col min="51" max="52" width="28.33203125" style="2" customWidth="1"/>
+    <col min="53" max="53" width="25.21875" style="2" customWidth="1"/>
+    <col min="54" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:48" s="4" customFormat="1">
+    <row r="1" spans="2:53" s="4" customFormat="1">
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
@@ -2314,8 +2909,23 @@
       <c r="AV1" s="4" t="s">
         <v>390</v>
       </c>
+      <c r="AW1" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>580</v>
+      </c>
     </row>
-    <row r="2" spans="2:48">
+    <row r="2" spans="2:53" ht="28.8">
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
@@ -2424,8 +3034,56 @@
       <c r="AK2" s="2" t="s">
         <v>529</v>
       </c>
+      <c r="AL2" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>691</v>
+      </c>
     </row>
-    <row r="3" spans="2:48">
+    <row r="3" spans="2:53">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2534,8 +3192,56 @@
       <c r="AK3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="AL3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="2:48">
+    <row r="4" spans="2:53">
       <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
@@ -2644,8 +3350,56 @@
       <c r="AK4" s="2" t="s">
         <v>530</v>
       </c>
+      <c r="AL4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>552</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>585</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>552</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>604</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>367</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>367</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>689</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>200</v>
+      </c>
     </row>
-    <row r="5" spans="2:48">
+    <row r="5" spans="2:53">
       <c r="B5" s="8" t="s">
         <v>77</v>
       </c>
@@ -2754,8 +3508,53 @@
       <c r="AK5" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="AL5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="2:48">
+    <row r="6" spans="2:53">
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2864,8 +3663,56 @@
       <c r="AK6" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AL6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="2:48" ht="28.8">
+    <row r="7" spans="2:53" ht="28.8">
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -2974,8 +3821,53 @@
       <c r="AK7" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AL7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA7" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="2:48" ht="28.8">
+    <row r="8" spans="2:53" ht="28.8">
       <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
@@ -3081,8 +3973,50 @@
       <c r="AK8" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AL8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA8" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="9" spans="2:48" ht="246" customHeight="1">
+    <row r="9" spans="2:53" ht="246" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -3191,12 +4125,56 @@
       <c r="AK9" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
+      <c r="AL9" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="AM9" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="AN9" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="AO9" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="AP9" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="AQ9" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="AR9" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="AS9" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="AT9" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="AU9" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="AV9" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="AW9" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="AX9" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="AY9" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="AZ9" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="BA9" s="7" t="s">
+        <v>695</v>
+      </c>
     </row>
-    <row r="10" spans="2:48">
+    <row r="10" spans="2:53">
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
@@ -3305,8 +4283,56 @@
       <c r="AK10" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="AL10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA10" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="2:48" ht="28.8">
+    <row r="11" spans="2:53" ht="28.8">
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
@@ -3415,8 +4441,56 @@
       <c r="AK11" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="AL11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA11" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="12" spans="2:48" ht="115.2">
+    <row r="12" spans="2:53" ht="115.2">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -3525,8 +4599,56 @@
       <c r="AK12" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="AL12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA12" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="13" spans="2:48" ht="29.25" customHeight="1">
+    <row r="13" spans="2:53" ht="29.25" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
@@ -3608,8 +4730,33 @@
       <c r="AI13" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="AL13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA13"/>
     </row>
-    <row r="14" spans="2:48" ht="28.8">
+    <row r="14" spans="2:53" ht="28.8">
       <c r="B14" s="2" t="s">
         <v>45</v>
       </c>
@@ -3694,8 +4841,32 @@
       <c r="AI14" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="AL14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU14" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="2:48" ht="28.8">
+    <row r="15" spans="2:53" ht="28.8">
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
@@ -3780,8 +4951,32 @@
       <c r="AI15" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AL15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU15" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="16" spans="2:48" ht="27.6" customHeight="1">
+    <row r="16" spans="2:53" ht="27.6" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -3866,8 +5061,35 @@
       <c r="AI16" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="AL16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU16" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="17" spans="2:37" ht="151.19999999999999" customHeight="1">
+    <row r="17" spans="2:53" ht="151.19999999999999" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
@@ -3952,8 +5174,29 @@
       <c r="AJ17" s="7" t="s">
         <v>526</v>
       </c>
+      <c r="AL17" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="AM17" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="AN17" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AQ17" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="AS17" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="AU17" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="BA17" s="2" t="s">
+        <v>700</v>
+      </c>
     </row>
-    <row r="18" spans="2:37" ht="28.8">
+    <row r="18" spans="2:53" ht="28.8">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -4056,8 +5299,47 @@
       <c r="AK18" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="AL18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS18" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AU18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY18" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="19" spans="2:37" ht="28.8">
+    <row r="19" spans="2:53" ht="28.8">
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
@@ -4160,8 +5442,47 @@
       <c r="AK19" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="AL19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS19" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="AU19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY19" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="20" spans="2:37" ht="28.8">
+    <row r="20" spans="2:53" ht="28.8">
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
@@ -4264,8 +5585,47 @@
       <c r="AK20" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AL20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY20" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="21" spans="2:37" ht="28.8">
+    <row r="21" spans="2:53" ht="28.8">
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
@@ -4374,8 +5734,38 @@
       <c r="AK21" s="2" t="s">
         <v>236</v>
       </c>
+      <c r="AL21" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="AM21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AO21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AP21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AQ21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR21" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="AS21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AU21" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="BA21" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
-    <row r="22" spans="2:37" ht="28.8">
+    <row r="22" spans="2:53" ht="28.8">
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
@@ -4481,8 +5871,50 @@
       <c r="AK22" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="AL22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA22" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="23" spans="2:37" ht="28.8">
+    <row r="23" spans="2:53" ht="28.8">
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
@@ -4585,8 +6017,47 @@
       <c r="AJ23" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="AL23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS23" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="AU23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY23" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="24" spans="2:37" ht="28.8">
+    <row r="24" spans="2:53" ht="28.8">
       <c r="B24" s="2" t="s">
         <v>39</v>
       </c>
@@ -4689,8 +6160,50 @@
       <c r="AJ24" s="2" t="s">
         <v>528</v>
       </c>
+      <c r="AL24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA24" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="25" spans="2:37" ht="90" customHeight="1">
+    <row r="25" spans="2:53" ht="90" customHeight="1">
       <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
@@ -4768,8 +6281,44 @@
       <c r="AK25" s="7" t="s">
         <v>533</v>
       </c>
+      <c r="AL25" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="AM25" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="AN25" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="AO25" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="AP25" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="AQ25" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="AR25" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="AS25" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="AT25" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="AU25" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="AV25" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="AZ25" s="2" t="s">
+        <v>683</v>
+      </c>
     </row>
-    <row r="26" spans="2:37" ht="43.2">
+    <row r="26" spans="2:53" ht="43.2">
       <c r="B26" s="2" t="s">
         <v>137</v>
       </c>
@@ -4851,8 +6400,41 @@
       <c r="AK26" s="3" t="s">
         <v>532</v>
       </c>
+      <c r="AL26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN26" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="AO26" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="AR26" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="AT26" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="AU26" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="AV26" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="AW26" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="AX26" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="AY26" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="BA26" s="2" t="s">
+        <v>692</v>
+      </c>
     </row>
-    <row r="27" spans="2:37" ht="43.2">
+    <row r="27" spans="2:53" ht="43.2">
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
@@ -4934,8 +6516,38 @@
       <c r="AK27" s="3" t="s">
         <v>537</v>
       </c>
+      <c r="AL27" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="AM27" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="AN27" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="AO27" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="AP27" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="AR27" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="AS27" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="AT27" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="AZ27" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="BA27" s="2" t="s">
+        <v>693</v>
+      </c>
     </row>
-    <row r="28" spans="2:37" ht="28.8">
+    <row r="28" spans="2:53" ht="28.8">
       <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
@@ -5038,8 +6650,53 @@
       <c r="AK28" s="3" t="s">
         <v>536</v>
       </c>
+      <c r="AL28" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="AM28" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="AN28" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="AO28" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="AP28" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="AQ28" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="AR28" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="AS28" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="AT28" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="AU28" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="AV28" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="AW28" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="AY28" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="AZ28" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="BA28" s="2" t="s">
+        <v>694</v>
+      </c>
     </row>
-    <row r="29" spans="2:37" ht="43.2">
+    <row r="29" spans="2:53" ht="172.8">
       <c r="D29" s="3" t="s">
         <v>140</v>
       </c>
@@ -5057,11 +6714,26 @@
       <c r="AA29" s="3" t="s">
         <v>375</v>
       </c>
+      <c r="AL29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN29" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="AO29" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="AX29" s="2" t="s">
+        <v>675</v>
+      </c>
     </row>
-    <row r="30" spans="2:37">
+    <row r="30" spans="2:53" ht="28.8">
       <c r="D30" s="3"/>
+      <c r="AO30" s="2" t="s">
+        <v>589</v>
+      </c>
     </row>
-    <row r="31" spans="2:37">
+    <row r="31" spans="2:53" ht="28.8">
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
@@ -5167,8 +6839,53 @@
       <c r="AK31" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="AL31" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM31" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="AN31" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="AO31" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="AP31" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="AQ31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR31" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS31" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT31" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU31" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>663</v>
+      </c>
+      <c r="AW31" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>231</v>
+      </c>
+      <c r="AY31" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>231</v>
+      </c>
     </row>
-    <row r="32" spans="2:37">
+    <row r="32" spans="2:53">
       <c r="B32" s="8" t="s">
         <v>78</v>
       </c>
@@ -5275,8 +6992,56 @@
       <c r="AK32" s="13">
         <v>42909</v>
       </c>
+      <c r="AL32" s="13">
+        <v>43110</v>
+      </c>
+      <c r="AM32" s="13">
+        <v>43683</v>
+      </c>
+      <c r="AN32" s="13">
+        <v>42956</v>
+      </c>
+      <c r="AO32" s="13">
+        <v>42201</v>
+      </c>
+      <c r="AP32" s="22">
+        <v>40210</v>
+      </c>
+      <c r="AQ32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR32" s="13">
+        <v>43799</v>
+      </c>
+      <c r="AS32" s="24">
+        <v>42768</v>
+      </c>
+      <c r="AT32" s="13">
+        <v>41620</v>
+      </c>
+      <c r="AU32" s="13">
+        <v>44378</v>
+      </c>
+      <c r="AV32" s="13">
+        <v>41807</v>
+      </c>
+      <c r="AW32" s="13">
+        <v>41614</v>
+      </c>
+      <c r="AX32" s="13">
+        <v>41961</v>
+      </c>
+      <c r="AY32" s="13">
+        <v>41467</v>
+      </c>
+      <c r="AZ32" s="24">
+        <v>44075</v>
+      </c>
+      <c r="BA32" s="13">
+        <v>42087</v>
+      </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:53">
       <c r="B33" s="8" t="s">
         <v>118</v>
       </c>
@@ -5385,8 +7150,56 @@
       <c r="AK33" s="13">
         <v>44344</v>
       </c>
+      <c r="AL33" s="13">
+        <v>44262</v>
+      </c>
+      <c r="AM33" s="18">
+        <v>43991</v>
+      </c>
+      <c r="AN33" s="13">
+        <v>44330</v>
+      </c>
+      <c r="AO33" s="13">
+        <v>43607</v>
+      </c>
+      <c r="AP33" s="13">
+        <v>44368</v>
+      </c>
+      <c r="AQ33" s="13">
+        <v>42090</v>
+      </c>
+      <c r="AR33" s="13">
+        <v>44288</v>
+      </c>
+      <c r="AS33" s="13">
+        <v>43085</v>
+      </c>
+      <c r="AT33" s="13">
+        <v>44260</v>
+      </c>
+      <c r="AU33" s="13">
+        <v>44469</v>
+      </c>
+      <c r="AV33" s="13">
+        <v>43867</v>
+      </c>
+      <c r="AW33" s="13">
+        <v>43545</v>
+      </c>
+      <c r="AX33" s="13">
+        <v>42115</v>
+      </c>
+      <c r="AY33" s="13">
+        <v>41592</v>
+      </c>
+      <c r="AZ33" s="24">
+        <v>44257</v>
+      </c>
+      <c r="BA33" s="13">
+        <v>44221</v>
+      </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:53">
       <c r="B34" s="2" t="s">
         <v>117</v>
       </c>
@@ -5495,11 +7308,62 @@
       <c r="AK34" t="s">
         <v>531</v>
       </c>
+      <c r="AL34" t="s">
+        <v>539</v>
+      </c>
+      <c r="AM34" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="AN34" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>591</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>596</v>
+      </c>
+      <c r="AQ34" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>617</v>
+      </c>
+      <c r="AS34" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>641</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>650</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>670</v>
+      </c>
+      <c r="AX34">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>681</v>
+      </c>
+      <c r="AZ34" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="BA34">
+        <v>2.8</v>
+      </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:53">
       <c r="B36" t="s">
         <v>476</v>
       </c>
+      <c r="C36" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="AF36" s="2" t="s">
         <v>13</v>
       </c>
@@ -5509,11 +7373,26 @@
       <c r="AJ36" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="AL36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN36" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="AO36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ36" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="37" spans="1:37" ht="126" customHeight="1">
+    <row r="37" spans="1:53" ht="126" customHeight="1">
       <c r="B37" s="2" t="s">
         <v>273</v>
       </c>
+      <c r="C37" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E37" s="5" t="s">
         <v>402</v>
       </c>
@@ -5553,8 +7432,32 @@
       <c r="AI37" s="2" t="s">
         <v>517</v>
       </c>
+      <c r="AL37" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="AN37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ37" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="AR37" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="AU37" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="AV37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW37" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="38" spans="1:37" ht="86.4">
+    <row r="38" spans="1:53" ht="86.4">
       <c r="B38" s="2" t="s">
         <v>233</v>
       </c>
@@ -5613,704 +7516,858 @@
       <c r="AC38" s="2" t="s">
         <v>435</v>
       </c>
+      <c r="AI38" s="20" t="s">
+        <v>527</v>
+      </c>
       <c r="AJ38" s="17" t="s">
         <v>527</v>
       </c>
       <c r="AK38" s="2" t="s">
         <v>534</v>
       </c>
+      <c r="AL38" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="AM38" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AN38" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AO38" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AP38" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="AS38" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AT38" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="AU38" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="AV38" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="AW38" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="AX38" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="AY38" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="AZ38" s="2" t="s">
+        <v>686</v>
+      </c>
     </row>
-    <row r="40" spans="1:37">
-      <c r="D40" s="9"/>
-      <c r="AJ40" s="1"/>
+    <row r="39" spans="1:53" ht="57.6">
+      <c r="B39" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="AI39" s="20"/>
+      <c r="AJ39" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="AL39" s="20"/>
+      <c r="AM39" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="AN39" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="AO39" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="AP39" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AR39" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="AS39" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="AZ39" s="2" t="s">
+        <v>687</v>
+      </c>
     </row>
-    <row r="41" spans="1:37">
-      <c r="B41" s="1" t="s">
+    <row r="41" spans="1:53">
+      <c r="D41" s="9"/>
+      <c r="AJ41" s="1"/>
+    </row>
+    <row r="42" spans="1:53">
+      <c r="B42" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
-      <c r="B42" s="11" t="s">
+    <row r="43" spans="1:53">
+      <c r="B43" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
-      <c r="A43" s="2">
+    <row r="44" spans="1:53">
+      <c r="A44" s="2">
         <v>1</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="AB43" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="AF43" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="AG43" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="AH43" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="AI43" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="44" spans="1:37">
-      <c r="A44" s="2">
-        <v>2</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="AA44" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="AB44" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="AC44" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="AD44" s="2" t="s">
-        <v>448</v>
-      </c>
       <c r="AF44" s="16" t="s">
         <v>482</v>
       </c>
+      <c r="AG44" s="2" t="s">
+        <v>492</v>
+      </c>
       <c r="AH44" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="AI44" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="AL44" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="45" spans="1:53">
+      <c r="A45" s="2">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA45" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="AB45" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AC45" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD45" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="AF45" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="AH45" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="AI44" s="2" t="s">
+      <c r="AI45" s="2" t="s">
         <v>515</v>
       </c>
+      <c r="AL45" s="2" t="s">
+        <v>492</v>
+      </c>
     </row>
-    <row r="45" spans="1:37">
-      <c r="A45" s="2">
+    <row r="46" spans="1:53">
+      <c r="A46" s="2">
         <v>3</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="U45" s="2" t="s">
+      <c r="U46" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="AA45" s="2" t="s">
+      <c r="AA46" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="AI45" s="2" t="s">
+      <c r="AI46" s="2" t="s">
         <v>516</v>
       </c>
+      <c r="BA46" s="2" t="s">
+        <v>698</v>
+      </c>
     </row>
-    <row r="46" spans="1:37">
-      <c r="A46" s="2">
+    <row r="47" spans="1:53">
+      <c r="A47" s="2">
         <v>4</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="W46" s="2" t="s">
+      <c r="W47" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="AA46" s="2" t="s">
+      <c r="AA47" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
-      <c r="A47" s="2">
+    <row r="48" spans="1:53">
+      <c r="A48" s="2">
         <v>5</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W47" s="2" t="s">
+      <c r="W48" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
-      <c r="A48" s="2">
+    <row r="49" spans="1:53">
+      <c r="A49" s="2">
         <v>6</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="W48" s="2" t="s">
+      <c r="W49" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="Z48" s="2" t="s">
+      <c r="Z49" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="AA48" s="2" t="s">
+      <c r="AA49" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="AC48" s="2" t="s">
+      <c r="AC49" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="AE48" s="2" t="s">
+      <c r="AE49" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="AF48" s="2" t="s">
+      <c r="AF49" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="AG48" s="2" t="s">
+      <c r="AG49" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="AH48" s="2" t="s">
+      <c r="AH49" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="AI48" s="2" t="s">
+      <c r="AI49" s="2" t="s">
         <v>458</v>
       </c>
+      <c r="AL49" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="AQ49" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="AS49" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="BA49" s="2" t="s">
+        <v>699</v>
+      </c>
     </row>
-    <row r="49" spans="1:35">
-      <c r="A49" s="2">
+    <row r="50" spans="1:53">
+      <c r="A50" s="2">
         <v>7</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="50" spans="1:35">
-      <c r="A50" s="2">
+    <row r="51" spans="1:53">
+      <c r="A51" s="2">
         <v>8</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:35">
-      <c r="E51" s="2" t="s">
+    <row r="52" spans="1:53">
+      <c r="E52" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="M51" s="2" t="s">
+      <c r="M52" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="W51" s="2" t="s">
+      <c r="W52" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="Z51" s="2" t="s">
+      <c r="Z52" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="AC51" s="2" t="s">
+      <c r="AC52" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="AE51" s="2" t="s">
+      <c r="AE52" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="AF51" s="2" t="s">
+      <c r="AF52" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="AL52" s="2" t="s">
+        <v>546</v>
+      </c>
     </row>
-    <row r="52" spans="1:35" ht="28.8">
-      <c r="E52" s="2" t="s">
+    <row r="53" spans="1:53" ht="28.8">
+      <c r="E53" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AF52" t="s">
+      <c r="AF53" t="s">
         <v>483</v>
       </c>
+      <c r="AL53" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="AQ53" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="AS53" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="BA53" s="2" t="s">
+        <v>478</v>
+      </c>
     </row>
-    <row r="53" spans="1:35">
-      <c r="E53" s="2" t="s">
+    <row r="54" spans="1:53">
+      <c r="E54" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AF53" s="2" t="s">
+      <c r="AF54" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="AI53" s="2" t="s">
+      <c r="AI54" s="2" t="s">
         <v>513</v>
       </c>
+      <c r="AL54" s="2" t="s">
+        <v>550</v>
+      </c>
     </row>
-    <row r="54" spans="1:35">
-      <c r="J54" s="2" t="s">
+    <row r="55" spans="1:53">
+      <c r="J55" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:35">
-      <c r="B55" s="11" t="s">
+    <row r="56" spans="1:53">
+      <c r="B56" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:35" ht="28.8">
-      <c r="A56" s="2">
+    <row r="57" spans="1:53" ht="28.8">
+      <c r="A57" s="2">
         <v>9</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="M56" s="2" t="s">
+      <c r="M57" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="V56" s="2" t="s">
+      <c r="V57" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="W56" s="2" t="s">
+      <c r="W57" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="Z56" s="2" t="s">
+      <c r="Z57" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AA56" s="2" t="s">
+      <c r="AA57" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="AB56" s="2" t="s">
+      <c r="AB57" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="AC56" s="2" t="s">
+      <c r="AC57" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="AE56" s="2" t="s">
+      <c r="AE57" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="AF56" s="2" t="s">
+      <c r="AF57" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="AG56" s="2" t="s">
+      <c r="AG57" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="AH56" s="2" t="s">
+      <c r="AH57" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="AI56" s="2" t="s">
+      <c r="AI57" s="2" t="s">
         <v>429</v>
       </c>
+      <c r="AL57" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="AN57" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="AQ57" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="AR57" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="AS57" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="AU57" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="BA57" s="2" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="57" spans="1:35">
-      <c r="A57" s="2">
+    <row r="58" spans="1:53">
+      <c r="A58" s="2">
         <v>10</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:35">
-      <c r="A58" s="2">
+    <row r="59" spans="1:53">
+      <c r="A59" s="2">
         <v>11</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:35">
-      <c r="A59" s="2">
+    <row r="60" spans="1:53">
+      <c r="A60" s="2">
         <v>12</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:35" ht="28.8">
-      <c r="A60" s="2">
-        <v>13</v>
-      </c>
-      <c r="B60" s="2" t="s">
+    <row r="61" spans="1:53" ht="28.8">
+      <c r="A61" s="2">
+        <v>13</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="K61" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:35">
-      <c r="B62" s="11" t="s">
+    <row r="63" spans="1:53">
+      <c r="B63" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:35" ht="28.8">
-      <c r="A63" s="2">
+    <row r="64" spans="1:53" ht="28.8">
+      <c r="A64" s="2">
         <v>14</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="AS64" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="BA64" s="2" t="s">
+        <v>696</v>
+      </c>
     </row>
-    <row r="64" spans="1:35">
-      <c r="A64" s="2">
-        <v>15</v>
-      </c>
-      <c r="B64" s="2" t="s">
+    <row r="65" spans="1:53">
+      <c r="A65" s="2">
+        <v>15</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J65" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="AS65" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="BA65" s="2" t="s">
+        <v>696</v>
+      </c>
     </row>
-    <row r="65" spans="1:35" ht="28.8">
-      <c r="A65" s="2">
+    <row r="66" spans="1:53" ht="28.8">
+      <c r="A66" s="2">
         <v>16</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="BA66" s="2" t="s">
+        <v>697</v>
+      </c>
     </row>
-    <row r="66" spans="1:35" ht="28.8">
-      <c r="A66" s="2">
+    <row r="67" spans="1:53" ht="28.8">
+      <c r="A67" s="2">
         <v>17</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:35">
-      <c r="A67" s="2">
+    <row r="68" spans="1:53">
+      <c r="A68" s="2">
         <v>18</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:35" ht="28.8">
-      <c r="A68" s="2">
-        <v>19</v>
-      </c>
-      <c r="B68" s="2" t="s">
+    <row r="69" spans="1:53" ht="28.8">
+      <c r="A69" s="2">
+        <v>19</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="AS69" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="BA69" s="2" t="s">
+        <v>696</v>
+      </c>
     </row>
-    <row r="69" spans="1:35">
-      <c r="A69" s="2">
+    <row r="70" spans="1:53">
+      <c r="A70" s="2">
         <v>20</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="BA70" s="2" t="s">
+        <v>696</v>
+      </c>
     </row>
-    <row r="70" spans="1:35" ht="28.8">
-      <c r="A70" s="2">
+    <row r="71" spans="1:53" ht="28.8">
+      <c r="A71" s="2">
         <v>21</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J71" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:35">
-      <c r="A71" s="2">
+    <row r="72" spans="1:53">
+      <c r="A72" s="2">
         <v>22</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:35">
-      <c r="J72" s="2" t="s">
+    <row r="73" spans="1:53">
+      <c r="J73" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:35">
-      <c r="B74" s="11" t="s">
+    <row r="75" spans="1:53">
+      <c r="B75" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:35">
-      <c r="A75" s="2">
+    <row r="76" spans="1:53">
+      <c r="A76" s="2">
         <v>23</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="K76" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="W75" s="2" t="s">
+      <c r="W76" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="AC75" s="2" t="s">
+      <c r="AC76" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="AD75" t="s">
+      <c r="AD76" t="s">
         <v>449</v>
       </c>
-      <c r="AE75" s="2" t="s">
+      <c r="AE76" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="AF75" s="2" t="s">
+      <c r="AF76" s="2" t="s">
         <v>440</v>
       </c>
+      <c r="AQ76" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="AU76" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="BA76" s="2" t="s">
+        <v>610</v>
+      </c>
     </row>
-    <row r="76" spans="1:35">
-      <c r="A76" s="2">
+    <row r="77" spans="1:53">
+      <c r="A77" s="2">
         <v>24</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:35">
-      <c r="A77" s="2">
+    <row r="78" spans="1:53">
+      <c r="A78" s="2">
         <v>25</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:35">
-      <c r="A78" s="2">
+    <row r="79" spans="1:53" ht="28.8">
+      <c r="A79" s="2">
         <v>26</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="K79" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="V78" s="2" t="s">
+      <c r="V79" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="W78" s="2" t="s">
+      <c r="W79" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="AD78" s="2" t="s">
+      <c r="AD79" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="AE78" s="2" t="s">
+      <c r="AE79" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="AF78" s="2" t="s">
+      <c r="AF79" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="AG78" s="2" t="s">
+      <c r="AG79" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="AI78" s="2" t="s">
+      <c r="AI79" s="2" t="s">
         <v>414</v>
       </c>
+      <c r="AL79" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="AN79" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR79" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="AU79" s="2" t="s">
+        <v>656</v>
+      </c>
     </row>
-    <row r="79" spans="1:35">
-      <c r="A79" s="2">
+    <row r="80" spans="1:53">
+      <c r="A80" s="2">
         <v>27</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="AL80" s="2" t="s">
+        <v>414</v>
+      </c>
     </row>
-    <row r="80" spans="1:35">
-      <c r="A80" s="2">
+    <row r="81" spans="1:47">
+      <c r="A81" s="2">
         <v>28</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:34" ht="18" customHeight="1">
-      <c r="A81" s="2">
+    <row r="82" spans="1:47" ht="18" customHeight="1">
+      <c r="A82" s="2">
         <v>29</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="V81" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="AD81" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="AE81" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="AF81" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="AG81" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="AH81" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="82" spans="1:34" ht="16.5" customHeight="1">
-      <c r="A82" s="2">
-        <v>30</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>467</v>
@@ -6333,57 +8390,101 @@
       <c r="AH82" s="2" t="s">
         <v>505</v>
       </c>
+      <c r="AM82" t="s">
+        <v>559</v>
+      </c>
+      <c r="AU82" s="25" t="s">
+        <v>655</v>
+      </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:47" ht="16.5" customHeight="1">
       <c r="A83" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>467</v>
       </c>
+      <c r="V83" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="AD83" s="2" t="s">
         <v>450</v>
       </c>
       <c r="AE83" s="2" t="s">
         <v>466</v>
       </c>
+      <c r="AF83" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="AG83" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AH83" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>559</v>
+      </c>
+      <c r="AU83" s="25" t="s">
+        <v>655</v>
+      </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:47">
       <c r="A84" s="2">
+        <v>31</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="AD84" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE84" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="85" spans="1:47">
+      <c r="A85" s="2">
         <v>32</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
-      <c r="A85" s="2">
+    <row r="86" spans="1:47">
+      <c r="A86" s="2">
         <v>33</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
-      <c r="A86" s="2">
+    <row r="87" spans="1:47">
+      <c r="A87" s="2">
         <v>34</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6457,8 +8558,8 @@
     <hyperlink ref="AB26" r:id="rId66"/>
     <hyperlink ref="AB28" r:id="rId67"/>
     <hyperlink ref="AB27" r:id="rId68"/>
-    <hyperlink ref="AB43" r:id="rId69" display="https://mayoverse.github.io/arsenal/reference/comparedf.html"/>
-    <hyperlink ref="AB44" r:id="rId70" display="https://mayoverse.github.io/arsenal/reference/comparedf.html"/>
+    <hyperlink ref="AB44" r:id="rId69" display="https://mayoverse.github.io/arsenal/reference/comparedf.html"/>
+    <hyperlink ref="AB45" r:id="rId70" display="https://mayoverse.github.io/arsenal/reference/comparedf.html"/>
     <hyperlink ref="AC28" r:id="rId71"/>
     <hyperlink ref="AC26" r:id="rId72"/>
     <hyperlink ref="AD27" r:id="rId73"/>
@@ -6477,8 +8578,13 @@
     <hyperlink ref="AK26" r:id="rId86"/>
     <hyperlink ref="AK28" r:id="rId87"/>
     <hyperlink ref="AK27" r:id="rId88"/>
+    <hyperlink ref="AL28" r:id="rId89"/>
+    <hyperlink ref="AN26" r:id="rId90"/>
+    <hyperlink ref="AN27" r:id="rId91"/>
+    <hyperlink ref="AN28" r:id="rId92"/>
+    <hyperlink ref="AS27" r:id="rId93"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId89"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId94"/>
 </worksheet>
 </file>
--- a/Data quality revision R overview v01.xlsx
+++ b/Data quality revision R overview v01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="2676" tabRatio="169"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="2670" tabRatio="169"/>
   </bookViews>
   <sheets>
     <sheet name="Tools" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="704">
   <si>
     <t>Acronym (falls vorhanden)</t>
   </si>
@@ -2252,6 +2252,15 @@
  within_n_mads - better method for dynamically creating bounds to check vector elements with based on 'robust' z-scores (using median absolute deviation)
 </t>
   </si>
+  <si>
+    <t>verify(nrow())</t>
+  </si>
+  <si>
+    <t>has_all_names - verify strict names</t>
+  </si>
+  <si>
+    <t>Custom check functions can be programmed</t>
+  </si>
 </sst>
 </file>
 
@@ -2259,7 +2268,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -2416,7 +2425,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2705,65 +2714,65 @@
   <dimension ref="A1:BA87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AZ12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AZ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BA18" sqref="BA18"/>
+      <selection pane="bottomRight" activeCell="BB9" sqref="BB9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="47" style="2" customWidth="1"/>
-    <col min="5" max="5" width="43.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="46.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.5546875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="38.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="46.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="38.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="42" style="2" customWidth="1"/>
-    <col min="11" max="11" width="40.44140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="32.44140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="33.6640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="34.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="38.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="32.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="31.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="32.6640625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="36.44140625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="33.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="40.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="32.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="33.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="34.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="38.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="32.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="31.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="32.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="36.42578125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="33.28515625" style="2" customWidth="1"/>
     <col min="21" max="21" width="34" style="2" customWidth="1"/>
-    <col min="22" max="22" width="33.33203125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="38.6640625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="34.44140625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="33.28515625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="38.7109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="34.42578125" style="2" customWidth="1"/>
     <col min="25" max="25" width="33" style="2" customWidth="1"/>
-    <col min="26" max="26" width="33.88671875" style="2" customWidth="1"/>
-    <col min="27" max="27" width="32.88671875" style="2" customWidth="1"/>
-    <col min="28" max="28" width="36.44140625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="32.6640625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="32.5546875" style="2" customWidth="1"/>
-    <col min="31" max="31" width="37.33203125" style="2" customWidth="1"/>
-    <col min="32" max="32" width="38.44140625" style="2" customWidth="1"/>
-    <col min="33" max="33" width="33.109375" style="2" customWidth="1"/>
-    <col min="34" max="34" width="32.88671875" style="2" customWidth="1"/>
-    <col min="35" max="35" width="28.44140625" style="2" customWidth="1"/>
-    <col min="36" max="36" width="24.109375" style="2" customWidth="1"/>
-    <col min="37" max="37" width="22.77734375" style="2" customWidth="1"/>
+    <col min="26" max="26" width="33.85546875" style="2" customWidth="1"/>
+    <col min="27" max="27" width="32.85546875" style="2" customWidth="1"/>
+    <col min="28" max="28" width="36.42578125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="32.7109375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="32.5703125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="37.28515625" style="2" customWidth="1"/>
+    <col min="32" max="32" width="38.42578125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="33.140625" style="2" customWidth="1"/>
+    <col min="34" max="34" width="32.85546875" style="2" customWidth="1"/>
+    <col min="35" max="35" width="28.42578125" style="2" customWidth="1"/>
+    <col min="36" max="36" width="24.140625" style="2" customWidth="1"/>
+    <col min="37" max="37" width="22.7109375" style="2" customWidth="1"/>
     <col min="38" max="38" width="24" style="2" customWidth="1"/>
-    <col min="39" max="39" width="26.5546875" style="2" customWidth="1"/>
-    <col min="40" max="40" width="26.6640625" style="2" customWidth="1"/>
-    <col min="41" max="41" width="27.77734375" style="2" customWidth="1"/>
-    <col min="42" max="42" width="24.33203125" style="2" customWidth="1"/>
-    <col min="43" max="43" width="31.5546875" style="2" customWidth="1"/>
+    <col min="39" max="39" width="26.5703125" style="2" customWidth="1"/>
+    <col min="40" max="40" width="26.7109375" style="2" customWidth="1"/>
+    <col min="41" max="41" width="27.7109375" style="2" customWidth="1"/>
+    <col min="42" max="42" width="24.28515625" style="2" customWidth="1"/>
+    <col min="43" max="43" width="31.5703125" style="2" customWidth="1"/>
     <col min="44" max="44" width="26" style="2" customWidth="1"/>
-    <col min="45" max="45" width="26.109375" style="2" customWidth="1"/>
-    <col min="46" max="46" width="25.6640625" style="2" customWidth="1"/>
-    <col min="47" max="47" width="29.44140625" style="2" customWidth="1"/>
-    <col min="48" max="48" width="29.5546875" style="2" customWidth="1"/>
-    <col min="49" max="49" width="26.88671875" style="2" customWidth="1"/>
-    <col min="50" max="50" width="25.6640625" style="2" customWidth="1"/>
-    <col min="51" max="52" width="28.33203125" style="2" customWidth="1"/>
-    <col min="53" max="53" width="25.21875" style="2" customWidth="1"/>
+    <col min="45" max="45" width="26.140625" style="2" customWidth="1"/>
+    <col min="46" max="46" width="25.7109375" style="2" customWidth="1"/>
+    <col min="47" max="47" width="29.42578125" style="2" customWidth="1"/>
+    <col min="48" max="48" width="29.5703125" style="2" customWidth="1"/>
+    <col min="49" max="49" width="26.85546875" style="2" customWidth="1"/>
+    <col min="50" max="50" width="25.7109375" style="2" customWidth="1"/>
+    <col min="51" max="52" width="28.28515625" style="2" customWidth="1"/>
+    <col min="53" max="53" width="25.28515625" style="2" customWidth="1"/>
     <col min="54" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
@@ -2925,7 +2934,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="2" spans="2:53" ht="28.8">
+    <row r="2" spans="2:53" ht="30">
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
@@ -3712,7 +3721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:53" ht="28.8">
+    <row r="7" spans="2:53" ht="45">
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -3867,7 +3876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:53" ht="28.8">
+    <row r="8" spans="2:53" ht="30">
       <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
@@ -4174,7 +4183,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="10" spans="2:53">
+    <row r="10" spans="2:53" ht="30">
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
@@ -4332,7 +4341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:53" ht="28.8">
+    <row r="11" spans="2:53" ht="30">
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
@@ -4490,7 +4499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:53" ht="115.2">
+    <row r="12" spans="2:53" ht="135">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -4754,9 +4763,11 @@
       <c r="AU13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="BA13"/>
+      <c r="BA13" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="14" spans="2:53" ht="28.8">
+    <row r="14" spans="2:53" ht="30">
       <c r="B14" s="2" t="s">
         <v>45</v>
       </c>
@@ -4865,8 +4876,11 @@
       <c r="AU14" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="BA14" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="2:53" ht="28.8">
+    <row r="15" spans="2:53" ht="30">
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
@@ -4974,6 +4988,9 @@
       </c>
       <c r="AU15" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="BA15" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:53" ht="27.6" customHeight="1">
@@ -5088,8 +5105,11 @@
       <c r="AU16" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="BA16" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="17" spans="2:53" ht="151.19999999999999" customHeight="1">
+    <row r="17" spans="2:53" ht="151.15" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
@@ -5196,7 +5216,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="2:53" ht="28.8">
+    <row r="18" spans="2:53" ht="30">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -5339,7 +5359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:53" ht="28.8">
+    <row r="19" spans="2:53" ht="45">
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
@@ -5482,7 +5502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:53" ht="28.8">
+    <row r="20" spans="2:53" ht="30">
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
@@ -5625,7 +5645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:53" ht="28.8">
+    <row r="21" spans="2:53" ht="30">
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
@@ -5765,7 +5785,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="2:53" ht="28.8">
+    <row r="22" spans="2:53" ht="30">
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
@@ -5914,7 +5934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:53" ht="28.8">
+    <row r="23" spans="2:53" ht="30">
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
@@ -6057,7 +6077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:53" ht="28.8">
+    <row r="24" spans="2:53" ht="30">
       <c r="B24" s="2" t="s">
         <v>39</v>
       </c>
@@ -6318,7 +6338,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="26" spans="2:53" ht="43.2">
+    <row r="26" spans="2:53" ht="45">
       <c r="B26" s="2" t="s">
         <v>137</v>
       </c>
@@ -6434,7 +6454,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="27" spans="2:53" ht="43.2">
+    <row r="27" spans="2:53" ht="60">
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
@@ -6547,7 +6567,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="28" spans="2:53" ht="28.8">
+    <row r="28" spans="2:53" ht="45">
       <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
@@ -6696,7 +6716,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="29" spans="2:53" ht="172.8">
+    <row r="29" spans="2:53" ht="195">
       <c r="D29" s="3" t="s">
         <v>140</v>
       </c>
@@ -6727,13 +6747,13 @@
         <v>675</v>
       </c>
     </row>
-    <row r="30" spans="2:53" ht="28.8">
+    <row r="30" spans="2:53" ht="30">
       <c r="D30" s="3"/>
       <c r="AO30" s="2" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="31" spans="2:53" ht="28.8">
+    <row r="31" spans="2:53" ht="30">
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
@@ -7457,7 +7477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:53" ht="86.4">
+    <row r="38" spans="1:53" ht="105">
       <c r="B38" s="2" t="s">
         <v>233</v>
       </c>
@@ -7564,8 +7584,11 @@
       <c r="AZ38" s="2" t="s">
         <v>686</v>
       </c>
+      <c r="BA38" s="2" t="s">
+        <v>703</v>
+      </c>
     </row>
-    <row r="39" spans="1:53" ht="57.6">
+    <row r="39" spans="1:53" ht="60">
       <c r="B39" s="2" t="s">
         <v>561</v>
       </c>
@@ -7646,6 +7669,9 @@
       <c r="AL44" s="2" t="s">
         <v>544</v>
       </c>
+      <c r="BA44" s="2" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="45" spans="1:53">
       <c r="A45" s="2">
@@ -7807,7 +7833,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:53" ht="30">
       <c r="A50" s="2">
         <v>7</v>
       </c>
@@ -7822,6 +7848,9 @@
       </c>
       <c r="J50" s="2" t="s">
         <v>161</v>
+      </c>
+      <c r="BA50" s="2" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="51" spans="1:53">
@@ -7870,7 +7899,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="53" spans="1:53" ht="28.8">
+    <row r="53" spans="1:53" ht="30">
       <c r="E53" s="2" t="s">
         <v>395</v>
       </c>
@@ -7893,7 +7922,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:53" ht="30">
       <c r="E54" s="2" t="s">
         <v>129</v>
       </c>
@@ -7920,7 +7949,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:53" ht="28.8">
+    <row r="57" spans="1:53" ht="30">
       <c r="A57" s="2">
         <v>9</v>
       </c>
@@ -8039,7 +8068,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:53" ht="28.8">
+    <row r="61" spans="1:53" ht="30">
       <c r="A61" s="2">
         <v>13</v>
       </c>
@@ -8061,7 +8090,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:53" ht="28.8">
+    <row r="64" spans="1:53" ht="30">
       <c r="A64" s="2">
         <v>14</v>
       </c>
@@ -8097,11 +8126,8 @@
       <c r="AS65" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="BA65" s="2" t="s">
-        <v>696</v>
-      </c>
     </row>
-    <row r="66" spans="1:53" ht="28.8">
+    <row r="66" spans="1:53" ht="30">
       <c r="A66" s="2">
         <v>16</v>
       </c>
@@ -8118,7 +8144,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="67" spans="1:53" ht="28.8">
+    <row r="67" spans="1:53" ht="30">
       <c r="A67" s="2">
         <v>17</v>
       </c>
@@ -8127,6 +8153,9 @@
       </c>
       <c r="D67" s="2" t="s">
         <v>98</v>
+      </c>
+      <c r="BA67" s="2" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="68" spans="1:53">
@@ -8140,7 +8169,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:53" ht="28.8">
+    <row r="69" spans="1:53" ht="30">
       <c r="A69" s="2">
         <v>19</v>
       </c>
@@ -8173,11 +8202,8 @@
       <c r="J70" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="BA70" s="2" t="s">
-        <v>696</v>
-      </c>
     </row>
-    <row r="71" spans="1:53" ht="28.8">
+    <row r="71" spans="1:53" ht="30">
       <c r="A71" s="2">
         <v>21</v>
       </c>
@@ -8278,7 +8304,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="79" spans="1:53" ht="28.8">
+    <row r="79" spans="1:53" ht="30">
       <c r="A79" s="2">
         <v>26</v>
       </c>
@@ -8477,7 +8503,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:47">
+    <row r="87" spans="1:47" ht="30">
       <c r="A87" s="2">
         <v>34</v>
       </c>

--- a/Data quality revision R overview v01.xlsx
+++ b/Data quality revision R overview v01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="720">
   <si>
     <t>Acronym (falls vorhanden)</t>
   </si>
@@ -1661,12 +1661,6 @@
     <t>Validate data in data frames, 'tibble' objects, 'Spark' 'DataFrames', and database tables. Validation pipelines can be made using easily-readable, consecutive validation steps. Upon execution of the validation plan, several reporting options are available. User-defined thresholds for failure rates allow for the determination of appropriate reporting actions. Many other workflows are available including an information management workflow, where the aim is to record, collect, and generate useful information on data tables.</t>
   </si>
   <si>
-    <t>R objects, R Markdown, html, yaml</t>
-  </si>
-  <si>
-    <t>Supports PostgreSQL. MySQL, MariaDB, DuckDB, SQLite, and Spark DataFrames (through the sparklyr package). Pipeline Data Validation workflow that outputs an error or warning if there is a single ‘fail’ test unit in any validation step, multiple failure thresholds and side effects for each failure state can be specified. Integration with R Markdown workflow  enabled by default once the pointblank library is loaded. All errors are reported in the validation code chunk after rendering the document to HTML, where green or red status buttons indicate whether all validations succeeded or failures occurred. Click them to reveal the otherwise hidden validation statements and any associated error messages. Send reports via email. Reporting across time. making data dictionaries, translate reporting outputs to multiple spoken languages.</t>
-  </si>
-  <si>
     <t>TO DO: generate SHIP report</t>
   </si>
   <si>
@@ -2260,6 +2254,60 @@
   </si>
   <si>
     <t>Custom check functions can be programmed</t>
+  </si>
+  <si>
+    <t>col_is_date</t>
+  </si>
+  <si>
+    <t>col_vals_in_set</t>
+  </si>
+  <si>
+    <t>yes, as 'validation functions'</t>
+  </si>
+  <si>
+    <t>R objects, R Markdown, html, yaml, csv</t>
+  </si>
+  <si>
+    <t>yes, as 'assertions or predicates'</t>
+  </si>
+  <si>
+    <t>col_is_*</t>
+  </si>
+  <si>
+    <t>col_vals_not_null</t>
+  </si>
+  <si>
+    <t>col_vals_regex</t>
+  </si>
+  <si>
+    <t>rows_distinct</t>
+  </si>
+  <si>
+    <t>Distinct</t>
+  </si>
+  <si>
+    <t>col_exists</t>
+  </si>
+  <si>
+    <t>TO DO: generate further SHIP reports</t>
+  </si>
+  <si>
+    <t>mean, min, max</t>
+  </si>
+  <si>
+    <t>yes (scan_data)</t>
+  </si>
+  <si>
+    <t>interactions</t>
+  </si>
+  <si>
+    <t>correlations</t>
+  </si>
+  <si>
+    <t>Supports PostgreSQL. MySQL, MariaDB, DuckDB, SQLite, and Spark DataFrames (through the sparklyr package). Pipeline Data Validation workflow that outputs an error or warning if there is a single ‘fail’ test unit in any validation step, multiple failure thresholds and side effects for each failure state can be specified. Integration with R Markdown workflow  enabled by default once the pointblank library is loaded. All errors are reported in the validation code chunk after rendering the document to HTML, where green or red status buttons indicate whether all validations succeeded or failures occurred. Click them to reveal the otherwise hidden validation statements and any associated error messages. Send reports via email. Reporting across time. making data dictionaries, translate reporting outputs to multiple spoken languages. Provide custom validation functions</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -2330,7 +2378,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2340,12 +2388,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2363,7 +2405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2406,9 +2448,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2711,689 +2750,687 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA87"/>
+  <dimension ref="A1:BB87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AZ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AK54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BB9" sqref="BB9"/>
+      <selection pane="bottomRight" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47" style="2" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="46.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.5703125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="38.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="42" style="2" customWidth="1"/>
-    <col min="11" max="11" width="40.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="32.42578125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="33.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="34.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="38.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="32.5703125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="31.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="32.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="36.42578125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="33.28515625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="34" style="2" customWidth="1"/>
-    <col min="22" max="22" width="33.28515625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="38.7109375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="34.42578125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="33" style="2" customWidth="1"/>
-    <col min="26" max="26" width="33.85546875" style="2" customWidth="1"/>
-    <col min="27" max="27" width="32.85546875" style="2" customWidth="1"/>
-    <col min="28" max="28" width="36.42578125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="32.7109375" style="2" customWidth="1"/>
-    <col min="30" max="30" width="32.5703125" style="2" customWidth="1"/>
-    <col min="31" max="31" width="37.28515625" style="2" customWidth="1"/>
-    <col min="32" max="32" width="38.42578125" style="2" customWidth="1"/>
-    <col min="33" max="33" width="33.140625" style="2" customWidth="1"/>
-    <col min="34" max="34" width="32.85546875" style="2" customWidth="1"/>
-    <col min="35" max="35" width="28.42578125" style="2" customWidth="1"/>
-    <col min="36" max="36" width="24.140625" style="2" customWidth="1"/>
-    <col min="37" max="37" width="22.7109375" style="2" customWidth="1"/>
-    <col min="38" max="38" width="24" style="2" customWidth="1"/>
-    <col min="39" max="39" width="26.5703125" style="2" customWidth="1"/>
-    <col min="40" max="40" width="26.7109375" style="2" customWidth="1"/>
-    <col min="41" max="41" width="27.7109375" style="2" customWidth="1"/>
-    <col min="42" max="42" width="24.28515625" style="2" customWidth="1"/>
-    <col min="43" max="43" width="31.5703125" style="2" customWidth="1"/>
-    <col min="44" max="44" width="26" style="2" customWidth="1"/>
-    <col min="45" max="45" width="26.140625" style="2" customWidth="1"/>
-    <col min="46" max="46" width="25.7109375" style="2" customWidth="1"/>
-    <col min="47" max="47" width="29.42578125" style="2" customWidth="1"/>
-    <col min="48" max="48" width="29.5703125" style="2" customWidth="1"/>
-    <col min="49" max="49" width="26.85546875" style="2" customWidth="1"/>
-    <col min="50" max="50" width="25.7109375" style="2" customWidth="1"/>
-    <col min="51" max="52" width="28.28515625" style="2" customWidth="1"/>
-    <col min="53" max="53" width="25.28515625" style="2" customWidth="1"/>
-    <col min="54" max="16384" width="11" style="2"/>
+    <col min="1" max="1" width="11" style="2"/>
+    <col min="2" max="2" width="3.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="47" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="39.5703125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="38.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="42" style="2" customWidth="1"/>
+    <col min="12" max="12" width="40.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="32.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="33.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="34.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="38.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="32.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="31.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="32.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="36.42578125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="33.28515625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="34" style="2" customWidth="1"/>
+    <col min="23" max="23" width="33.28515625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="38.7109375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="34.42578125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="33" style="2" customWidth="1"/>
+    <col min="27" max="27" width="33.85546875" style="2" customWidth="1"/>
+    <col min="28" max="28" width="32.85546875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="36.42578125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="32.7109375" style="2" customWidth="1"/>
+    <col min="31" max="31" width="32.5703125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="37.28515625" style="2" customWidth="1"/>
+    <col min="33" max="33" width="38.42578125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="33.140625" style="2" customWidth="1"/>
+    <col min="35" max="35" width="32.85546875" style="2" customWidth="1"/>
+    <col min="36" max="36" width="28.42578125" style="2" customWidth="1"/>
+    <col min="37" max="37" width="24.140625" style="2" customWidth="1"/>
+    <col min="38" max="38" width="22.7109375" style="2" customWidth="1"/>
+    <col min="39" max="39" width="24" style="2" customWidth="1"/>
+    <col min="40" max="40" width="26.5703125" style="2" customWidth="1"/>
+    <col min="41" max="41" width="26.7109375" style="2" customWidth="1"/>
+    <col min="42" max="42" width="27.7109375" style="2" customWidth="1"/>
+    <col min="43" max="43" width="24.28515625" style="2" customWidth="1"/>
+    <col min="44" max="44" width="31.5703125" style="2" customWidth="1"/>
+    <col min="45" max="45" width="26" style="2" customWidth="1"/>
+    <col min="46" max="46" width="26.140625" style="2" customWidth="1"/>
+    <col min="47" max="47" width="25.7109375" style="2" customWidth="1"/>
+    <col min="48" max="48" width="29.42578125" style="2" customWidth="1"/>
+    <col min="49" max="49" width="29.5703125" style="2" customWidth="1"/>
+    <col min="50" max="50" width="26.85546875" style="2" customWidth="1"/>
+    <col min="51" max="51" width="25.7109375" style="2" customWidth="1"/>
+    <col min="52" max="53" width="28.28515625" style="2" customWidth="1"/>
+    <col min="54" max="54" width="25.28515625" style="2" customWidth="1"/>
+    <col min="55" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:53" s="4" customFormat="1">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="3:54" s="4" customFormat="1">
+      <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="AZ1" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>580</v>
-      </c>
     </row>
-    <row r="2" spans="2:53" ht="30">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="3:54" ht="30">
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="AK2" s="2" t="s">
-        <v>529</v>
-      </c>
       <c r="AL2" s="2" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="AO2" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="3" spans="3:54">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="3:54">
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" t="s">
+        <v>221</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M4" t="s">
+        <v>200</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" t="s">
+        <v>242</v>
+      </c>
+      <c r="P4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>250</v>
+      </c>
+      <c r="R4" t="s">
+        <v>144</v>
+      </c>
+      <c r="S4" t="s">
+        <v>266</v>
+      </c>
+      <c r="T4" t="s">
+        <v>275</v>
+      </c>
+      <c r="U4" t="s">
+        <v>285</v>
+      </c>
+      <c r="V4" t="s">
+        <v>221</v>
+      </c>
+      <c r="W4" t="s">
+        <v>305</v>
+      </c>
+      <c r="X4" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>367</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>423</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>499</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>471</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>550</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AP4" t="s">
         <v>583</v>
       </c>
-      <c r="AP2" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="3" spans="2:53">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:53">
-      <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>144</v>
-      </c>
-      <c r="I4" t="s">
-        <v>221</v>
-      </c>
-      <c r="J4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="AQ4" t="s">
+        <v>550</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>602</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT4" t="s">
         <v>200</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="AU4" t="s">
+        <v>367</v>
+      </c>
+      <c r="AV4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N4" t="s">
-        <v>242</v>
-      </c>
-      <c r="O4" t="s">
-        <v>200</v>
-      </c>
-      <c r="P4" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>144</v>
-      </c>
-      <c r="R4" t="s">
-        <v>266</v>
-      </c>
-      <c r="S4" t="s">
-        <v>275</v>
-      </c>
-      <c r="T4" t="s">
-        <v>285</v>
-      </c>
-      <c r="U4" t="s">
-        <v>221</v>
-      </c>
-      <c r="V4" t="s">
-        <v>305</v>
-      </c>
-      <c r="W4" t="s">
-        <v>329</v>
-      </c>
-      <c r="X4" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>350</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA4" t="s">
+      <c r="AW4" t="s">
         <v>367</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>423</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>329</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>499</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>471</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>221</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>552</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>221</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>585</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>552</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>604</v>
-      </c>
-      <c r="AR4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>200</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>367</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>367</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="AX4" s="2" t="s">
         <v>53</v>
@@ -3401,23 +3438,23 @@
       <c r="AY4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AZ4" t="s">
-        <v>689</v>
+      <c r="AZ4" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="BA4" t="s">
+        <v>687</v>
+      </c>
+      <c r="BB4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="2:53">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="3:54">
+      <c r="C5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
@@ -3559,32 +3596,32 @@
       <c r="AY5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="BA5" s="2" t="s">
+      <c r="AZ5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:53">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="3:54">
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="I6" s="2" t="s">
         <v>19</v>
       </c>
@@ -3604,11 +3641,11 @@
         <v>19</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="Q6" s="2" t="s">
         <v>19</v>
       </c>
@@ -3631,10 +3668,10 @@
         <v>19</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>19</v>
@@ -3649,13 +3686,13 @@
         <v>19</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AG6" s="2" t="s">
         <v>19</v>
@@ -3682,10 +3719,10 @@
         <v>19</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>586</v>
+        <v>19</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>19</v>
+        <v>584</v>
       </c>
       <c r="AQ6" s="2" t="s">
         <v>19</v>
@@ -3697,13 +3734,13 @@
         <v>19</v>
       </c>
       <c r="AT6" s="2" t="s">
-        <v>646</v>
+        <v>19</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>13</v>
+        <v>644</v>
       </c>
       <c r="AV6" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AW6" s="2" t="s">
         <v>19</v>
@@ -3715,22 +3752,22 @@
         <v>19</v>
       </c>
       <c r="AZ6" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:53" ht="45">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="3:54" ht="45">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
@@ -3738,23 +3775,23 @@
         <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
@@ -3762,10 +3799,10 @@
         <v>19</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>19</v>
@@ -3783,7 +3820,7 @@
         <v>19</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>13</v>
@@ -3792,7 +3829,7 @@
         <v>13</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>19</v>
@@ -3807,13 +3844,13 @@
         <v>19</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AG7" s="2" t="s">
         <v>19</v>
@@ -3825,10 +3862,10 @@
         <v>19</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AL7" s="2" t="s">
         <v>19</v>
@@ -3849,19 +3886,19 @@
         <v>19</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AT7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AW7" s="2" t="s">
         <v>19</v>
@@ -3872,20 +3909,20 @@
       <c r="AY7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="BA7" s="2" t="s">
+      <c r="AZ7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:53" ht="30">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="3:54" ht="30">
+      <c r="C8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
@@ -3899,10 +3936,10 @@
         <v>19</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>19</v>
@@ -3979,7 +4016,7 @@
       <c r="AI8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AK8" s="2" t="s">
+      <c r="AJ8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AL8" s="2" t="s">
@@ -4009,7 +4046,7 @@
       <c r="AT8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AV8" s="2" t="s">
+      <c r="AU8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AW8" s="2" t="s">
@@ -4021,183 +4058,183 @@
       <c r="AY8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="BA8" s="2" t="s">
+      <c r="AZ8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:53" ht="246" customHeight="1">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="3:54" ht="246" customHeight="1">
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="O9" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="R9" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="S9" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="T9" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="U9" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="V9" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="W9" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="W9" s="7" t="s">
+      <c r="X9" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="X9" s="7" t="s">
+      <c r="Y9" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="Y9" s="7" t="s">
+      <c r="Z9" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="Z9" s="7" t="s">
+      <c r="AA9" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="AA9" s="7" t="s">
+      <c r="AB9" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="AB9" s="7" t="s">
+      <c r="AC9" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="AC9" s="7" t="s">
+      <c r="AD9" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="AD9" s="7" t="s">
+      <c r="AE9" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="AE9" s="7" t="s">
+      <c r="AF9" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="AF9" s="7" t="s">
+      <c r="AG9" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="AG9" s="7" t="s">
+      <c r="AH9" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="AH9" s="7" t="s">
+      <c r="AI9" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="AI9" s="7" t="s">
+      <c r="AJ9" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="AJ9" s="7" t="s">
+      <c r="AK9" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="AK9" s="7" t="s">
-        <v>535</v>
-      </c>
       <c r="AL9" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="AM9" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="AN9" s="21" t="s">
-        <v>567</v>
-      </c>
-      <c r="AO9" s="7" t="s">
-        <v>584</v>
+        <v>540</v>
+      </c>
+      <c r="AN9" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="AO9" s="20" t="s">
+        <v>565</v>
       </c>
       <c r="AP9" s="7" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="AQ9" s="7" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="AR9" s="7" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="AS9" s="7" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="AT9" s="7" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="AU9" s="7" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="AV9" s="7" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="AW9" s="7" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="AX9" s="7" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="AY9" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="AZ9" s="7" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="BA9" s="7" t="s">
-        <v>695</v>
+        <v>688</v>
+      </c>
+      <c r="BB9" s="7" t="s">
+        <v>693</v>
       </c>
     </row>
-    <row r="10" spans="2:53" ht="30">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="3:54" ht="30">
+      <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>19</v>
@@ -4209,22 +4246,22 @@
         <v>19</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>19</v>
@@ -4287,13 +4324,13 @@
         <v>19</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AK10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AM10" s="2" t="s">
         <v>19</v>
@@ -4308,22 +4345,22 @@
         <v>19</v>
       </c>
       <c r="AQ10" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AR10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AS10" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AT10" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AU10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AV10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW10" s="2" t="s">
         <v>15</v>
@@ -4335,28 +4372,28 @@
         <v>15</v>
       </c>
       <c r="AZ10" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA10" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="BB10" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="2:53" ht="30">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="3:54" ht="30">
+      <c r="C11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G11" s="2" t="s">
         <v>15</v>
       </c>
@@ -4367,23 +4404,23 @@
         <v>15</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="M11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="P11" s="2" t="s">
         <v>15</v>
       </c>
@@ -4445,13 +4482,13 @@
         <v>15</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="AK11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="AM11" s="2" t="s">
         <v>15</v>
@@ -4466,22 +4503,22 @@
         <v>15</v>
       </c>
       <c r="AQ11" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="AR11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="AT11" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="AU11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="AV11" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="AW11" s="2" t="s">
         <v>15</v>
@@ -4498,23 +4535,23 @@
       <c r="BA11" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="BB11" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="12" spans="2:53" ht="135">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="3:54" ht="135">
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
@@ -4525,23 +4562,23 @@
         <v>15</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="M12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="N12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="P12" s="2" t="s">
         <v>15</v>
       </c>
@@ -4603,13 +4640,13 @@
         <v>15</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="AK12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="AM12" s="2" t="s">
         <v>15</v>
@@ -4624,22 +4661,22 @@
         <v>15</v>
       </c>
       <c r="AQ12" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="AR12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="AT12" s="2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="AU12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="AV12" s="2" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="AW12" s="2" t="s">
         <v>15</v>
@@ -4656,17 +4693,17 @@
       <c r="BA12" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="BB12" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="13" spans="2:53" ht="29.25" customHeight="1">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="3:54" ht="29.25" customHeight="1">
+      <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
@@ -4679,20 +4716,20 @@
       <c r="H13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>15</v>
@@ -4703,14 +4740,14 @@
       <c r="U13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="W13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>19</v>
+      <c r="V13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AA13" s="2" t="s">
         <v>13</v>
@@ -4722,10 +4759,10 @@
         <v>13</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF13" s="2" t="s">
         <v>13</v>
@@ -4739,49 +4776,49 @@
       <c r="AI13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AL13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN13" s="2" t="s">
-        <v>19</v>
+      <c r="AJ13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AO13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AP13" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AQ13" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR13" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BA13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:53" ht="30">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="3:54" ht="30">
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>19</v>
@@ -4789,20 +4826,20 @@
       <c r="H14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R14" s="2" t="s">
-        <v>15</v>
+      <c r="N14" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>15</v>
@@ -4814,12 +4851,12 @@
         <v>15</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y14" s="2" t="s">
+      <c r="X14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="Z14" s="2" t="s">
@@ -4841,7 +4878,7 @@
         <v>19</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AG14" s="2" t="s">
         <v>13</v>
@@ -4852,20 +4889,20 @@
       <c r="AI14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AL14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN14" s="2" t="s">
+      <c r="AJ14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AP14" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AQ14" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR14" s="2" t="s">
         <v>13</v>
@@ -4873,25 +4910,25 @@
       <c r="AS14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AU14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BA14" s="2" t="s">
+      <c r="AT14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:53" ht="30">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="3:54" ht="30">
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>19</v>
@@ -4902,7 +4939,7 @@
       <c r="H15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K15" s="2" t="s">
@@ -4914,8 +4951,8 @@
       <c r="M15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>15</v>
+      <c r="N15" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="S15" s="2" t="s">
         <v>15</v>
@@ -4927,12 +4964,12 @@
         <v>15</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="W15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y15" s="2" t="s">
+      <c r="X15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="Z15" s="2" t="s">
@@ -4965,70 +5002,70 @@
       <c r="AI15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AL15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN15" s="2" t="s">
+      <c r="AJ15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AO15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AP15" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AQ15" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AR15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AS15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="BA15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:53" ht="27.6" customHeight="1">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="3:54" ht="27.6" customHeight="1">
+      <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>15</v>
+      <c r="N16" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>15</v>
@@ -5040,13 +5077,13 @@
         <v>15</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="Z16" s="2" t="s">
         <v>19</v>
@@ -5058,7 +5095,7 @@
         <v>19</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AD16" s="2" t="s">
         <v>13</v>
@@ -5078,156 +5115,156 @@
       <c r="AI16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AL16" s="2" t="s">
+      <c r="AJ16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AM16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AO16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AP16" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AQ16" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AS16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="BA16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:53" ht="151.15" customHeight="1">
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="3:54" ht="151.15" customHeight="1">
+      <c r="C17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="S17" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="U17" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="V17" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="V17" s="2" t="s">
+      <c r="W17" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="W17" s="2" t="s">
+      <c r="X17" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="Y17" s="2" t="s">
+      <c r="Z17" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="Z17" s="2" t="s">
+      <c r="AA17" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AB17" s="2" t="s">
+      <c r="AC17" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="AE17" s="2" t="s">
+      <c r="AF17" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="AF17" s="2" t="s">
+      <c r="AG17" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="AG17" s="2" t="s">
+      <c r="AH17" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="AH17" s="2" t="s">
+      <c r="AI17" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="AI17" s="2" t="s">
+      <c r="AJ17" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="AJ17" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="AL17" s="2" t="s">
-        <v>547</v>
+      <c r="AK17" s="7" t="s">
+        <v>718</v>
       </c>
       <c r="AM17" s="2" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="AQ17" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="AS17" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="AU17" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="BA17" s="2" t="s">
-        <v>700</v>
+        <v>556</v>
+      </c>
+      <c r="AO17" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="AR17" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="AT17" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="AV17" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="BB17" s="2" t="s">
+        <v>698</v>
       </c>
     </row>
-    <row r="18" spans="2:53" ht="30">
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="3:54" ht="30">
+      <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>19</v>
@@ -5238,12 +5275,12 @@
       <c r="H18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="I18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="L18" s="2" t="s">
         <v>19</v>
       </c>
@@ -5254,26 +5291,26 @@
         <v>19</v>
       </c>
       <c r="O18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>255</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="S18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="U18" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="U18" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="V18" s="2" t="s">
         <v>19</v>
       </c>
@@ -5316,11 +5353,14 @@
       <c r="AI18" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AJ18" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="AK18" s="2" t="s">
-        <v>13</v>
+        <v>704</v>
       </c>
       <c r="AL18" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AM18" s="2" t="s">
         <v>19</v>
@@ -5341,10 +5381,10 @@
         <v>19</v>
       </c>
       <c r="AS18" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="AU18" s="2" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="AT18" s="2" t="s">
+        <v>632</v>
       </c>
       <c r="AV18" s="2" t="s">
         <v>19</v>
@@ -5358,19 +5398,22 @@
       <c r="AY18" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AZ18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB18" s="2" t="s">
+        <v>706</v>
+      </c>
     </row>
-    <row r="19" spans="2:53" ht="45">
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="3:54" ht="45">
+      <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>19</v>
@@ -5381,12 +5424,12 @@
       <c r="H19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="I19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="L19" s="2" t="s">
         <v>19</v>
       </c>
@@ -5397,26 +5440,26 @@
         <v>19</v>
       </c>
       <c r="O19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>255</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="S19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T19" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="U19" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="U19" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="V19" s="2" t="s">
         <v>19</v>
       </c>
@@ -5442,11 +5485,11 @@
         <v>19</v>
       </c>
       <c r="AD19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE19" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="AE19" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="AF19" s="2" t="s">
         <v>19</v>
       </c>
@@ -5459,11 +5502,11 @@
       <c r="AI19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AK19" s="2" t="s">
-        <v>13</v>
+      <c r="AJ19" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="AL19" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AM19" s="2" t="s">
         <v>19</v>
@@ -5484,10 +5527,10 @@
         <v>19</v>
       </c>
       <c r="AS19" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="AU19" s="2" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="AT19" s="2" t="s">
+        <v>628</v>
       </c>
       <c r="AV19" s="2" t="s">
         <v>19</v>
@@ -5501,17 +5544,20 @@
       <c r="AY19" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AZ19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB19" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="20" spans="2:53" ht="30">
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="3:54" ht="30">
+      <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E20" s="2" t="s">
         <v>19</v>
       </c>
@@ -5524,12 +5570,12 @@
       <c r="H20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="I20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="L20" s="2" t="s">
         <v>19</v>
       </c>
@@ -5540,10 +5586,10 @@
         <v>19</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>19</v>
@@ -5602,8 +5648,11 @@
       <c r="AI20" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AJ20" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="AK20" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AL20" s="2" t="s">
         <v>19</v>
@@ -5627,10 +5676,10 @@
         <v>19</v>
       </c>
       <c r="AS20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AU20" s="2" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="AT20" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AV20" s="2" t="s">
         <v>19</v>
@@ -5644,52 +5693,55 @@
       <c r="AY20" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="AZ20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BB20" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="21" spans="2:53" ht="30">
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="3:54" ht="30">
+      <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="O21" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>236</v>
@@ -5707,40 +5759,40 @@
         <v>236</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>332</v>
+        <v>236</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>332</v>
       </c>
       <c r="X21" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y21" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="Y21" s="2" t="s">
+      <c r="Z21" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="Z21" s="2" t="s">
+      <c r="AA21" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="AA21" s="2" t="s">
+      <c r="AB21" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AB21" s="2" t="s">
+      <c r="AC21" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="AC21" s="2" t="s">
+      <c r="AD21" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AD21" s="2" t="s">
+      <c r="AE21" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="AE21" s="2" t="s">
+      <c r="AF21" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="AF21" s="2" t="s">
+      <c r="AG21" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="AG21" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="AH21" s="2" t="s">
         <v>236</v>
@@ -5749,16 +5801,16 @@
         <v>236</v>
       </c>
       <c r="AJ21" s="2" t="s">
-        <v>525</v>
+        <v>236</v>
       </c>
       <c r="AK21" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="AL21" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AL21" s="2" t="s">
-        <v>543</v>
-      </c>
       <c r="AM21" s="2" t="s">
-        <v>236</v>
+        <v>541</v>
       </c>
       <c r="AN21" s="2" t="s">
         <v>236</v>
@@ -5773,48 +5825,48 @@
         <v>236</v>
       </c>
       <c r="AR21" s="2" t="s">
-        <v>620</v>
+        <v>236</v>
       </c>
       <c r="AS21" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="AT21" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AU21" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="BA21" s="2" t="s">
+      <c r="AV21" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="BB21" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="2:53" ht="30">
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="3:54" ht="30">
+      <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>13</v>
@@ -5915,7 +5967,7 @@
       <c r="AS22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AU22" s="2" t="s">
+      <c r="AT22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="AV22" s="2" t="s">
@@ -5930,23 +5982,23 @@
       <c r="AY22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="BA22" s="2" t="s">
+      <c r="AZ22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:53" ht="30">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="3:54" ht="30">
+      <c r="C23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>19</v>
       </c>
@@ -5954,10 +6006,10 @@
         <v>19</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>19</v>
@@ -5972,11 +6024,11 @@
         <v>19</v>
       </c>
       <c r="O23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="P23" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="Q23" s="2" t="s">
         <v>19</v>
       </c>
@@ -5993,10 +6045,10 @@
         <v>19</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="X23" s="2" t="s">
         <v>19</v>
@@ -6032,13 +6084,13 @@
         <v>19</v>
       </c>
       <c r="AI23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ23" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="AJ23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL23" s="2" t="s">
-        <v>19</v>
+      <c r="AK23" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="AM23" s="2" t="s">
         <v>19</v>
@@ -6059,13 +6111,13 @@
         <v>19</v>
       </c>
       <c r="AS23" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="AU23" s="2" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="AT23" s="2" t="s">
+        <v>627</v>
       </c>
       <c r="AV23" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AW23" s="2" t="s">
         <v>15</v>
@@ -6076,17 +6128,17 @@
       <c r="AY23" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="AZ23" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="24" spans="2:53" ht="30">
-      <c r="B24" s="2" t="s">
+    <row r="24" spans="3:54" ht="30">
+      <c r="C24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E24" s="2" t="s">
         <v>19</v>
       </c>
@@ -6099,7 +6151,7 @@
       <c r="H24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K24" s="2" t="s">
@@ -6154,11 +6206,11 @@
         <v>19</v>
       </c>
       <c r="AB24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC24" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="AC24" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="AD24" s="2" t="s">
         <v>19</v>
       </c>
@@ -6178,10 +6230,10 @@
         <v>19</v>
       </c>
       <c r="AJ24" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="AL24" s="2" t="s">
-        <v>19</v>
+        <v>19</v>
+      </c>
+      <c r="AK24" s="2" t="s">
+        <v>526</v>
       </c>
       <c r="AM24" s="2" t="s">
         <v>19</v>
@@ -6204,11 +6256,11 @@
       <c r="AS24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AU24" s="2" t="s">
+      <c r="AT24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="AV24" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AW24" s="2" t="s">
         <v>15</v>
@@ -6219,585 +6271,585 @@
       <c r="AY24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="BA24" s="2" t="s">
+      <c r="AZ24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:53" ht="90" customHeight="1">
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="3:54" ht="90" customHeight="1">
+      <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="3"/>
+      <c r="H25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="J25" s="2" t="s">
+      <c r="I25" s="3"/>
+      <c r="K25" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>260</v>
       </c>
       <c r="S25" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="T25" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="U25" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="U25" s="3" t="s">
+      <c r="V25" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="W25" s="2" t="s">
+      <c r="X25" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="X25" s="2" t="s">
+      <c r="Y25" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="Z25" s="3" t="s">
+      <c r="AA25" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="AA25" s="3" t="s">
+      <c r="AB25" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="AD25" s="2" t="s">
+      <c r="AE25" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="AE25" s="2" t="s">
+      <c r="AF25" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="AF25" s="2" t="s">
+      <c r="AG25" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="AG25" s="3" t="s">
+      <c r="AH25" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="AH25" s="3" t="s">
+      <c r="AI25" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="AI25" s="3" t="s">
+      <c r="AJ25" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="AJ25" s="3" t="s">
+      <c r="AK25" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="AK25" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="AL25" s="2" t="s">
-        <v>540</v>
+      <c r="AL25" s="7" t="s">
+        <v>531</v>
       </c>
       <c r="AM25" s="2" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="AN25" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="AO25" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="AP25" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="AQ25" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="AR25" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="AS25" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="AT25" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="AU25" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="AV25" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="AW25" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="BA25" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="26" spans="3:54" ht="45">
+      <c r="C26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="AL26" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="AM26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO26" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="AO25" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="AP25" s="2" t="s">
+      <c r="AP26" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="AS26" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="AU26" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AV26" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="AW26" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="AX26" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="AY26" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="AZ26" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="BB26" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="27" spans="3:54" ht="60">
+      <c r="C27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="AE27" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="AF27" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="AH27" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="AI27" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="AJ27" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="AK27" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="AL27" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="AM27" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="AN27" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="AO27" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="AP27" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="AQ27" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="AS27" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="AT27" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="AU27" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="BA27" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="BB27" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="28" spans="3:54" ht="45">
+      <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB28" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC28" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="AD28" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="AE28" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="AH28" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="AI28" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="AJ28" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="AK28" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="AL28" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="AM28" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="AN28" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="AO28" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="AP28" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="AQ28" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="AQ25" s="2" t="s">
+      <c r="AR28" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="AR25" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="AS25" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="AT25" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="AU25" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="AV25" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="AZ25" s="2" t="s">
-        <v>683</v>
+      <c r="AS28" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="AT28" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AU28" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="AV28" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="AW28" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="AX28" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="AZ28" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="BA28" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="BB28" s="2" t="s">
+        <v>692</v>
       </c>
     </row>
-    <row r="26" spans="2:53" ht="45">
-      <c r="B26" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y26" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="AA26" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="AB26" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="AC26" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="AK26" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="AL26" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN26" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="AO26" s="2" t="s">
+    <row r="29" spans="3:54" ht="195">
+      <c r="E29" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="K29" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO29" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="AP29" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="AY29" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="30" spans="3:54" ht="30">
+      <c r="E30" s="3"/>
+      <c r="AP30" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="AR26" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="AT26" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="AU26" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="AV26" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="AW26" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="AX26" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="AY26" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="BA26" s="2" t="s">
-        <v>692</v>
-      </c>
     </row>
-    <row r="27" spans="2:53" ht="60">
-      <c r="B27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="X27" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y27" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="Z27" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="AB27" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="AD27" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="AE27" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="AF27" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="AG27" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="AH27" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="AI27" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="AJ27" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="AK27" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="AL27" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="AM27" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="AN27" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="AO27" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="AP27" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="AR27" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="AS27" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="AT27" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="AZ27" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="BA27" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="28" spans="2:53" ht="45">
-      <c r="B28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="V28" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="W28" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="X28" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="Z28" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="AA28" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB28" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="AC28" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="AD28" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="AE28" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="AF28" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="AG28" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="AH28" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="AI28" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="AJ28" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="AK28" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="AL28" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="AM28" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="AN28" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="AO28" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="AP28" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="AQ28" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="AR28" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="AS28" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="AT28" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="AU28" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="AV28" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="AW28" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="AY28" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="AZ28" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="BA28" s="2" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="29" spans="2:53" ht="195">
-      <c r="D29" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="J29" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="AL29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN29" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="AO29" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="AX29" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="30" spans="2:53" ht="30">
-      <c r="D30" s="3"/>
-      <c r="AO30" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="31" spans="2:53" ht="30">
-      <c r="B31" s="2" t="s">
+    <row r="31" spans="3:54" ht="30">
+      <c r="C31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" t="s">
         <v>142</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>74</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="J31" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="N31" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="O31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>231</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>151</v>
@@ -6811,8 +6863,8 @@
       <c r="T31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="U31" s="5" t="s">
-        <v>231</v>
+      <c r="U31" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="V31" s="5" t="s">
         <v>231</v>
@@ -6821,49 +6873,49 @@
         <v>231</v>
       </c>
       <c r="X31" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y31" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="Y31" s="2" t="s">
+      <c r="Z31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>142</v>
       </c>
-      <c r="AA31" s="2" t="s">
+      <c r="AB31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AB31" s="2" t="s">
+      <c r="AC31" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AE31" t="s">
         <v>231</v>
       </c>
-      <c r="AE31" s="2" t="s">
+      <c r="AF31" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="AF31" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AG31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AH31" t="s">
+      <c r="AH31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI31" t="s">
         <v>231</v>
       </c>
-      <c r="AI31" s="5" t="s">
+      <c r="AJ31" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="AJ31" s="2" t="s">
+      <c r="AK31" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="AK31" s="2" t="s">
+      <c r="AL31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AL31" s="2" t="s">
+      <c r="AM31" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="AM31" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="AN31" s="5" t="s">
         <v>231</v>
@@ -6872,13 +6924,13 @@
         <v>231</v>
       </c>
       <c r="AP31" s="5" t="s">
-        <v>597</v>
+        <v>231</v>
       </c>
       <c r="AQ31" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="AR31" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="AR31" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="AS31" s="5" t="s">
         <v>151</v>
@@ -6886,1081 +6938,1129 @@
       <c r="AT31" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="AU31" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="AV31" t="s">
-        <v>663</v>
-      </c>
-      <c r="AW31" s="5" t="s">
+      <c r="AU31" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="AX31" t="s">
+      <c r="AV31" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>661</v>
+      </c>
+      <c r="AX31" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY31" t="s">
         <v>231</v>
       </c>
-      <c r="AY31" s="5" t="s">
+      <c r="AZ31" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="BA31" t="s">
+      <c r="BB31" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="2:53">
-      <c r="B32" s="8" t="s">
+    <row r="32" spans="3:54">
+      <c r="C32" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="14">
+      <c r="E32" s="14">
         <v>44222</v>
       </c>
-      <c r="E32" s="14">
+      <c r="F32" s="14">
         <v>42737</v>
       </c>
-      <c r="F32" s="15">
+      <c r="G32" s="15">
         <v>41862</v>
       </c>
-      <c r="G32" s="15">
+      <c r="H32" s="15">
         <v>41193</v>
       </c>
-      <c r="H32" s="15">
+      <c r="I32" s="15">
         <v>43217</v>
       </c>
-      <c r="I32" s="15">
+      <c r="J32" s="15">
         <v>42836</v>
       </c>
-      <c r="J32" s="15">
+      <c r="K32" s="15">
         <v>42248</v>
       </c>
-      <c r="K32" s="15">
+      <c r="L32" s="15">
         <v>42908</v>
       </c>
-      <c r="L32" s="15">
+      <c r="M32" s="15">
         <v>42454</v>
       </c>
-      <c r="M32" s="15">
+      <c r="N32" s="15">
         <v>41538</v>
       </c>
-      <c r="N32" s="15">
+      <c r="O32" s="15">
         <v>41518</v>
       </c>
-      <c r="O32" s="15">
+      <c r="P32" s="15">
         <v>41380</v>
       </c>
-      <c r="P32" s="15">
+      <c r="Q32" s="15">
         <v>40604</v>
       </c>
-      <c r="Q32" s="15">
+      <c r="R32" s="15">
         <v>42441</v>
       </c>
-      <c r="R32" s="15">
+      <c r="S32" s="15">
         <v>43014</v>
       </c>
-      <c r="S32" s="15">
+      <c r="T32" s="15">
         <v>40574</v>
       </c>
-      <c r="T32" s="15">
+      <c r="U32" s="15">
         <v>42734</v>
       </c>
-      <c r="U32" s="14">
+      <c r="V32" s="14">
         <v>42646</v>
       </c>
-      <c r="V32" s="14">
+      <c r="W32" s="14">
         <v>42430</v>
       </c>
-      <c r="W32" s="14">
+      <c r="X32" s="14">
         <v>43196</v>
       </c>
-      <c r="X32" s="14">
+      <c r="Y32" s="14">
         <v>42441</v>
       </c>
-      <c r="Y32" s="14">
+      <c r="Z32" s="14">
         <v>42410</v>
       </c>
-      <c r="Z32" s="14">
+      <c r="AA32" s="14">
         <v>37819</v>
       </c>
-      <c r="AA32" s="14">
+      <c r="AB32" s="14">
         <v>41058</v>
       </c>
-      <c r="AB32" s="14">
+      <c r="AC32" s="14">
         <v>42734</v>
       </c>
-      <c r="AC32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD32" s="14">
+      <c r="AD32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE32" s="14">
         <v>43231</v>
       </c>
-      <c r="AE32" s="14">
+      <c r="AF32" s="14">
         <v>43601</v>
       </c>
-      <c r="AF32" s="14"/>
-      <c r="AG32" s="14">
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="14">
         <v>43579</v>
       </c>
-      <c r="AH32" s="14">
+      <c r="AI32" s="14">
         <v>42927</v>
       </c>
-      <c r="AI32" s="13">
+      <c r="AJ32" s="13">
         <v>43061</v>
       </c>
-      <c r="AJ32" s="13">
+      <c r="AK32" s="13">
         <v>42969</v>
       </c>
-      <c r="AK32" s="13">
+      <c r="AL32" s="13">
         <v>42909</v>
       </c>
-      <c r="AL32" s="13">
+      <c r="AM32" s="13">
         <v>43110</v>
       </c>
-      <c r="AM32" s="13">
+      <c r="AN32" s="13">
         <v>43683</v>
       </c>
-      <c r="AN32" s="13">
+      <c r="AO32" s="13">
         <v>42956</v>
       </c>
-      <c r="AO32" s="13">
+      <c r="AP32" s="13">
         <v>42201</v>
       </c>
-      <c r="AP32" s="22">
+      <c r="AQ32" s="21">
         <v>40210</v>
       </c>
-      <c r="AQ32" s="2" t="s">
+      <c r="AR32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AR32" s="13">
+      <c r="AS32" s="13">
         <v>43799</v>
       </c>
-      <c r="AS32" s="24">
+      <c r="AT32" s="23">
         <v>42768</v>
       </c>
-      <c r="AT32" s="13">
+      <c r="AU32" s="13">
         <v>41620</v>
       </c>
-      <c r="AU32" s="13">
+      <c r="AV32" s="13">
         <v>44378</v>
       </c>
-      <c r="AV32" s="13">
+      <c r="AW32" s="13">
         <v>41807</v>
       </c>
-      <c r="AW32" s="13">
+      <c r="AX32" s="13">
         <v>41614</v>
       </c>
-      <c r="AX32" s="13">
+      <c r="AY32" s="13">
         <v>41961</v>
       </c>
-      <c r="AY32" s="13">
+      <c r="AZ32" s="13">
         <v>41467</v>
       </c>
-      <c r="AZ32" s="24">
+      <c r="BA32" s="23">
         <v>44075</v>
       </c>
-      <c r="BA32" s="13">
+      <c r="BB32" s="13">
         <v>42087</v>
       </c>
     </row>
-    <row r="33" spans="1:53">
-      <c r="B33" s="8" t="s">
+    <row r="33" spans="1:54">
+      <c r="C33" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="14">
+      <c r="E33" s="14">
         <v>44442</v>
       </c>
-      <c r="E33" s="15">
+      <c r="F33" s="15">
         <v>44179</v>
       </c>
-      <c r="F33" s="15">
+      <c r="G33" s="15">
         <v>44405</v>
       </c>
-      <c r="G33" s="15">
+      <c r="H33" s="15">
         <v>44399</v>
       </c>
-      <c r="H33" s="15">
+      <c r="I33" s="15">
         <v>44441</v>
       </c>
-      <c r="I33" s="15">
+      <c r="J33" s="15">
         <v>43468</v>
       </c>
-      <c r="J33" s="15">
+      <c r="K33" s="15">
         <v>44476</v>
       </c>
-      <c r="K33" s="15">
+      <c r="L33" s="15">
         <v>42908</v>
       </c>
-      <c r="L33" s="15">
+      <c r="M33" s="15">
         <v>42454</v>
       </c>
-      <c r="M33" s="15">
+      <c r="N33" s="15">
         <v>41538</v>
       </c>
-      <c r="N33" s="15">
+      <c r="O33" s="15">
         <v>42606</v>
       </c>
-      <c r="O33" s="15">
+      <c r="P33" s="15">
         <v>42112</v>
       </c>
-      <c r="P33" s="15">
+      <c r="Q33" s="15">
         <v>42200</v>
       </c>
-      <c r="Q33" s="15">
+      <c r="R33" s="15">
         <v>44284</v>
       </c>
-      <c r="R33" s="15">
+      <c r="S33" s="15">
         <v>44463</v>
       </c>
-      <c r="S33" s="15">
+      <c r="T33" s="15">
         <v>43282</v>
       </c>
-      <c r="T33" s="15">
+      <c r="U33" s="15">
         <v>44319</v>
       </c>
-      <c r="U33" s="14">
+      <c r="V33" s="14">
         <v>44201</v>
       </c>
-      <c r="V33" s="14">
+      <c r="W33" s="14">
         <v>44180</v>
       </c>
-      <c r="W33" s="14">
+      <c r="X33" s="14">
         <v>44352</v>
       </c>
-      <c r="X33" s="14">
+      <c r="Y33" s="14">
         <v>43357</v>
       </c>
-      <c r="Y33" s="14">
+      <c r="Z33" s="14">
         <v>42410</v>
       </c>
-      <c r="Z33" s="14">
+      <c r="AA33" s="14">
         <v>44476</v>
       </c>
-      <c r="AA33" s="14">
+      <c r="AB33" s="14">
         <v>44044</v>
       </c>
-      <c r="AB33" s="14">
+      <c r="AC33" s="14">
         <v>44351</v>
       </c>
-      <c r="AC33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD33" s="14">
+      <c r="AD33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE33" s="14">
         <v>44171</v>
       </c>
-      <c r="AE33" s="14">
+      <c r="AF33" s="14">
         <v>44351</v>
       </c>
-      <c r="AF33" s="14">
+      <c r="AG33" s="14">
         <v>43997</v>
       </c>
-      <c r="AG33" s="14">
+      <c r="AH33" s="14">
         <v>44288</v>
       </c>
-      <c r="AH33" s="14">
+      <c r="AI33" s="14">
         <v>43511</v>
       </c>
-      <c r="AI33" s="13">
+      <c r="AJ33" s="13">
         <v>43077</v>
       </c>
-      <c r="AJ33" s="13">
+      <c r="AK33" s="13">
         <v>44497</v>
       </c>
-      <c r="AK33" s="13">
+      <c r="AL33" s="13">
         <v>44344</v>
       </c>
-      <c r="AL33" s="13">
+      <c r="AM33" s="13">
         <v>44262</v>
       </c>
-      <c r="AM33" s="18">
+      <c r="AN33" s="17">
         <v>43991</v>
       </c>
-      <c r="AN33" s="13">
+      <c r="AO33" s="13">
         <v>44330</v>
       </c>
-      <c r="AO33" s="13">
+      <c r="AP33" s="13">
         <v>43607</v>
       </c>
-      <c r="AP33" s="13">
+      <c r="AQ33" s="13">
         <v>44368</v>
       </c>
-      <c r="AQ33" s="13">
+      <c r="AR33" s="13">
         <v>42090</v>
       </c>
-      <c r="AR33" s="13">
+      <c r="AS33" s="13">
         <v>44288</v>
       </c>
-      <c r="AS33" s="13">
+      <c r="AT33" s="13">
         <v>43085</v>
       </c>
-      <c r="AT33" s="13">
+      <c r="AU33" s="13">
         <v>44260</v>
       </c>
-      <c r="AU33" s="13">
+      <c r="AV33" s="13">
         <v>44469</v>
       </c>
-      <c r="AV33" s="13">
+      <c r="AW33" s="13">
         <v>43867</v>
       </c>
-      <c r="AW33" s="13">
+      <c r="AX33" s="13">
         <v>43545</v>
       </c>
-      <c r="AX33" s="13">
+      <c r="AY33" s="13">
         <v>42115</v>
       </c>
-      <c r="AY33" s="13">
+      <c r="AZ33" s="13">
         <v>41592</v>
       </c>
-      <c r="AZ33" s="24">
+      <c r="BA33" s="23">
         <v>44257</v>
       </c>
-      <c r="BA33" s="13">
+      <c r="BB33" s="13">
         <v>44221</v>
       </c>
     </row>
-    <row r="34" spans="1:53">
-      <c r="B34" s="2" t="s">
+    <row r="34" spans="1:54">
+      <c r="C34" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="E34" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="F34" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="J34" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>119</v>
       </c>
       <c r="N34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O34" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="P34" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="P34" s="2" t="s">
+      <c r="Q34" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="R34" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="R34" s="2" t="s">
+      <c r="S34" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="S34" s="2" t="s">
+      <c r="T34" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="T34" s="2" t="s">
+      <c r="U34" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="U34" s="2" t="s">
+      <c r="V34" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="V34" s="5" t="s">
+      <c r="W34" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>326</v>
       </c>
-      <c r="X34" s="2">
+      <c r="Y34" s="2">
         <v>1.2</v>
       </c>
-      <c r="Y34" s="2">
+      <c r="Z34" s="2">
         <v>0.1</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>359</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AB34" t="s">
         <v>370</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AC34" t="s">
         <v>422</v>
       </c>
-      <c r="AC34" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="AD34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE34" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AF34" t="s">
         <v>465</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AG34" t="s">
         <v>470</v>
       </c>
-      <c r="AG34" t="s">
+      <c r="AH34" t="s">
         <v>488</v>
       </c>
-      <c r="AH34" s="5" t="s">
+      <c r="AI34" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="AI34" s="2">
+      <c r="AJ34" s="2">
         <v>0.2</v>
       </c>
-      <c r="AJ34" s="2" t="s">
+      <c r="AK34" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="AK34" t="s">
-        <v>531</v>
-      </c>
       <c r="AL34" t="s">
-        <v>539</v>
-      </c>
-      <c r="AM34" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="AN34" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>537</v>
+      </c>
+      <c r="AN34" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="AO34" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>589</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>594</v>
+      </c>
+      <c r="AR34" s="22">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>615</v>
+      </c>
+      <c r="AT34" s="22">
+        <v>1</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>639</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>648</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>186</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>668</v>
+      </c>
+      <c r="AY34">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>679</v>
+      </c>
+      <c r="BA34" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="BB34">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:54">
+      <c r="C36" t="s">
+        <v>476</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK36" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="AM36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO36" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="AO34" t="s">
+      <c r="AP36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR36" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:54" ht="126" customHeight="1">
+      <c r="C37" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA37" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AD37" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE37" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AF37" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="AG37" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="AH37" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="AJ37" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="AK37" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="AM37" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="AO37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR37" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="AS37" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="AV37" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="AW37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX37" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:54" ht="105">
+      <c r="C38" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="J38" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA38" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AD38" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AJ38" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="AK38" s="19" t="s">
+        <v>713</v>
+      </c>
+      <c r="AL38" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="AM38" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="AN38" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="AO38" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AP38" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="AP34" t="s">
-        <v>596</v>
-      </c>
-      <c r="AQ34" s="23">
+      <c r="AQ38" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="AT38" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="AU38" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="AV38" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="AW38" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="AX38" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="AY38" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="AZ38" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="BA38" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="BB38" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="39" spans="1:54" ht="60">
+      <c r="C39" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="6"/>
+      <c r="AJ39" s="19"/>
+      <c r="AK39" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="AM39" s="19"/>
+      <c r="AN39" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="AO39" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="AP39" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="AQ39" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="AS39" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="AT39" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="BA39" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="41" spans="1:54">
+      <c r="E41" s="9"/>
+      <c r="AK41" s="1"/>
+    </row>
+    <row r="42" spans="1:54">
+      <c r="A42" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:54">
+      <c r="C43" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:54">
+      <c r="A44" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B44" s="2">
         <v>1</v>
       </c>
-      <c r="AR34" t="s">
-        <v>617</v>
-      </c>
-      <c r="AS34" s="23">
-        <v>1</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>641</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>650</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>186</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>670</v>
-      </c>
-      <c r="AX34">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>681</v>
-      </c>
-      <c r="AZ34" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="BA34">
-        <v>2.8</v>
+      <c r="C44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC44" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AG44" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="AH44" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="AI44" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="AJ44" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="AK44" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="AM44" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="BB44" s="2" t="s">
+        <v>699</v>
       </c>
     </row>
-    <row r="36" spans="1:53">
-      <c r="B36" t="s">
-        <v>476</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN36" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="AO36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ36" s="2" t="s">
-        <v>13</v>
+    <row r="45" spans="1:54">
+      <c r="A45" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB45" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC45" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD45" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AE45" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="AG45" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="AI45" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="AJ45" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="AM45" s="2" t="s">
+        <v>492</v>
       </c>
     </row>
-    <row r="37" spans="1:53" ht="126" customHeight="1">
-      <c r="B37" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="V37" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="Z37" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC37" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="AD37" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="AE37" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="AF37" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="AG37" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="AI37" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="AL37" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="AN37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ37" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="AR37" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="AU37" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="AV37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW37" s="2" t="s">
-        <v>15</v>
+    <row r="46" spans="1:54">
+      <c r="A46" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB46" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ46" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="AK46" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="BB46" s="2" t="s">
+        <v>696</v>
       </c>
     </row>
-    <row r="38" spans="1:53" ht="105">
-      <c r="B38" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="F38" s="6"/>
-      <c r="I38" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y38" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Z38" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="AC38" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="AI38" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="AJ38" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="AK38" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="AL38" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="AM38" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="AN38" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="AO38" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="AP38" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="AS38" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="AT38" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="AU38" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="AV38" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="AW38" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="AX38" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="AY38" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="AZ38" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="BA38" s="2" t="s">
-        <v>703</v>
+    <row r="47" spans="1:54">
+      <c r="A47" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB47" s="2" t="s">
+        <v>376</v>
       </c>
     </row>
-    <row r="39" spans="1:53" ht="60">
-      <c r="B39" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="6"/>
-      <c r="AI39" s="20"/>
-      <c r="AJ39" s="19" t="s">
-        <v>562</v>
-      </c>
-      <c r="AL39" s="20"/>
-      <c r="AM39" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="AN39" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="AO39" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="AP39" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="AR39" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="AS39" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="AZ39" s="2" t="s">
-        <v>687</v>
+    <row r="48" spans="1:54">
+      <c r="A48" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B48" s="2">
+        <v>5</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>418</v>
       </c>
     </row>
-    <row r="41" spans="1:53">
-      <c r="D41" s="9"/>
-      <c r="AJ41" s="1"/>
+    <row r="49" spans="1:54">
+      <c r="A49" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B49" s="2">
+        <v>6</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA49" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB49" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD49" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF49" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG49" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="AH49" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="AI49" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="AJ49" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="AK49" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="AM49" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="AR49" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="AT49" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="BB49" s="2" t="s">
+        <v>697</v>
+      </c>
     </row>
-    <row r="42" spans="1:53">
-      <c r="B42" s="1" t="s">
-        <v>34</v>
+    <row r="50" spans="1:54" ht="30">
+      <c r="A50" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B50" s="2">
+        <v>7</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BB50" s="2" t="s">
+        <v>700</v>
       </c>
     </row>
-    <row r="43" spans="1:53">
-      <c r="B43" s="11" t="s">
-        <v>87</v>
+    <row r="51" spans="1:54">
+      <c r="A51" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B51" s="2">
+        <v>8</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK51" s="2" t="s">
+        <v>708</v>
       </c>
     </row>
-    <row r="44" spans="1:53">
-      <c r="A44" s="2">
-        <v>1</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="AB44" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="AF44" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="AG44" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="AH44" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="AI44" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="AL44" s="2" t="s">
+    <row r="52" spans="1:54">
+      <c r="F52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA52" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD52" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="AF52" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="AG52" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="AK52" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="AM52" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="BA44" s="2" t="s">
-        <v>701</v>
-      </c>
     </row>
-    <row r="45" spans="1:53">
-      <c r="A45" s="2">
-        <v>2</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="AA45" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="AB45" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="AC45" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="AD45" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="AF45" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="AH45" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="AI45" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="AL45" s="2" t="s">
-        <v>492</v>
+    <row r="53" spans="1:54" ht="30">
+      <c r="F53" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>483</v>
+      </c>
+      <c r="AM53" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="AR53" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="AT53" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="BB53" s="2" t="s">
+        <v>478</v>
       </c>
     </row>
-    <row r="46" spans="1:53">
-      <c r="A46" s="2">
-        <v>3</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="U46" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="AA46" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="AI46" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="BA46" s="2" t="s">
-        <v>698</v>
+    <row r="54" spans="1:54" ht="30">
+      <c r="F54" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG54" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ54" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="AM54" s="2" t="s">
+        <v>548</v>
       </c>
     </row>
-    <row r="47" spans="1:53">
-      <c r="A47" s="2">
-        <v>4</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="W47" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="AA47" s="2" t="s">
-        <v>376</v>
+    <row r="55" spans="1:54">
+      <c r="K55" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="48" spans="1:53">
-      <c r="A48" s="2">
-        <v>5</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="W48" s="2" t="s">
-        <v>418</v>
+    <row r="56" spans="1:54">
+      <c r="C56" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:53">
-      <c r="A49" s="2">
-        <v>6</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="W49" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="Z49" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="AA49" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="AC49" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="AE49" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="AF49" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="AG49" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="AH49" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="AI49" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="AL49" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="AQ49" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="AS49" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="BA49" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="50" spans="1:53" ht="30">
-      <c r="A50" s="2">
-        <v>7</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="BA50" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="51" spans="1:53">
-      <c r="A51" s="2">
-        <v>8</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:53">
-      <c r="E52" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="W52" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="Z52" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="AC52" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="AE52" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="AF52" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="AL52" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="53" spans="1:53" ht="30">
-      <c r="E53" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AF53" t="s">
-        <v>483</v>
-      </c>
-      <c r="AL53" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="AQ53" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="AS53" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="BA53" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="54" spans="1:53" ht="30">
-      <c r="E54" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF54" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="AI54" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="AL54" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="55" spans="1:53">
-      <c r="J55" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="56" spans="1:53">
-      <c r="B56" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:53" ht="30">
+    <row r="57" spans="1:54" ht="30">
       <c r="A57" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B57" s="2">
         <v>9</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>125</v>
@@ -7969,37 +8069,37 @@
         <v>125</v>
       </c>
       <c r="H57" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="L57" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="M57" s="2" t="s">
+      <c r="N57" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="V57" s="2" t="s">
+      <c r="W57" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="W57" s="2" t="s">
+      <c r="X57" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="Z57" s="2" t="s">
+      <c r="AA57" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AA57" s="2" t="s">
+      <c r="AB57" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="AB57" s="2" t="s">
+      <c r="AC57" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="AC57" s="2" t="s">
+      <c r="AD57" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="AE57" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="AF57" s="2" t="s">
         <v>429</v>
@@ -8013,13 +8113,16 @@
       <c r="AI57" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="AL57" s="2" t="s">
+      <c r="AJ57" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="AN57" s="2" t="s">
+      <c r="AK57" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="AM57" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="AQ57" s="2" t="s">
+      <c r="AO57" s="2" t="s">
         <v>429</v>
       </c>
       <c r="AR57" s="2" t="s">
@@ -8028,311 +8131,380 @@
       <c r="AS57" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="AU57" s="2" t="s">
+      <c r="AT57" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="BA57" s="2" t="s">
+      <c r="AV57" s="2" t="s">
         <v>429</v>
       </c>
+      <c r="BB57" s="2" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:54">
       <c r="A58" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B58" s="2">
         <v>10</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:54">
       <c r="A59" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B59" s="2">
         <v>11</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:54">
       <c r="A60" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B60" s="2">
         <v>12</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:53" ht="30">
+    <row r="61" spans="1:54" ht="30">
       <c r="A61" s="2">
-        <v>13</v>
-      </c>
-      <c r="B61" s="2" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B61" s="2">
+        <v>13</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="L61" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:53">
-      <c r="B63" s="11" t="s">
+    <row r="63" spans="1:54">
+      <c r="C63" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:53" ht="30">
-      <c r="A64" s="2">
+    <row r="64" spans="1:54" ht="30">
+      <c r="A64">
+        <v>3001</v>
+      </c>
+      <c r="B64" s="2">
         <v>14</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="K64" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AS64" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="BA64" s="2" t="s">
-        <v>696</v>
+      <c r="AK64" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="AT64" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="BB64" s="2" t="s">
+        <v>694</v>
       </c>
     </row>
-    <row r="65" spans="1:53">
-      <c r="A65" s="2">
-        <v>15</v>
-      </c>
-      <c r="B65" s="2" t="s">
+    <row r="65" spans="1:54">
+      <c r="A65">
+        <v>3002</v>
+      </c>
+      <c r="B65" s="2">
+        <v>15</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="K65" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AS65" s="2" t="s">
-        <v>632</v>
+      <c r="AK65" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="AT65" s="2" t="s">
+        <v>630</v>
       </c>
     </row>
-    <row r="66" spans="1:53" ht="30">
-      <c r="A66" s="2">
+    <row r="66" spans="1:54" ht="30">
+      <c r="A66">
+        <v>3003</v>
+      </c>
+      <c r="B66" s="2">
         <v>16</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="K66" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="BA66" s="2" t="s">
-        <v>697</v>
+      <c r="AK66" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="BB66" s="2" t="s">
+        <v>695</v>
       </c>
     </row>
-    <row r="67" spans="1:53" ht="30">
-      <c r="A67" s="2">
+    <row r="67" spans="1:54" ht="30">
+      <c r="A67">
+        <v>3004</v>
+      </c>
+      <c r="B67" s="2">
         <v>17</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BA67" s="2" t="s">
-        <v>697</v>
+      <c r="AK67" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="BB67" s="2" t="s">
+        <v>695</v>
       </c>
     </row>
-    <row r="68" spans="1:53">
-      <c r="A68" s="2">
+    <row r="68" spans="1:54">
+      <c r="A68">
+        <v>3005</v>
+      </c>
+      <c r="B68" s="2">
         <v>18</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:53" ht="30">
-      <c r="A69" s="2">
-        <v>19</v>
-      </c>
-      <c r="B69" s="2" t="s">
+    <row r="69" spans="1:54" ht="30">
+      <c r="A69">
+        <v>3006</v>
+      </c>
+      <c r="B69" s="2">
+        <v>19</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="K69" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AS69" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="BA69" s="2" t="s">
-        <v>696</v>
+      <c r="AK69" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="AT69" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="BB69" s="2" t="s">
+        <v>694</v>
       </c>
     </row>
-    <row r="70" spans="1:53">
-      <c r="A70" s="2">
+    <row r="70" spans="1:54">
+      <c r="A70">
+        <v>3007</v>
+      </c>
+      <c r="B70" s="2">
         <v>20</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="K70" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="AK70" s="2" t="s">
+        <v>702</v>
+      </c>
     </row>
-    <row r="71" spans="1:53" ht="30">
-      <c r="A71" s="2">
+    <row r="71" spans="1:54" ht="30">
+      <c r="A71">
+        <v>3008</v>
+      </c>
+      <c r="B71" s="2">
         <v>21</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="K71" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="72" spans="1:53">
-      <c r="A72" s="2">
+    <row r="72" spans="1:54">
+      <c r="A72">
+        <v>3009</v>
+      </c>
+      <c r="B72" s="2">
         <v>22</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:53">
-      <c r="J73" s="2" t="s">
+    <row r="73" spans="1:54">
+      <c r="K73" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:53">
-      <c r="B75" s="11" t="s">
+    <row r="75" spans="1:54">
+      <c r="C75" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:53">
-      <c r="A76" s="2">
+    <row r="76" spans="1:54">
+      <c r="A76">
+        <v>4001</v>
+      </c>
+      <c r="B76" s="2">
         <v>23</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="L76" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="W76" s="2" t="s">
+      <c r="X76" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="AC76" s="2" t="s">
+      <c r="AD76" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="AD76" t="s">
+      <c r="AE76" t="s">
         <v>449</v>
-      </c>
-      <c r="AE76" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="AF76" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="AQ76" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="AU76" s="2" t="s">
+      <c r="AG76" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="BA76" s="2" t="s">
-        <v>610</v>
+      <c r="AR76" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="AV76" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="BB76" s="2" t="s">
+        <v>608</v>
       </c>
     </row>
-    <row r="77" spans="1:53">
-      <c r="A77" s="2">
+    <row r="77" spans="1:54">
+      <c r="A77">
+        <v>4002</v>
+      </c>
+      <c r="B77" s="2">
         <v>24</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:53">
-      <c r="A78" s="2">
+    <row r="78" spans="1:54">
+      <c r="A78">
+        <v>4003</v>
+      </c>
+      <c r="B78" s="2">
         <v>25</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="79" spans="1:53" ht="30">
-      <c r="A79" s="2">
+    <row r="79" spans="1:54" ht="30">
+      <c r="A79">
+        <v>4004</v>
+      </c>
+      <c r="B79" s="2">
         <v>26</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="G79" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I79" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="K79" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="V79" s="2" t="s">
+      <c r="L79" s="2" t="s">
         <v>414</v>
       </c>
       <c r="W79" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="AD79" s="2" t="s">
+      <c r="X79" s="2" t="s">
         <v>414</v>
       </c>
       <c r="AE79" s="2" t="s">
@@ -8344,271 +8516,307 @@
       <c r="AG79" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="AI79" s="2" t="s">
+      <c r="AH79" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="AL79" s="2" t="s">
+      <c r="AJ79" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="AN79" s="2" t="s">
+      <c r="AM79" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="AR79" s="2" t="s">
+      <c r="AO79" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="AU79" s="2" t="s">
-        <v>656</v>
+      <c r="AS79" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="AV79" s="2" t="s">
+        <v>654</v>
       </c>
     </row>
-    <row r="80" spans="1:53">
-      <c r="A80" s="2">
+    <row r="80" spans="1:54">
+      <c r="A80">
+        <v>4005</v>
+      </c>
+      <c r="B80" s="2">
         <v>27</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AL80" s="2" t="s">
+      <c r="AM80" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="81" spans="1:47">
-      <c r="A81" s="2">
+    <row r="81" spans="1:48">
+      <c r="A81">
+        <v>4006</v>
+      </c>
+      <c r="B81" s="2">
         <v>28</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="1:47" ht="18" customHeight="1">
-      <c r="A82" s="2">
+    <row r="82" spans="1:48" ht="18" customHeight="1">
+      <c r="A82">
+        <v>4007</v>
+      </c>
+      <c r="B82" s="2">
         <v>29</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="V82" s="2" t="s">
+      <c r="W82" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="AD82" s="2" t="s">
+      <c r="AE82" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="AE82" s="2" t="s">
+      <c r="AF82" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="AF82" s="2" t="s">
+      <c r="AG82" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="AG82" s="2" t="s">
+      <c r="AH82" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="AH82" s="2" t="s">
+      <c r="AI82" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="AM82" t="s">
-        <v>559</v>
-      </c>
-      <c r="AU82" s="25" t="s">
-        <v>655</v>
+      <c r="AK82" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="AN82" t="s">
+        <v>557</v>
+      </c>
+      <c r="AV82" s="24" t="s">
+        <v>653</v>
       </c>
     </row>
-    <row r="83" spans="1:47" ht="16.5" customHeight="1">
-      <c r="A83" s="2">
+    <row r="83" spans="1:48" ht="16.5" customHeight="1">
+      <c r="A83">
+        <v>4008</v>
+      </c>
+      <c r="B83" s="2">
         <v>30</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="V83" s="2" t="s">
+      <c r="W83" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="AD83" s="2" t="s">
+      <c r="AE83" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="AE83" s="2" t="s">
+      <c r="AF83" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="AF83" s="2" t="s">
+      <c r="AG83" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="AG83" s="2" t="s">
+      <c r="AH83" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="AH83" s="2" t="s">
+      <c r="AI83" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="AM83" t="s">
-        <v>559</v>
-      </c>
-      <c r="AU83" s="25" t="s">
-        <v>655</v>
+      <c r="AK83" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="AN83" t="s">
+        <v>557</v>
+      </c>
+      <c r="AV83" s="24" t="s">
+        <v>653</v>
       </c>
     </row>
-    <row r="84" spans="1:47">
-      <c r="A84" s="2">
+    <row r="84" spans="1:48">
+      <c r="A84">
+        <v>4009</v>
+      </c>
+      <c r="B84" s="2">
         <v>31</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="AD84" s="2" t="s">
+      <c r="AE84" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="AE84" s="2" t="s">
+      <c r="AF84" s="2" t="s">
         <v>466</v>
       </c>
+      <c r="AK84" s="2" t="s">
+        <v>716</v>
+      </c>
     </row>
-    <row r="85" spans="1:47">
-      <c r="A85" s="2">
+    <row r="85" spans="1:48">
+      <c r="A85">
+        <v>4010</v>
+      </c>
+      <c r="B85" s="2">
         <v>32</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="1:47">
-      <c r="A86" s="2">
+    <row r="86" spans="1:48">
+      <c r="A86">
+        <v>4011</v>
+      </c>
+      <c r="B86" s="2">
         <v>33</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:47" ht="30">
-      <c r="A87" s="2">
+    <row r="87" spans="1:48" ht="30">
+      <c r="A87">
+        <v>4012</v>
+      </c>
+      <c r="B87" s="2">
         <v>34</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D28" r:id="rId1"/>
-    <hyperlink ref="D27" r:id="rId2"/>
-    <hyperlink ref="D26" r:id="rId3"/>
-    <hyperlink ref="D29" r:id="rId4"/>
-    <hyperlink ref="E27" r:id="rId5"/>
-    <hyperlink ref="E28" r:id="rId6"/>
-    <hyperlink ref="F28" r:id="rId7"/>
-    <hyperlink ref="F29" r:id="rId8"/>
-    <hyperlink ref="F27" r:id="rId9"/>
-    <hyperlink ref="G27" r:id="rId10"/>
-    <hyperlink ref="G28" r:id="rId11"/>
-    <hyperlink ref="G26" r:id="rId12"/>
-    <hyperlink ref="E26" r:id="rId13"/>
-    <hyperlink ref="F26" r:id="rId14"/>
-    <hyperlink ref="H26" r:id="rId15"/>
-    <hyperlink ref="J26" r:id="rId16"/>
-    <hyperlink ref="J27" r:id="rId17"/>
-    <hyperlink ref="J28" r:id="rId18"/>
-    <hyperlink ref="J29" r:id="rId19"/>
-    <hyperlink ref="K26" r:id="rId20"/>
-    <hyperlink ref="K27" r:id="rId21"/>
-    <hyperlink ref="K28" r:id="rId22"/>
-    <hyperlink ref="L26" r:id="rId23"/>
-    <hyperlink ref="L27" r:id="rId24"/>
-    <hyperlink ref="L28" r:id="rId25"/>
-    <hyperlink ref="M26" r:id="rId26"/>
-    <hyperlink ref="M28" r:id="rId27"/>
-    <hyperlink ref="N26" r:id="rId28"/>
-    <hyperlink ref="I26" r:id="rId29"/>
-    <hyperlink ref="I27" r:id="rId30"/>
-    <hyperlink ref="I28" r:id="rId31"/>
-    <hyperlink ref="O28" r:id="rId32"/>
-    <hyperlink ref="O26" r:id="rId33"/>
-    <hyperlink ref="P28" r:id="rId34"/>
-    <hyperlink ref="Q26" r:id="rId35"/>
-    <hyperlink ref="Q28" r:id="rId36"/>
-    <hyperlink ref="R28" r:id="rId37"/>
-    <hyperlink ref="R26" r:id="rId38"/>
-    <hyperlink ref="R27" r:id="rId39"/>
-    <hyperlink ref="S26" r:id="rId40"/>
-    <hyperlink ref="S28" r:id="rId41"/>
-    <hyperlink ref="T26" r:id="rId42"/>
-    <hyperlink ref="T28" r:id="rId43"/>
-    <hyperlink ref="T25" r:id="rId44"/>
-    <hyperlink ref="U28" r:id="rId45"/>
-    <hyperlink ref="U27" r:id="rId46"/>
-    <hyperlink ref="U25" r:id="rId47"/>
-    <hyperlink ref="V26" r:id="rId48"/>
-    <hyperlink ref="V28" r:id="rId49"/>
-    <hyperlink ref="V27" r:id="rId50"/>
-    <hyperlink ref="W26" r:id="rId51"/>
-    <hyperlink ref="W28" r:id="rId52"/>
-    <hyperlink ref="W27" r:id="rId53"/>
-    <hyperlink ref="X28" r:id="rId54"/>
-    <hyperlink ref="X29" r:id="rId55"/>
-    <hyperlink ref="X27" r:id="rId56"/>
-    <hyperlink ref="Y27" r:id="rId57"/>
-    <hyperlink ref="Y26" r:id="rId58"/>
-    <hyperlink ref="Z28" r:id="rId59"/>
-    <hyperlink ref="Z27" r:id="rId60"/>
-    <hyperlink ref="Z25" r:id="rId61"/>
-    <hyperlink ref="AA25" r:id="rId62"/>
-    <hyperlink ref="AA28" r:id="rId63"/>
-    <hyperlink ref="AA26" r:id="rId64"/>
-    <hyperlink ref="AA29" r:id="rId65"/>
-    <hyperlink ref="AB26" r:id="rId66"/>
-    <hyperlink ref="AB28" r:id="rId67"/>
-    <hyperlink ref="AB27" r:id="rId68"/>
-    <hyperlink ref="AB44" r:id="rId69" display="https://mayoverse.github.io/arsenal/reference/comparedf.html"/>
-    <hyperlink ref="AB45" r:id="rId70" display="https://mayoverse.github.io/arsenal/reference/comparedf.html"/>
-    <hyperlink ref="AC28" r:id="rId71"/>
-    <hyperlink ref="AC26" r:id="rId72"/>
-    <hyperlink ref="AD27" r:id="rId73"/>
-    <hyperlink ref="AD28" r:id="rId74"/>
-    <hyperlink ref="AG25" r:id="rId75"/>
-    <hyperlink ref="AG27" r:id="rId76"/>
-    <hyperlink ref="AG28" r:id="rId77"/>
-    <hyperlink ref="AH25" r:id="rId78"/>
-    <hyperlink ref="AH28" r:id="rId79"/>
-    <hyperlink ref="AI25" r:id="rId80"/>
-    <hyperlink ref="AI28" r:id="rId81"/>
-    <hyperlink ref="AI27" r:id="rId82"/>
-    <hyperlink ref="AJ25" r:id="rId83"/>
-    <hyperlink ref="AJ28" r:id="rId84"/>
-    <hyperlink ref="AJ27" r:id="rId85"/>
-    <hyperlink ref="AK26" r:id="rId86"/>
-    <hyperlink ref="AK28" r:id="rId87"/>
-    <hyperlink ref="AK27" r:id="rId88"/>
-    <hyperlink ref="AL28" r:id="rId89"/>
-    <hyperlink ref="AN26" r:id="rId90"/>
-    <hyperlink ref="AN27" r:id="rId91"/>
-    <hyperlink ref="AN28" r:id="rId92"/>
-    <hyperlink ref="AS27" r:id="rId93"/>
+    <hyperlink ref="E28" r:id="rId1"/>
+    <hyperlink ref="E27" r:id="rId2"/>
+    <hyperlink ref="E26" r:id="rId3"/>
+    <hyperlink ref="E29" r:id="rId4"/>
+    <hyperlink ref="F27" r:id="rId5"/>
+    <hyperlink ref="F28" r:id="rId6"/>
+    <hyperlink ref="G28" r:id="rId7"/>
+    <hyperlink ref="G29" r:id="rId8"/>
+    <hyperlink ref="G27" r:id="rId9"/>
+    <hyperlink ref="H27" r:id="rId10"/>
+    <hyperlink ref="H28" r:id="rId11"/>
+    <hyperlink ref="H26" r:id="rId12"/>
+    <hyperlink ref="F26" r:id="rId13"/>
+    <hyperlink ref="G26" r:id="rId14"/>
+    <hyperlink ref="I26" r:id="rId15"/>
+    <hyperlink ref="K26" r:id="rId16"/>
+    <hyperlink ref="K27" r:id="rId17"/>
+    <hyperlink ref="K28" r:id="rId18"/>
+    <hyperlink ref="K29" r:id="rId19"/>
+    <hyperlink ref="L26" r:id="rId20"/>
+    <hyperlink ref="L27" r:id="rId21"/>
+    <hyperlink ref="L28" r:id="rId22"/>
+    <hyperlink ref="M26" r:id="rId23"/>
+    <hyperlink ref="M27" r:id="rId24"/>
+    <hyperlink ref="M28" r:id="rId25"/>
+    <hyperlink ref="N26" r:id="rId26"/>
+    <hyperlink ref="N28" r:id="rId27"/>
+    <hyperlink ref="O26" r:id="rId28"/>
+    <hyperlink ref="J26" r:id="rId29"/>
+    <hyperlink ref="J27" r:id="rId30"/>
+    <hyperlink ref="J28" r:id="rId31"/>
+    <hyperlink ref="P28" r:id="rId32"/>
+    <hyperlink ref="P26" r:id="rId33"/>
+    <hyperlink ref="Q28" r:id="rId34"/>
+    <hyperlink ref="R26" r:id="rId35"/>
+    <hyperlink ref="R28" r:id="rId36"/>
+    <hyperlink ref="S28" r:id="rId37"/>
+    <hyperlink ref="S26" r:id="rId38"/>
+    <hyperlink ref="S27" r:id="rId39"/>
+    <hyperlink ref="T26" r:id="rId40"/>
+    <hyperlink ref="T28" r:id="rId41"/>
+    <hyperlink ref="U26" r:id="rId42"/>
+    <hyperlink ref="U28" r:id="rId43"/>
+    <hyperlink ref="U25" r:id="rId44"/>
+    <hyperlink ref="V28" r:id="rId45"/>
+    <hyperlink ref="V27" r:id="rId46"/>
+    <hyperlink ref="V25" r:id="rId47"/>
+    <hyperlink ref="W26" r:id="rId48"/>
+    <hyperlink ref="W28" r:id="rId49"/>
+    <hyperlink ref="W27" r:id="rId50"/>
+    <hyperlink ref="X26" r:id="rId51"/>
+    <hyperlink ref="X28" r:id="rId52"/>
+    <hyperlink ref="X27" r:id="rId53"/>
+    <hyperlink ref="Y28" r:id="rId54"/>
+    <hyperlink ref="Y29" r:id="rId55"/>
+    <hyperlink ref="Y27" r:id="rId56"/>
+    <hyperlink ref="Z27" r:id="rId57"/>
+    <hyperlink ref="Z26" r:id="rId58"/>
+    <hyperlink ref="AA28" r:id="rId59"/>
+    <hyperlink ref="AA27" r:id="rId60"/>
+    <hyperlink ref="AA25" r:id="rId61"/>
+    <hyperlink ref="AB25" r:id="rId62"/>
+    <hyperlink ref="AB28" r:id="rId63"/>
+    <hyperlink ref="AB26" r:id="rId64"/>
+    <hyperlink ref="AB29" r:id="rId65"/>
+    <hyperlink ref="AC26" r:id="rId66"/>
+    <hyperlink ref="AC28" r:id="rId67"/>
+    <hyperlink ref="AC27" r:id="rId68"/>
+    <hyperlink ref="AC44" r:id="rId69" display="https://mayoverse.github.io/arsenal/reference/comparedf.html"/>
+    <hyperlink ref="AC45" r:id="rId70" display="https://mayoverse.github.io/arsenal/reference/comparedf.html"/>
+    <hyperlink ref="AD28" r:id="rId71"/>
+    <hyperlink ref="AD26" r:id="rId72"/>
+    <hyperlink ref="AE27" r:id="rId73"/>
+    <hyperlink ref="AE28" r:id="rId74"/>
+    <hyperlink ref="AH25" r:id="rId75"/>
+    <hyperlink ref="AH27" r:id="rId76"/>
+    <hyperlink ref="AH28" r:id="rId77"/>
+    <hyperlink ref="AI25" r:id="rId78"/>
+    <hyperlink ref="AI28" r:id="rId79"/>
+    <hyperlink ref="AJ25" r:id="rId80"/>
+    <hyperlink ref="AJ28" r:id="rId81"/>
+    <hyperlink ref="AJ27" r:id="rId82"/>
+    <hyperlink ref="AK25" r:id="rId83"/>
+    <hyperlink ref="AK28" r:id="rId84"/>
+    <hyperlink ref="AK27" r:id="rId85"/>
+    <hyperlink ref="AL26" r:id="rId86"/>
+    <hyperlink ref="AL28" r:id="rId87"/>
+    <hyperlink ref="AL27" r:id="rId88"/>
+    <hyperlink ref="AM28" r:id="rId89"/>
+    <hyperlink ref="AO26" r:id="rId90"/>
+    <hyperlink ref="AO27" r:id="rId91"/>
+    <hyperlink ref="AO28" r:id="rId92"/>
+    <hyperlink ref="AT27" r:id="rId93"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId94"/>
